--- a/chapters.xlsx
+++ b/chapters.xlsx
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="chapters" sheetId="1" r:id="rId1"/>
+    <sheet name="csv" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="226">
   <si>
     <t>1.03.IntroductionToWorkbench.md</t>
   </si>
@@ -78,9 +79,6 @@
     <t>destination file</t>
   </si>
   <si>
-    <t>DesktopBasic0Introduction</t>
-  </si>
-  <si>
     <t>DesktopBasic1Basics</t>
   </si>
   <si>
@@ -99,9 +97,6 @@
     <t>CADGIS2LabDemo</t>
   </si>
   <si>
-    <t>0.00.CourseIntroduction.md</t>
-  </si>
-  <si>
     <t>1.01.WhatIsFME.md</t>
   </si>
   <si>
@@ -111,9 +106,6 @@
     <t>CADGIS3LabExercises</t>
   </si>
   <si>
-    <t>numbers</t>
-  </si>
-  <si>
     <t>01</t>
   </si>
   <si>
@@ -247,6 +239,465 @@
   </si>
   <si>
     <t>2.Exercise6.md</t>
+  </si>
+  <si>
+    <t>chap</t>
+  </si>
+  <si>
+    <t>sec</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>CourseOverview</t>
+  </si>
+  <si>
+    <t>CourseResources</t>
+  </si>
+  <si>
+    <t>WhyFME</t>
+  </si>
+  <si>
+    <t>Lecture</t>
+  </si>
+  <si>
+    <t>LabDemo</t>
+  </si>
+  <si>
+    <t>LabExercises</t>
+  </si>
+  <si>
+    <t>Getting Started with FME Desktop</t>
+  </si>
+  <si>
+    <t>GettingStartedwithAutoCAD</t>
+  </si>
+  <si>
+    <t>HandlingBlocksInDWG</t>
+  </si>
+  <si>
+    <t>GroupingEntitiesInDWG</t>
+  </si>
+  <si>
+    <t>DWGtoDGN</t>
+  </si>
+  <si>
+    <t>SHPtoDWG</t>
+  </si>
+  <si>
+    <t>ExplodingBlockEntitiesInDWG</t>
+  </si>
+  <si>
+    <t>PreservingBlockEntitiesInDWG</t>
+  </si>
+  <si>
+    <t>0.00.0.00.About.md.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.01.CourseOverview.md</t>
+  </si>
+  <si>
+    <t>0.02.CourseResources.md</t>
+  </si>
+  <si>
+    <t>1.00.Lecture.md</t>
+  </si>
+  <si>
+    <t>1.01.WhyFME.md</t>
+  </si>
+  <si>
+    <t>1.02.WhatIsFME.md</t>
+  </si>
+  <si>
+    <t>DesktopBasic1Basics/1.01.WhatIsFME.md</t>
+  </si>
+  <si>
+    <t>CADGIS1Lecture/1.02.WhatIsFME.md</t>
+  </si>
+  <si>
+    <t>1.03.DataTransformation.md</t>
+  </si>
+  <si>
+    <t>DesktopBasic2Transformation/2.00.DataTransformation.md</t>
+  </si>
+  <si>
+    <t>CADGIS1Lecture/1.03.DataTransformation.md</t>
+  </si>
+  <si>
+    <t>1.04.WhatIsDataTransformation.md</t>
+  </si>
+  <si>
+    <t>DesktopBasic2Transformation/2.01.WhatIsDataTransformation.md</t>
+  </si>
+  <si>
+    <t>CADGIS1Lecture/1.04.WhatIsDataTransformation.md</t>
+  </si>
+  <si>
+    <t>1.05.StructuralTransformation.md</t>
+  </si>
+  <si>
+    <t>DesktopBasic2Transformation/2.02.StructuralTransformation.md</t>
+  </si>
+  <si>
+    <t>CADGIS1Lecture/1.05.StructuralTransformation.md</t>
+  </si>
+  <si>
+    <t>1.06.SchemaEditing.md</t>
+  </si>
+  <si>
+    <t>DesktopBasic2Transformation/2.03.SchemaEditing.md</t>
+  </si>
+  <si>
+    <t>CADGIS1Lecture/1.06.SchemaEditing.md</t>
+  </si>
+  <si>
+    <t>1.07.SchemaMapping.md</t>
+  </si>
+  <si>
+    <t>DesktopBasic2Transformation/2.04.SchemaMapping.md</t>
+  </si>
+  <si>
+    <t>CADGIS1Lecture/1.07.SchemaMapping.md</t>
+  </si>
+  <si>
+    <t>2.00.LabDemo.md</t>
+  </si>
+  <si>
+    <t>2.01.FMEDesktopComponents.md</t>
+  </si>
+  <si>
+    <t>DesktopBasic1Basics/1.02.FMEDesktopComponents.md</t>
+  </si>
+  <si>
+    <t>CADGIS2LabDemo/2.01.FMEDesktopComponents.md</t>
+  </si>
+  <si>
+    <t>2.02.IntroductionToWorkbench.md</t>
+  </si>
+  <si>
+    <t>DesktopBasic1Basics/1.03.IntroductionToWorkbench.md</t>
+  </si>
+  <si>
+    <t>CADGIS2LabDemo/2.02.IntroductionToWorkbench.md</t>
+  </si>
+  <si>
+    <t>2.03.WindowControl.md</t>
+  </si>
+  <si>
+    <t>DesktopBasic1Basics/1.04.WindowControl.md</t>
+  </si>
+  <si>
+    <t>CADGIS2LabDemo/2.03.WindowControl.md</t>
+  </si>
+  <si>
+    <t>2.04.CreatingATranslation.md</t>
+  </si>
+  <si>
+    <t>DesktopBasic1Basics/1.05.CreatingATranslation.md</t>
+  </si>
+  <si>
+    <t>CADGIS2LabDemo/2.04.CreatingATranslation.md</t>
+  </si>
+  <si>
+    <t>2.05.TheNewWorkspace.md</t>
+  </si>
+  <si>
+    <t>DesktopBasic1Basics/1.06.TheNewWorkspace.md</t>
+  </si>
+  <si>
+    <t>CADGIS2LabDemo/2.05.TheNewWorkspace.md</t>
+  </si>
+  <si>
+    <t>2.06.RunningTheWorkspace.md</t>
+  </si>
+  <si>
+    <t>DesktopBasic1Basics/1.07.RunningTheWorkspace.md</t>
+  </si>
+  <si>
+    <t>CADGIS2LabDemo/2.06.RunningTheWorkspace.md</t>
+  </si>
+  <si>
+    <t>2.07.WhatIsDataInspection.md</t>
+  </si>
+  <si>
+    <t>DesktopBasic1Basics/1.08.WhatIsDataInspection.md</t>
+  </si>
+  <si>
+    <t>CADGIS2LabDemo/2.07.WhatIsDataInspection.md</t>
+  </si>
+  <si>
+    <t>2.08.IntroductionToDataInspector.md</t>
+  </si>
+  <si>
+    <t>DesktopBasic1Basics/1.09.IntroductionToDataInspector.md</t>
+  </si>
+  <si>
+    <t>CADGIS2LabDemo/2.08.IntroductionToDataInspector.md</t>
+  </si>
+  <si>
+    <t>2.09.ViewingData.md</t>
+  </si>
+  <si>
+    <t>DesktopBasic1Basics/1.10.ViewingData.md</t>
+  </si>
+  <si>
+    <t>CADGIS2LabDemo/2.09.ViewingData.md</t>
+  </si>
+  <si>
+    <t>2.10.QueryingData.md</t>
+  </si>
+  <si>
+    <t>DesktopBasic1Basics/1.11.QueryingData.md</t>
+  </si>
+  <si>
+    <t>CADGIS2LabDemo/2.10.QueryingData.md</t>
+  </si>
+  <si>
+    <t>2.11.DataInspectorDisplayControl.md</t>
+  </si>
+  <si>
+    <t>DesktopBasic1Basics/1.12.DataInspectorDisplayControl.md</t>
+  </si>
+  <si>
+    <t>CADGIS2LabDemo/2.11.DataInspectorDisplayControl.md</t>
+  </si>
+  <si>
+    <t>2.12.BackgroundMaps.md</t>
+  </si>
+  <si>
+    <t>DesktopBasic1Basics/1.13.BackgroundMaps.md</t>
+  </si>
+  <si>
+    <t>CADGIS2LabDemo/2.12.BackgroundMaps.md</t>
+  </si>
+  <si>
+    <t>2.13.ReaderParameters.md</t>
+  </si>
+  <si>
+    <t>DesktopBasic1Basics/1.14.ReaderParameters.md</t>
+  </si>
+  <si>
+    <t>CADGIS2LabDemo/2.13.ReaderParameters.md</t>
+  </si>
+  <si>
+    <t>2.14.WriterParameters.md</t>
+  </si>
+  <si>
+    <t>DesktopBasic1Basics/1.15.WriterParameters.md</t>
+  </si>
+  <si>
+    <t>CADGIS2LabDemo/2.14.WriterParameters.md</t>
+  </si>
+  <si>
+    <t>2.15.TransformationWithTransformers.md</t>
+  </si>
+  <si>
+    <t>DesktopBasic2Transformation/2.05.TransformationWithTransformers.md</t>
+  </si>
+  <si>
+    <t>CADGIS2LabDemo/2.15.TransformationWithTransformers.md</t>
+  </si>
+  <si>
+    <t>2.16.ContentTransformation.md</t>
+  </si>
+  <si>
+    <t>DesktopBasic2Transformation/2.06.ContentTransformation.md</t>
+  </si>
+  <si>
+    <t>CADGIS2LabDemo/2.16.ContentTransformation.md</t>
+  </si>
+  <si>
+    <t>2.17.TransformersInSeries.md</t>
+  </si>
+  <si>
+    <t>DesktopBasic2Transformation/2.07.TransformersInSeries.md</t>
+  </si>
+  <si>
+    <t>CADGIS2LabDemo/2.17.TransformersInSeries.md</t>
+  </si>
+  <si>
+    <t>2.18.FeatureCounts.md</t>
+  </si>
+  <si>
+    <t>DesktopBasic2Transformation/2.08.FeatureCounts.md</t>
+  </si>
+  <si>
+    <t>CADGIS2LabDemo/2.18.FeatureCounts.md</t>
+  </si>
+  <si>
+    <t>2.19.TransformersInParallel.md</t>
+  </si>
+  <si>
+    <t>DesktopBasic2Transformation/2.09.TransformersInParallel.md</t>
+  </si>
+  <si>
+    <t>CADGIS2LabDemo/2.19.TransformersInParallel.md</t>
+  </si>
+  <si>
+    <t>2.20.GroupByProcessing.md</t>
+  </si>
+  <si>
+    <t>DesktopBasic2Transformation/2.10.GroupByProcessing.md</t>
+  </si>
+  <si>
+    <t>CADGIS2LabDemo/2.20.GroupByProcessing.md</t>
+  </si>
+  <si>
+    <t>2.21.DataInspectionFromWorkbench.md</t>
+  </si>
+  <si>
+    <t>DesktopBasic2Transformation/2.11.DataInspectionFromWorkbench.md</t>
+  </si>
+  <si>
+    <t>CADGIS2LabDemo/2.21.DataInspectionFromWorkbench.md</t>
+  </si>
+  <si>
+    <t>2.22.CoordinateSystemTransformation.md</t>
+  </si>
+  <si>
+    <t>DesktopBasic2Transformation/2.12.CoordinateSystemTransformation.md</t>
+  </si>
+  <si>
+    <t>CADGIS2LabDemo/2.22.CoordinateSystemTransformation.md</t>
+  </si>
+  <si>
+    <t>3.00.LabExercises.md</t>
+  </si>
+  <si>
+    <t>3.00.Getting Started with FME Desktop.md</t>
+  </si>
+  <si>
+    <t>3.01.Exercise1.md</t>
+  </si>
+  <si>
+    <t>DesktopBasic1Basics/1.Exercise1.md</t>
+  </si>
+  <si>
+    <t>CADGIS3LabExercises/3.01.Exercise1.md</t>
+  </si>
+  <si>
+    <t>3.02.Exercise2.md</t>
+  </si>
+  <si>
+    <t>DesktopBasic1Basics/1.Exercise2.md</t>
+  </si>
+  <si>
+    <t>CADGIS3LabExercises/3.02.Exercise2.md</t>
+  </si>
+  <si>
+    <t>3.03.Exercise3.md</t>
+  </si>
+  <si>
+    <t>DesktopBasic1Basics/1.Exercise3.md</t>
+  </si>
+  <si>
+    <t>CADGIS3LabExercises/3.03.Exercise3.md</t>
+  </si>
+  <si>
+    <t>3.04.Exercise4.md</t>
+  </si>
+  <si>
+    <t>DesktopBasic1Basics/1.Exercise4.md</t>
+  </si>
+  <si>
+    <t>CADGIS3LabExercises/3.04.Exercise4.md</t>
+  </si>
+  <si>
+    <t>3.05.Exercise1.md</t>
+  </si>
+  <si>
+    <t>DesktopBasic2Transformation/2.Exercise1.md</t>
+  </si>
+  <si>
+    <t>CADGIS3LabExercises/3.05.Exercise1.md</t>
+  </si>
+  <si>
+    <t>3.06.Exercise2.md</t>
+  </si>
+  <si>
+    <t>DesktopBasic2Transformation/2.Exercise2.md</t>
+  </si>
+  <si>
+    <t>CADGIS3LabExercises/3.06.Exercise2.md</t>
+  </si>
+  <si>
+    <t>3.07.Exercise3.md</t>
+  </si>
+  <si>
+    <t>DesktopBasic2Transformation/2.Exercise3.md</t>
+  </si>
+  <si>
+    <t>CADGIS3LabExercises/3.07.Exercise3.md</t>
+  </si>
+  <si>
+    <t>3.08.Exercise4.md</t>
+  </si>
+  <si>
+    <t>DesktopBasic2Transformation/2.Exercise4.md</t>
+  </si>
+  <si>
+    <t>CADGIS3LabExercises/3.08.Exercise4.md</t>
+  </si>
+  <si>
+    <t>3.09.Exercise5.md</t>
+  </si>
+  <si>
+    <t>DesktopBasic2Transformation/2.Exercise5.md</t>
+  </si>
+  <si>
+    <t>CADGIS3LabExercises/3.09.Exercise5.md</t>
+  </si>
+  <si>
+    <t>3.10.Exercise6.md</t>
+  </si>
+  <si>
+    <t>DesktopBasic2Transformation/2.Exercise6.md</t>
+  </si>
+  <si>
+    <t>CADGIS3LabExercises/3.10.Exercise6.md</t>
+  </si>
+  <si>
+    <t>3.11.GettingStartedwithAutoCAD.md</t>
+  </si>
+  <si>
+    <t>3.12.GroupingEntitiesInDWG.md</t>
+  </si>
+  <si>
+    <t>3.13.HandlingBlocksInDWG.md</t>
+  </si>
+  <si>
+    <t>3.14.DWGtoDGN.md</t>
+  </si>
+  <si>
+    <t>3.15.SHPtoDWG.md</t>
+  </si>
+  <si>
+    <t>3.16.ExplodingBlockEntitiesInDWG.md</t>
+  </si>
+  <si>
+    <t>3.17.PreservingBlockEntitiesInDWG.md</t>
+  </si>
+  <si>
+    <t>GettingStartedwithFMEDesktop</t>
   </si>
 </sst>
 </file>
@@ -1055,1062 +1506,3220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="34.90625" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="32.36328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="51.36328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="2"/>
+    <col min="3" max="5" width="6.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="32.36328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="51.36328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f>IF(ISBLANK(A2),C2&amp;"."&amp;E2&amp;"."&amp;B2&amp;".md",C2&amp;"."&amp;E2&amp;"."&amp;RIGHT(B2,LEN(B2)-5))</f>
+        <v>0.00.0.00.About.md.md</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <f>IF(ISBLANK(A2),"",A2&amp;"/"&amp;B2)</f>
+        <v/>
+      </c>
+      <c r="I2" s="2" t="str">
+        <f>IF(ISBLANK(A2),"",F2&amp;"/"&amp;G2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <f t="shared" ref="G3:G36" si="0">IF(ISBLANK(A3),C3&amp;"."&amp;E3&amp;"."&amp;B3&amp;".md",C3&amp;"."&amp;E3&amp;"."&amp;RIGHT(B3,LEN(B3)-5))</f>
+        <v>0.01.CourseOverview.md</v>
+      </c>
+      <c r="H3" s="2" t="str">
+        <f t="shared" ref="H3:H54" si="1">IF(ISBLANK(A3),"",A3&amp;"/"&amp;B3)</f>
+        <v/>
+      </c>
+      <c r="I3" s="2" t="str">
+        <f t="shared" ref="I3:I54" si="2">IF(ISBLANK(A3),"",F3&amp;"/"&amp;G3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0.02.CourseResources.md</v>
+      </c>
+      <c r="H4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1.00.Lecture.md</v>
+      </c>
+      <c r="H5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1.01.WhyFME.md</v>
+      </c>
+      <c r="H6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I6" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="2" t="str">
-        <f>A2&amp;"/"&amp;B2</f>
-        <v>DesktopBasic0Introduction/0.00.CourseIntroduction.md</v>
-      </c>
-      <c r="G2" s="2" t="str">
-        <f>C2&amp;"/"&amp;D2</f>
-        <v>CADGIS0About/0.00.About.md</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2" t="str">
-        <f>"1."&amp;E3&amp;"."&amp;RIGHT(B3,LEN(B3)-5)</f>
+      <c r="G7" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>1.02.WhatIsFME.md</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="2" t="str">
-        <f>A3&amp;"/"&amp;B3</f>
+      <c r="H7" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>DesktopBasic1Basics/1.01.WhatIsFME.md</v>
       </c>
-      <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G22" si="0">C3&amp;"/"&amp;D3</f>
+      <c r="I7" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>CADGIS1Lecture/1.02.WhatIsFME.md</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2" t="str">
-        <f t="shared" ref="D4:D8" si="1">"1."&amp;E4&amp;"."&amp;RIGHT(B4,LEN(B4)-5)</f>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>1.03.DataTransformation.md</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="2" t="str">
-        <f t="shared" ref="F4:F8" si="2">A4&amp;"/"&amp;B4</f>
+      <c r="H8" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>DesktopBasic2Transformation/2.00.DataTransformation.md</v>
       </c>
-      <c r="G4" s="2" t="str">
-        <f t="shared" ref="G4:G8" si="3">C4&amp;"/"&amp;D4</f>
+      <c r="I8" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>CADGIS1Lecture/1.03.DataTransformation.md</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1.04.WhatIsDataTransformation.md</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DesktopBasic2Transformation/2.01.WhatIsDataTransformation.md</v>
-      </c>
-      <c r="G5" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>CADGIS1Lecture/1.04.WhatIsDataTransformation.md</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1.05.StructuralTransformation.md</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DesktopBasic2Transformation/2.02.StructuralTransformation.md</v>
-      </c>
-      <c r="G6" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>CADGIS1Lecture/1.05.StructuralTransformation.md</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1.06.SchemaEditing.md</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DesktopBasic2Transformation/2.03.SchemaEditing.md</v>
-      </c>
-      <c r="G7" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>CADGIS1Lecture/1.06.SchemaEditing.md</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1.07.SchemaMapping.md</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DesktopBasic2Transformation/2.04.SchemaMapping.md</v>
-      </c>
-      <c r="G8" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>CADGIS1Lecture/1.07.SchemaMapping.md</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="2" t="str">
-        <f>"2."&amp;E9&amp;"."&amp;RIGHT(B9,LEN(B9)-5)</f>
-        <v>2.01.FMEDesktopComponents.md</v>
+        <v>76</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="2" t="str">
-        <f>A9&amp;"/"&amp;B9</f>
-        <v>DesktopBasic1Basics/1.02.FMEDesktopComponents.md</v>
+        <v>32</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="G9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>CADGIS2LabDemo/2.01.FMEDesktopComponents.md</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>0</v>
+        <v>1.04.WhatIsDataTransformation.md</v>
+      </c>
+      <c r="H9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.01.WhatIsDataTransformation.md</v>
+      </c>
+      <c r="I9" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS1Lecture/1.04.WhatIsDataTransformation.md</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2" t="str">
-        <f>"2."&amp;E10&amp;"."&amp;RIGHT(B10,LEN(B10)-5)</f>
-        <v>2.02.IntroductionToWorkbench.md</v>
+        <v>76</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="2" t="str">
-        <f t="shared" ref="F10:F22" si="4">A10&amp;"/"&amp;B10</f>
-        <v>DesktopBasic1Basics/1.03.IntroductionToWorkbench.md</v>
+      <c r="F10" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="G10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>CADGIS2LabDemo/2.02.IntroductionToWorkbench.md</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
+        <v>1.05.StructuralTransformation.md</v>
+      </c>
+      <c r="H10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.02.StructuralTransformation.md</v>
+      </c>
+      <c r="I10" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS1Lecture/1.05.StructuralTransformation.md</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2" t="str">
-        <f t="shared" ref="D11:D22" si="5">"2."&amp;E11&amp;"."&amp;RIGHT(B11,LEN(B11)-5)</f>
-        <v>2.03.WindowControl.md</v>
+        <v>76</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>DesktopBasic1Basics/1.04.WindowControl.md</v>
+      <c r="F11" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="G11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>CADGIS2LabDemo/2.03.WindowControl.md</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>2</v>
+        <v>1.06.SchemaEditing.md</v>
+      </c>
+      <c r="H11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.03.SchemaEditing.md</v>
+      </c>
+      <c r="I11" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS1Lecture/1.06.SchemaEditing.md</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>2.04.CreatingATranslation.md</v>
+        <v>76</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>DesktopBasic1Basics/1.05.CreatingATranslation.md</v>
+      <c r="F12" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="G12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>CADGIS2LabDemo/2.04.CreatingATranslation.md</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>1.07.SchemaMapping.md</v>
+      </c>
+      <c r="H12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.04.SchemaMapping.md</v>
+      </c>
+      <c r="I12" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS1Lecture/1.07.SchemaMapping.md</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>85</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>2.05.TheNewWorkspace.md</v>
+        <v>77</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>DesktopBasic1Basics/1.06.TheNewWorkspace.md</v>
+        <v>79</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="G13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>CADGIS2LabDemo/2.05.TheNewWorkspace.md</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2.00.LabDemo.md</v>
+      </c>
+      <c r="H13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I13" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>2.06.RunningTheWorkspace.md</v>
+        <v>77</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>DesktopBasic1Basics/1.07.RunningTheWorkspace.md</v>
+        <v>28</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="G14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>CADGIS2LabDemo/2.06.RunningTheWorkspace.md</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2.01.FMEDesktopComponents.md</v>
+      </c>
+      <c r="H14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.02.FMEDesktopComponents.md</v>
+      </c>
+      <c r="I14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.01.FMEDesktopComponents.md</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>2.07.WhatIsDataInspection.md</v>
+        <v>77</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>DesktopBasic1Basics/1.08.WhatIsDataInspection.md</v>
+        <v>30</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="G15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>CADGIS2LabDemo/2.07.WhatIsDataInspection.md</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2.02.IntroductionToWorkbench.md</v>
+      </c>
+      <c r="H15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.03.IntroductionToWorkbench.md</v>
+      </c>
+      <c r="I15" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.02.IntroductionToWorkbench.md</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>2.08.IntroductionToDataInspector.md</v>
+        <v>77</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>DesktopBasic1Basics/1.09.IntroductionToDataInspector.md</v>
+        <v>31</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="G16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>CADGIS2LabDemo/2.08.IntroductionToDataInspector.md</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2.03.WindowControl.md</v>
+      </c>
+      <c r="H16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.04.WindowControl.md</v>
+      </c>
+      <c r="I16" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.03.WindowControl.md</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>2.09.ViewingData.md</v>
+        <v>77</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>DesktopBasic1Basics/1.10.ViewingData.md</v>
+        <v>32</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="G17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>CADGIS2LabDemo/2.09.ViewingData.md</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2.04.CreatingATranslation.md</v>
+      </c>
+      <c r="H17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.05.CreatingATranslation.md</v>
+      </c>
+      <c r="I17" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.04.CreatingATranslation.md</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>2.10.QueryingData.md</v>
+        <v>77</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>DesktopBasic1Basics/1.11.QueryingData.md</v>
+        <v>33</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="G18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>CADGIS2LabDemo/2.10.QueryingData.md</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2.05.TheNewWorkspace.md</v>
+      </c>
+      <c r="H18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.06.TheNewWorkspace.md</v>
+      </c>
+      <c r="I18" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.05.TheNewWorkspace.md</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>2.11.DataInspectorDisplayControl.md</v>
+        <v>77</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>DesktopBasic1Basics/1.12.DataInspectorDisplayControl.md</v>
+        <v>34</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="G19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>CADGIS2LabDemo/2.11.DataInspectorDisplayControl.md</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2.06.RunningTheWorkspace.md</v>
+      </c>
+      <c r="H19" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.07.RunningTheWorkspace.md</v>
+      </c>
+      <c r="I19" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.06.RunningTheWorkspace.md</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>2.12.BackgroundMaps.md</v>
+        <v>77</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>DesktopBasic1Basics/1.13.BackgroundMaps.md</v>
+        <v>35</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="G20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>CADGIS2LabDemo/2.12.BackgroundMaps.md</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2.07.WhatIsDataInspection.md</v>
+      </c>
+      <c r="H20" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.08.WhatIsDataInspection.md</v>
+      </c>
+      <c r="I20" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.07.WhatIsDataInspection.md</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>2.13.ReaderParameters.md</v>
+        <v>77</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>DesktopBasic1Basics/1.14.ReaderParameters.md</v>
+        <v>36</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="G21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>CADGIS2LabDemo/2.13.ReaderParameters.md</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2.08.IntroductionToDataInspector.md</v>
+      </c>
+      <c r="H21" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.09.IntroductionToDataInspector.md</v>
+      </c>
+      <c r="I21" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.08.IntroductionToDataInspector.md</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>2.14.WriterParameters.md</v>
+        <v>77</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>DesktopBasic1Basics/1.15.WriterParameters.md</v>
+        <v>37</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="G22" s="2" t="str">
         <f t="shared" si="0"/>
+        <v>2.09.ViewingData.md</v>
+      </c>
+      <c r="H22" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.10.ViewingData.md</v>
+      </c>
+      <c r="I22" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.09.ViewingData.md</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.10.QueryingData.md</v>
+      </c>
+      <c r="H23" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.11.QueryingData.md</v>
+      </c>
+      <c r="I23" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.10.QueryingData.md</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.11.DataInspectorDisplayControl.md</v>
+      </c>
+      <c r="H24" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.12.DataInspectorDisplayControl.md</v>
+      </c>
+      <c r="I24" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.11.DataInspectorDisplayControl.md</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.12.BackgroundMaps.md</v>
+      </c>
+      <c r="H25" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.13.BackgroundMaps.md</v>
+      </c>
+      <c r="I25" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.12.BackgroundMaps.md</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.13.ReaderParameters.md</v>
+      </c>
+      <c r="H26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.14.ReaderParameters.md</v>
+      </c>
+      <c r="I26" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.13.ReaderParameters.md</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.14.WriterParameters.md</v>
+      </c>
+      <c r="H27" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.15.WriterParameters.md</v>
+      </c>
+      <c r="I27" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>CADGIS2LabDemo/2.14.WriterParameters.md</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.15.TransformationWithTransformers.md</v>
+      </c>
+      <c r="H28" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.05.TransformationWithTransformers.md</v>
+      </c>
+      <c r="I28" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.15.TransformationWithTransformers.md</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.16.ContentTransformation.md</v>
+      </c>
+      <c r="H29" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.06.ContentTransformation.md</v>
+      </c>
+      <c r="I29" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.16.ContentTransformation.md</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.17.TransformersInSeries.md</v>
+      </c>
+      <c r="H30" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.07.TransformersInSeries.md</v>
+      </c>
+      <c r="I30" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.17.TransformersInSeries.md</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="2" t="str">
-        <f>"2."&amp;E23&amp;"."&amp;RIGHT(B23,LEN(B23)-5)</f>
-        <v>2.15.TransformationWithTransformers.md</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="2" t="str">
-        <f>A23&amp;"/"&amp;B23</f>
-        <v>DesktopBasic2Transformation/2.05.TransformationWithTransformers.md</v>
-      </c>
-      <c r="G23" s="2" t="str">
-        <f>C23&amp;"/"&amp;D23</f>
-        <v>CADGIS2LabDemo/2.15.TransformationWithTransformers.md</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="F31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.18.FeatureCounts.md</v>
+      </c>
+      <c r="H31" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.08.FeatureCounts.md</v>
+      </c>
+      <c r="I31" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.18.FeatureCounts.md</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.19.TransformersInParallel.md</v>
+      </c>
+      <c r="H32" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.09.TransformersInParallel.md</v>
+      </c>
+      <c r="I32" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.19.TransformersInParallel.md</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.20.GroupByProcessing.md</v>
+      </c>
+      <c r="H33" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.10.GroupByProcessing.md</v>
+      </c>
+      <c r="I33" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.20.GroupByProcessing.md</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.21.DataInspectionFromWorkbench.md</v>
+      </c>
+      <c r="H34" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.11.DataInspectionFromWorkbench.md</v>
+      </c>
+      <c r="I34" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.21.DataInspectionFromWorkbench.md</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.22.CoordinateSystemTransformation.md</v>
+      </c>
+      <c r="H35" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.12.CoordinateSystemTransformation.md</v>
+      </c>
+      <c r="I35" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.22.CoordinateSystemTransformation.md</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>3.00.LabExercises.md</v>
+      </c>
+      <c r="H36" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I36" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>225</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="2" t="str">
+        <f t="shared" ref="G37:G47" si="3">IF(ISBLANK(A37),C37&amp;"."&amp;E36&amp;"."&amp;B37&amp;".md",C37&amp;"."&amp;E36&amp;"."&amp;RIGHT(B37,LEN(B37)-2))</f>
+        <v>3.00.GettingStartedwithFMEDesktop.md</v>
+      </c>
+      <c r="H37" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I37" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>3.01.Exercise1.md</v>
+      </c>
+      <c r="H38" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.Exercise1.md</v>
+      </c>
+      <c r="I38" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS3LabExercises/3.01.Exercise1.md</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>3.02.Exercise2.md</v>
+      </c>
+      <c r="H39" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.Exercise2.md</v>
+      </c>
+      <c r="I39" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS3LabExercises/3.02.Exercise2.md</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>3.03.Exercise3.md</v>
+      </c>
+      <c r="H40" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.Exercise3.md</v>
+      </c>
+      <c r="I40" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS3LabExercises/3.03.Exercise3.md</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>3.04.Exercise4.md</v>
+      </c>
+      <c r="H41" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.Exercise4.md</v>
+      </c>
+      <c r="I41" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS3LabExercises/3.04.Exercise4.md</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>3.05.Exercise1.md</v>
+      </c>
+      <c r="H42" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.Exercise1.md</v>
+      </c>
+      <c r="I42" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS3LabExercises/3.05.Exercise1.md</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>3.06.Exercise2.md</v>
+      </c>
+      <c r="H43" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.Exercise2.md</v>
+      </c>
+      <c r="I43" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS3LabExercises/3.06.Exercise2.md</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>3.07.Exercise3.md</v>
+      </c>
+      <c r="H44" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.Exercise3.md</v>
+      </c>
+      <c r="I44" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS3LabExercises/3.07.Exercise3.md</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>3.08.Exercise4.md</v>
+      </c>
+      <c r="H45" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.Exercise4.md</v>
+      </c>
+      <c r="I45" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS3LabExercises/3.08.Exercise4.md</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G46" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>3.09.Exercise5.md</v>
+      </c>
+      <c r="H46" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.Exercise5.md</v>
+      </c>
+      <c r="I46" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS3LabExercises/3.09.Exercise5.md</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>3.10.Exercise6.md</v>
+      </c>
+      <c r="H47" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.Exercise6.md</v>
+      </c>
+      <c r="I47" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS3LabExercises/3.10.Exercise6.md</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" s="2" t="str">
+        <f t="shared" ref="G48:G54" si="4">IF(ISBLANK(A48),C48&amp;"."&amp;E47&amp;"."&amp;B48&amp;".md",C48&amp;"."&amp;E47&amp;"."&amp;RIGHT(B48,LEN(B48)-2))</f>
+        <v>3.11.GettingStartedwithAutoCAD.md</v>
+      </c>
+      <c r="H48" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I48" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>3.12.GroupingEntitiesInDWG.md</v>
+      </c>
+      <c r="H49" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I49" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>3.13.HandlingBlocksInDWG.md</v>
+      </c>
+      <c r="H50" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I50" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G51" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>3.14.DWGtoDGN.md</v>
+      </c>
+      <c r="H51" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I51" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>3.15.SHPtoDWG.md</v>
+      </c>
+      <c r="H52" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I52" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G53" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>3.16.ExplodingBlockEntitiesInDWG.md</v>
+      </c>
+      <c r="H53" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I53" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="2" t="str">
-        <f t="shared" ref="D24:D31" si="6">"2."&amp;E24&amp;"."&amp;RIGHT(B24,LEN(B24)-5)</f>
-        <v>2.16.ContentTransformation.md</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="2" t="str">
-        <f>A24&amp;"/"&amp;B24</f>
-        <v>DesktopBasic2Transformation/2.06.ContentTransformation.md</v>
-      </c>
-      <c r="G24" s="2" t="str">
-        <f>C24&amp;"/"&amp;D24</f>
-        <v>CADGIS2LabDemo/2.16.ContentTransformation.md</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>2.17.TransformersInSeries.md</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="2" t="str">
-        <f>A25&amp;"/"&amp;B25</f>
-        <v>DesktopBasic2Transformation/2.07.TransformersInSeries.md</v>
-      </c>
-      <c r="G25" s="2" t="str">
-        <f>C25&amp;"/"&amp;D25</f>
-        <v>CADGIS2LabDemo/2.17.TransformersInSeries.md</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>2.18.FeatureCounts.md</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="2" t="str">
-        <f>A26&amp;"/"&amp;B26</f>
-        <v>DesktopBasic2Transformation/2.08.FeatureCounts.md</v>
-      </c>
-      <c r="G26" s="2" t="str">
-        <f>C26&amp;"/"&amp;D26</f>
-        <v>CADGIS2LabDemo/2.18.FeatureCounts.md</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>2.19.TransformersInParallel.md</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="2" t="str">
-        <f>A27&amp;"/"&amp;B27</f>
-        <v>DesktopBasic2Transformation/2.09.TransformersInParallel.md</v>
-      </c>
-      <c r="G27" s="2" t="str">
-        <f>C27&amp;"/"&amp;D27</f>
-        <v>CADGIS2LabDemo/2.19.TransformersInParallel.md</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>2.20.GroupByProcessing.md</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="2" t="str">
-        <f>A28&amp;"/"&amp;B28</f>
-        <v>DesktopBasic2Transformation/2.10.GroupByProcessing.md</v>
-      </c>
-      <c r="G28" s="2" t="str">
-        <f>C28&amp;"/"&amp;D28</f>
-        <v>CADGIS2LabDemo/2.20.GroupByProcessing.md</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>2.21.DataInspectionFromWorkbench.md</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="2" t="str">
-        <f>A29&amp;"/"&amp;B29</f>
-        <v>DesktopBasic2Transformation/2.11.DataInspectionFromWorkbench.md</v>
-      </c>
-      <c r="G29" s="2" t="str">
-        <f>C29&amp;"/"&amp;D29</f>
-        <v>CADGIS2LabDemo/2.21.DataInspectionFromWorkbench.md</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>2.22.CoordinateSystemTransformation.md</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" s="2" t="str">
-        <f>A30&amp;"/"&amp;B30</f>
-        <v>DesktopBasic2Transformation/2.12.CoordinateSystemTransformation.md</v>
-      </c>
-      <c r="G30" s="2" t="str">
-        <f>C30&amp;"/"&amp;D30</f>
-        <v>CADGIS2LabDemo/2.22.CoordinateSystemTransformation.md</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="2" t="str">
-        <f>"3."&amp;E31&amp;"."&amp;RIGHT(B31,LEN(B31)-2)</f>
-        <v>3.01.Exercise1.md</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="2" t="str">
-        <f>A31&amp;"/"&amp;B31</f>
-        <v>DesktopBasic1Basics/1.Exercise1.md</v>
-      </c>
-      <c r="G31" s="2" t="str">
-        <f>C31&amp;"/"&amp;D31</f>
-        <v>CADGIS3LabExercises/3.01.Exercise1.md</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="2" t="str">
-        <f t="shared" ref="D32:D40" si="7">"3."&amp;E32&amp;"."&amp;RIGHT(B32,LEN(B32)-2)</f>
-        <v>3.02.Exercise2.md</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" s="2" t="str">
-        <f t="shared" ref="F32:F34" si="8">A32&amp;"/"&amp;B32</f>
-        <v>DesktopBasic1Basics/1.Exercise2.md</v>
-      </c>
-      <c r="G32" s="2" t="str">
-        <f t="shared" ref="G32:G34" si="9">C32&amp;"/"&amp;D32</f>
-        <v>CADGIS3LabExercises/3.02.Exercise2.md</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>3.03.Exercise3.md</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>DesktopBasic1Basics/1.Exercise3.md</v>
-      </c>
-      <c r="G33" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>CADGIS3LabExercises/3.03.Exercise3.md</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>3.04.Exercise4.md</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>DesktopBasic1Basics/1.Exercise4.md</v>
-      </c>
-      <c r="G34" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>CADGIS3LabExercises/3.04.Exercise4.md</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="2" t="str">
-        <f>"3."&amp;E35&amp;"."&amp;"Exercise"&amp;RIGHT(E35,1)&amp;".md"</f>
-        <v>3.05.Exercise5.md</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F35" s="2" t="str">
-        <f t="shared" ref="F35:F40" si="10">A35&amp;"/"&amp;B35</f>
-        <v>DesktopBasic2Transformation/2.Exercise1.md</v>
-      </c>
-      <c r="G35" s="2" t="str">
-        <f t="shared" ref="G35:G40" si="11">C35&amp;"/"&amp;D35</f>
-        <v>CADGIS3LabExercises/3.05.Exercise5.md</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="2" t="str">
-        <f t="shared" ref="D36:D40" si="12">"3."&amp;E36&amp;"."&amp;"Exercise"&amp;RIGHT(E36,1)&amp;".md"</f>
-        <v>3.06.Exercise6.md</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F36" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>DesktopBasic2Transformation/2.Exercise2.md</v>
-      </c>
-      <c r="G36" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>CADGIS3LabExercises/3.06.Exercise6.md</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>3.07.Exercise7.md</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F37" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>DesktopBasic2Transformation/2.Exercise3.md</v>
-      </c>
-      <c r="G37" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>CADGIS3LabExercises/3.07.Exercise7.md</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>3.08.Exercise8.md</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F38" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>DesktopBasic2Transformation/2.Exercise4.md</v>
-      </c>
-      <c r="G38" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>CADGIS3LabExercises/3.08.Exercise8.md</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>3.09.Exercise9.md</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F39" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>DesktopBasic2Transformation/2.Exercise5.md</v>
-      </c>
-      <c r="G39" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>CADGIS3LabExercises/3.09.Exercise9.md</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="2" t="str">
-        <f>"3."&amp;E40&amp;"."&amp;"Exercise"&amp;E40&amp;".md"</f>
-        <v>3.10.Exercise10.md</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F40" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>DesktopBasic2Transformation/2.Exercise6.md</v>
-      </c>
-      <c r="G40" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>CADGIS3LabExercises/3.10.Exercise10.md</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D42"/>
-      <c r="E42" s="2"/>
+      <c r="F54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>3.17.PreservingBlockEntitiesInDWG.md</v>
+      </c>
+      <c r="H54" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I54" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/chapters.xlsx
+++ b/chapters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="chapters" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="95">
   <si>
     <t>1.03.IntroductionToWorkbench.md</t>
   </si>
@@ -85,9 +85,6 @@
     <t>CADGIS0About</t>
   </si>
   <si>
-    <t>0.00.About.md</t>
-  </si>
-  <si>
     <t>CADGIS1Lecture</t>
   </si>
   <si>
@@ -283,9 +280,6 @@
     <t>LabExercises</t>
   </si>
   <si>
-    <t>Getting Started with FME Desktop</t>
-  </si>
-  <si>
     <t>GettingStartedwithAutoCAD</t>
   </si>
   <si>
@@ -307,397 +301,10 @@
     <t>PreservingBlockEntitiesInDWG</t>
   </si>
   <si>
-    <t>0.00.0.00.About.md.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0.01.CourseOverview.md</t>
-  </si>
-  <si>
-    <t>0.02.CourseResources.md</t>
-  </si>
-  <si>
-    <t>1.00.Lecture.md</t>
-  </si>
-  <si>
-    <t>1.01.WhyFME.md</t>
-  </si>
-  <si>
-    <t>1.02.WhatIsFME.md</t>
-  </si>
-  <si>
-    <t>DesktopBasic1Basics/1.01.WhatIsFME.md</t>
-  </si>
-  <si>
-    <t>CADGIS1Lecture/1.02.WhatIsFME.md</t>
-  </si>
-  <si>
-    <t>1.03.DataTransformation.md</t>
-  </si>
-  <si>
-    <t>DesktopBasic2Transformation/2.00.DataTransformation.md</t>
-  </si>
-  <si>
-    <t>CADGIS1Lecture/1.03.DataTransformation.md</t>
-  </si>
-  <si>
-    <t>1.04.WhatIsDataTransformation.md</t>
-  </si>
-  <si>
-    <t>DesktopBasic2Transformation/2.01.WhatIsDataTransformation.md</t>
-  </si>
-  <si>
-    <t>CADGIS1Lecture/1.04.WhatIsDataTransformation.md</t>
-  </si>
-  <si>
-    <t>1.05.StructuralTransformation.md</t>
-  </si>
-  <si>
-    <t>DesktopBasic2Transformation/2.02.StructuralTransformation.md</t>
-  </si>
-  <si>
-    <t>CADGIS1Lecture/1.05.StructuralTransformation.md</t>
-  </si>
-  <si>
-    <t>1.06.SchemaEditing.md</t>
-  </si>
-  <si>
-    <t>DesktopBasic2Transformation/2.03.SchemaEditing.md</t>
-  </si>
-  <si>
-    <t>CADGIS1Lecture/1.06.SchemaEditing.md</t>
-  </si>
-  <si>
-    <t>1.07.SchemaMapping.md</t>
-  </si>
-  <si>
-    <t>DesktopBasic2Transformation/2.04.SchemaMapping.md</t>
-  </si>
-  <si>
-    <t>CADGIS1Lecture/1.07.SchemaMapping.md</t>
-  </si>
-  <si>
-    <t>2.00.LabDemo.md</t>
-  </si>
-  <si>
-    <t>2.01.FMEDesktopComponents.md</t>
-  </si>
-  <si>
-    <t>DesktopBasic1Basics/1.02.FMEDesktopComponents.md</t>
-  </si>
-  <si>
-    <t>CADGIS2LabDemo/2.01.FMEDesktopComponents.md</t>
-  </si>
-  <si>
-    <t>2.02.IntroductionToWorkbench.md</t>
-  </si>
-  <si>
-    <t>DesktopBasic1Basics/1.03.IntroductionToWorkbench.md</t>
-  </si>
-  <si>
-    <t>CADGIS2LabDemo/2.02.IntroductionToWorkbench.md</t>
-  </si>
-  <si>
-    <t>2.03.WindowControl.md</t>
-  </si>
-  <si>
-    <t>DesktopBasic1Basics/1.04.WindowControl.md</t>
-  </si>
-  <si>
-    <t>CADGIS2LabDemo/2.03.WindowControl.md</t>
-  </si>
-  <si>
-    <t>2.04.CreatingATranslation.md</t>
-  </si>
-  <si>
-    <t>DesktopBasic1Basics/1.05.CreatingATranslation.md</t>
-  </si>
-  <si>
-    <t>CADGIS2LabDemo/2.04.CreatingATranslation.md</t>
-  </si>
-  <si>
-    <t>2.05.TheNewWorkspace.md</t>
-  </si>
-  <si>
-    <t>DesktopBasic1Basics/1.06.TheNewWorkspace.md</t>
-  </si>
-  <si>
-    <t>CADGIS2LabDemo/2.05.TheNewWorkspace.md</t>
-  </si>
-  <si>
-    <t>2.06.RunningTheWorkspace.md</t>
-  </si>
-  <si>
-    <t>DesktopBasic1Basics/1.07.RunningTheWorkspace.md</t>
-  </si>
-  <si>
-    <t>CADGIS2LabDemo/2.06.RunningTheWorkspace.md</t>
-  </si>
-  <si>
-    <t>2.07.WhatIsDataInspection.md</t>
-  </si>
-  <si>
-    <t>DesktopBasic1Basics/1.08.WhatIsDataInspection.md</t>
-  </si>
-  <si>
-    <t>CADGIS2LabDemo/2.07.WhatIsDataInspection.md</t>
-  </si>
-  <si>
-    <t>2.08.IntroductionToDataInspector.md</t>
-  </si>
-  <si>
-    <t>DesktopBasic1Basics/1.09.IntroductionToDataInspector.md</t>
-  </si>
-  <si>
-    <t>CADGIS2LabDemo/2.08.IntroductionToDataInspector.md</t>
-  </si>
-  <si>
-    <t>2.09.ViewingData.md</t>
-  </si>
-  <si>
-    <t>DesktopBasic1Basics/1.10.ViewingData.md</t>
-  </si>
-  <si>
-    <t>CADGIS2LabDemo/2.09.ViewingData.md</t>
-  </si>
-  <si>
-    <t>2.10.QueryingData.md</t>
-  </si>
-  <si>
-    <t>DesktopBasic1Basics/1.11.QueryingData.md</t>
-  </si>
-  <si>
-    <t>CADGIS2LabDemo/2.10.QueryingData.md</t>
-  </si>
-  <si>
-    <t>2.11.DataInspectorDisplayControl.md</t>
-  </si>
-  <si>
-    <t>DesktopBasic1Basics/1.12.DataInspectorDisplayControl.md</t>
-  </si>
-  <si>
-    <t>CADGIS2LabDemo/2.11.DataInspectorDisplayControl.md</t>
-  </si>
-  <si>
-    <t>2.12.BackgroundMaps.md</t>
-  </si>
-  <si>
-    <t>DesktopBasic1Basics/1.13.BackgroundMaps.md</t>
-  </si>
-  <si>
-    <t>CADGIS2LabDemo/2.12.BackgroundMaps.md</t>
-  </si>
-  <si>
-    <t>2.13.ReaderParameters.md</t>
-  </si>
-  <si>
-    <t>DesktopBasic1Basics/1.14.ReaderParameters.md</t>
-  </si>
-  <si>
-    <t>CADGIS2LabDemo/2.13.ReaderParameters.md</t>
-  </si>
-  <si>
-    <t>2.14.WriterParameters.md</t>
-  </si>
-  <si>
-    <t>DesktopBasic1Basics/1.15.WriterParameters.md</t>
-  </si>
-  <si>
-    <t>CADGIS2LabDemo/2.14.WriterParameters.md</t>
-  </si>
-  <si>
-    <t>2.15.TransformationWithTransformers.md</t>
-  </si>
-  <si>
-    <t>DesktopBasic2Transformation/2.05.TransformationWithTransformers.md</t>
-  </si>
-  <si>
-    <t>CADGIS2LabDemo/2.15.TransformationWithTransformers.md</t>
-  </si>
-  <si>
-    <t>2.16.ContentTransformation.md</t>
-  </si>
-  <si>
-    <t>DesktopBasic2Transformation/2.06.ContentTransformation.md</t>
-  </si>
-  <si>
-    <t>CADGIS2LabDemo/2.16.ContentTransformation.md</t>
-  </si>
-  <si>
-    <t>2.17.TransformersInSeries.md</t>
-  </si>
-  <si>
-    <t>DesktopBasic2Transformation/2.07.TransformersInSeries.md</t>
-  </si>
-  <si>
-    <t>CADGIS2LabDemo/2.17.TransformersInSeries.md</t>
-  </si>
-  <si>
-    <t>2.18.FeatureCounts.md</t>
-  </si>
-  <si>
-    <t>DesktopBasic2Transformation/2.08.FeatureCounts.md</t>
-  </si>
-  <si>
-    <t>CADGIS2LabDemo/2.18.FeatureCounts.md</t>
-  </si>
-  <si>
-    <t>2.19.TransformersInParallel.md</t>
-  </si>
-  <si>
-    <t>DesktopBasic2Transformation/2.09.TransformersInParallel.md</t>
-  </si>
-  <si>
-    <t>CADGIS2LabDemo/2.19.TransformersInParallel.md</t>
-  </si>
-  <si>
-    <t>2.20.GroupByProcessing.md</t>
-  </si>
-  <si>
-    <t>DesktopBasic2Transformation/2.10.GroupByProcessing.md</t>
-  </si>
-  <si>
-    <t>CADGIS2LabDemo/2.20.GroupByProcessing.md</t>
-  </si>
-  <si>
-    <t>2.21.DataInspectionFromWorkbench.md</t>
-  </si>
-  <si>
-    <t>DesktopBasic2Transformation/2.11.DataInspectionFromWorkbench.md</t>
-  </si>
-  <si>
-    <t>CADGIS2LabDemo/2.21.DataInspectionFromWorkbench.md</t>
-  </si>
-  <si>
-    <t>2.22.CoordinateSystemTransformation.md</t>
-  </si>
-  <si>
-    <t>DesktopBasic2Transformation/2.12.CoordinateSystemTransformation.md</t>
-  </si>
-  <si>
-    <t>CADGIS2LabDemo/2.22.CoordinateSystemTransformation.md</t>
-  </si>
-  <si>
-    <t>3.00.LabExercises.md</t>
-  </si>
-  <si>
-    <t>3.00.Getting Started with FME Desktop.md</t>
-  </si>
-  <si>
-    <t>3.01.Exercise1.md</t>
-  </si>
-  <si>
-    <t>DesktopBasic1Basics/1.Exercise1.md</t>
-  </si>
-  <si>
-    <t>CADGIS3LabExercises/3.01.Exercise1.md</t>
-  </si>
-  <si>
-    <t>3.02.Exercise2.md</t>
-  </si>
-  <si>
-    <t>DesktopBasic1Basics/1.Exercise2.md</t>
-  </si>
-  <si>
-    <t>CADGIS3LabExercises/3.02.Exercise2.md</t>
-  </si>
-  <si>
-    <t>3.03.Exercise3.md</t>
-  </si>
-  <si>
-    <t>DesktopBasic1Basics/1.Exercise3.md</t>
-  </si>
-  <si>
-    <t>CADGIS3LabExercises/3.03.Exercise3.md</t>
-  </si>
-  <si>
-    <t>3.04.Exercise4.md</t>
-  </si>
-  <si>
-    <t>DesktopBasic1Basics/1.Exercise4.md</t>
-  </si>
-  <si>
-    <t>CADGIS3LabExercises/3.04.Exercise4.md</t>
-  </si>
-  <si>
-    <t>3.05.Exercise1.md</t>
-  </si>
-  <si>
-    <t>DesktopBasic2Transformation/2.Exercise1.md</t>
-  </si>
-  <si>
-    <t>CADGIS3LabExercises/3.05.Exercise1.md</t>
-  </si>
-  <si>
-    <t>3.06.Exercise2.md</t>
-  </si>
-  <si>
-    <t>DesktopBasic2Transformation/2.Exercise2.md</t>
-  </si>
-  <si>
-    <t>CADGIS3LabExercises/3.06.Exercise2.md</t>
-  </si>
-  <si>
-    <t>3.07.Exercise3.md</t>
-  </si>
-  <si>
-    <t>DesktopBasic2Transformation/2.Exercise3.md</t>
-  </si>
-  <si>
-    <t>CADGIS3LabExercises/3.07.Exercise3.md</t>
-  </si>
-  <si>
-    <t>3.08.Exercise4.md</t>
-  </si>
-  <si>
-    <t>DesktopBasic2Transformation/2.Exercise4.md</t>
-  </si>
-  <si>
-    <t>CADGIS3LabExercises/3.08.Exercise4.md</t>
-  </si>
-  <si>
-    <t>3.09.Exercise5.md</t>
-  </si>
-  <si>
-    <t>DesktopBasic2Transformation/2.Exercise5.md</t>
-  </si>
-  <si>
-    <t>CADGIS3LabExercises/3.09.Exercise5.md</t>
-  </si>
-  <si>
-    <t>3.10.Exercise6.md</t>
-  </si>
-  <si>
-    <t>DesktopBasic2Transformation/2.Exercise6.md</t>
-  </si>
-  <si>
-    <t>CADGIS3LabExercises/3.10.Exercise6.md</t>
-  </si>
-  <si>
-    <t>3.11.GettingStartedwithAutoCAD.md</t>
-  </si>
-  <si>
-    <t>3.12.GroupingEntitiesInDWG.md</t>
-  </si>
-  <si>
-    <t>3.13.HandlingBlocksInDWG.md</t>
-  </si>
-  <si>
-    <t>3.14.DWGtoDGN.md</t>
-  </si>
-  <si>
-    <t>3.15.SHPtoDWG.md</t>
-  </si>
-  <si>
-    <t>3.16.ExplodingBlockEntitiesInDWG.md</t>
-  </si>
-  <si>
-    <t>3.17.PreservingBlockEntitiesInDWG.md</t>
-  </si>
-  <si>
     <t>GettingStartedwithFMEDesktop</t>
+  </si>
+  <si>
+    <t>About</t>
   </si>
 </sst>
 </file>
@@ -1508,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I54" sqref="A2:I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1531,13 +1138,13 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="F1" t="s">
         <v>17</v>
@@ -1555,7 +1162,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1564,37 +1171,37 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="2" t="str">
         <f>IF(ISBLANK(A2),C2&amp;"."&amp;E2&amp;"."&amp;B2&amp;".md",C2&amp;"."&amp;E2&amp;"."&amp;RIGHT(B2,LEN(B2)-5))</f>
-        <v>0.00.0.00.About.md.md</v>
+        <v>0.00.About.md</v>
       </c>
       <c r="H2" s="2" t="str">
         <f>IF(ISBLANK(A2),"",A2&amp;"/"&amp;B2)</f>
         <v/>
       </c>
       <c r="I2" s="2" t="str">
-        <f>IF(ISBLANK(A2),"",F2&amp;"/"&amp;G2)</f>
-        <v/>
+        <f>F2&amp;"/"&amp;G2</f>
+        <v>CADGIS0About/0.00.About.md</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>20</v>
@@ -1608,23 +1215,23 @@
         <v/>
       </c>
       <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3:I54" si="2">IF(ISBLANK(A3),"",F3&amp;"/"&amp;G3)</f>
-        <v/>
+        <f t="shared" ref="I3:I54" si="2">F3&amp;"/"&amp;G3</f>
+        <v>CADGIS0About/0.01.CourseOverview.md</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>20</v>
@@ -1639,25 +1246,25 @@
       </c>
       <c r="I4" s="2" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>CADGIS0About/0.02.CourseResources.md</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1669,25 +1276,25 @@
       </c>
       <c r="I5" s="2" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>CADGIS1Lecture/1.00.Lecture.md</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1699,7 +1306,7 @@
       </c>
       <c r="I6" s="2" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>CADGIS1Lecture/1.01.WhyFME.md</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -1707,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1736,22 +1343,22 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1768,22 +1375,22 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1800,22 +1407,22 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1832,22 +1439,22 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1864,22 +1471,22 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1896,19 +1503,19 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G13" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1920,7 +1527,7 @@
       </c>
       <c r="I13" s="2" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>CADGIS2LabDemo/2.00.LabDemo.md</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -1928,19 +1535,19 @@
         <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G14" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1963,16 +1570,16 @@
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1995,16 +1602,16 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2027,16 +1634,16 @@
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G17" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2059,16 +1666,16 @@
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G18" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2091,16 +1698,16 @@
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G19" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2123,16 +1730,16 @@
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G20" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2155,16 +1762,16 @@
         <v>6</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G21" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2187,16 +1794,16 @@
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G22" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2219,16 +1826,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G23" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2251,16 +1858,16 @@
         <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G24" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2283,16 +1890,16 @@
         <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G25" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2315,16 +1922,16 @@
         <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G26" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2347,16 +1954,16 @@
         <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G27" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2373,22 +1980,22 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G28" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2405,22 +2012,22 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G29" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2437,22 +2044,22 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G30" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2469,22 +2076,22 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G31" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2501,22 +2108,22 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G32" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2533,22 +2140,22 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G33" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2565,22 +2172,22 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G34" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2597,22 +2204,22 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G35" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2629,19 +2236,19 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="F36" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G36" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2653,24 +2260,24 @@
       </c>
       <c r="I36" s="2" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>CADGIS3LabExercises/3.00.LabExercises.md</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>225</v>
+        <v>93</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G37" s="2" t="str">
         <f t="shared" ref="G37:G47" si="3">IF(ISBLANK(A37),C37&amp;"."&amp;E36&amp;"."&amp;B37&amp;".md",C37&amp;"."&amp;E36&amp;"."&amp;RIGHT(B37,LEN(B37)-2))</f>
@@ -2682,7 +2289,7 @@
       </c>
       <c r="I37" s="2" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>CADGIS3LabExercises/3.00.GettingStartedwithFMEDesktop.md</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -2690,19 +2297,19 @@
         <v>19</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="G38" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2722,19 +2329,19 @@
         <v>19</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G39" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2754,19 +2361,19 @@
         <v>19</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G40" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2786,19 +2393,19 @@
         <v>19</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G41" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2815,22 +2422,22 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G42" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2847,22 +2454,22 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G43" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2879,22 +2486,22 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G44" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2911,22 +2518,22 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G45" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2943,22 +2550,22 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G46" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2975,22 +2582,22 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G47" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3007,19 +2614,19 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G48" s="2" t="str">
         <f t="shared" ref="G48:G54" si="4">IF(ISBLANK(A48),C48&amp;"."&amp;E47&amp;"."&amp;B48&amp;".md",C48&amp;"."&amp;E47&amp;"."&amp;RIGHT(B48,LEN(B48)-2))</f>
@@ -3031,24 +2638,24 @@
       </c>
       <c r="I48" s="2" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>CADGIS3LabExercises/3.11.GettingStartedwithAutoCAD.md</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G49" s="2" t="str">
         <f t="shared" si="4"/>
@@ -3060,24 +2667,24 @@
       </c>
       <c r="I49" s="2" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>CADGIS3LabExercises/3.12.GroupingEntitiesInDWG.md</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G50" s="2" t="str">
         <f t="shared" si="4"/>
@@ -3089,24 +2696,24 @@
       </c>
       <c r="I50" s="2" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>CADGIS3LabExercises/3.13.HandlingBlocksInDWG.md</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G51" s="2" t="str">
         <f t="shared" si="4"/>
@@ -3118,24 +2725,24 @@
       </c>
       <c r="I51" s="2" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>CADGIS3LabExercises/3.14.DWGtoDGN.md</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G52" s="2" t="str">
         <f t="shared" si="4"/>
@@ -3147,24 +2754,24 @@
       </c>
       <c r="I52" s="2" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>CADGIS3LabExercises/3.15.SHPtoDWG.md</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G53" s="2" t="str">
         <f t="shared" si="4"/>
@@ -3176,24 +2783,24 @@
       </c>
       <c r="I53" s="2" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>CADGIS3LabExercises/3.16.ExplodingBlockEntitiesInDWG.md</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G54" s="2" t="str">
         <f t="shared" si="4"/>
@@ -3205,7 +2812,7 @@
       </c>
       <c r="I54" s="2" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>CADGIS3LabExercises/3.17.PreservingBlockEntitiesInDWG.md</v>
       </c>
     </row>
   </sheetData>
@@ -3218,14 +2825,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1">
         <v>0</v>
@@ -3234,127 +2843,142 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>96</v>
+      <c r="G1" s="2" t="str">
+        <f>IF(ISBLANK(A1),C1&amp;"."&amp;E1&amp;"."&amp;B1&amp;".md",C1&amp;"."&amp;E1&amp;"."&amp;RIGHT(B1,LEN(B1)-5))</f>
+        <v>0.00.About.md</v>
+      </c>
+      <c r="H1" s="2" t="str">
+        <f>IF(ISBLANK(A1),"",A1&amp;"/"&amp;B1)</f>
+        <v/>
+      </c>
+      <c r="I1" s="2" t="str">
+        <f>F1&amp;"/"&amp;G1</f>
+        <v>CADGIS0About/0.00.About.md</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>96</v>
+      <c r="G2" s="2" t="str">
+        <f t="shared" ref="G2:G35" si="0">IF(ISBLANK(A2),C2&amp;"."&amp;E2&amp;"."&amp;B2&amp;".md",C2&amp;"."&amp;E2&amp;"."&amp;RIGHT(B2,LEN(B2)-5))</f>
+        <v>0.01.CourseOverview.md</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <f t="shared" ref="H2:H53" si="1">IF(ISBLANK(A2),"",A2&amp;"/"&amp;B2)</f>
+        <v/>
+      </c>
+      <c r="I2" s="2" t="str">
+        <f t="shared" ref="I2:I53" si="2">F2&amp;"/"&amp;G2</f>
+        <v>CADGIS0About/0.01.CourseOverview.md</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>96</v>
+      <c r="G3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0.02.CourseResources.md</v>
+      </c>
+      <c r="H3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I3" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS0About/0.02.CourseResources.md</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>96</v>
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1.00.Lecture.md</v>
+      </c>
+      <c r="H4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS1Lecture/1.00.Lecture.md</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>96</v>
+        <v>21</v>
+      </c>
+      <c r="G5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1.01.WhyFME.md</v>
+      </c>
+      <c r="H5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS1Lecture/1.01.WhyFME.md</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -3362,199 +2986,220 @@
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>103</v>
+        <v>21</v>
+      </c>
+      <c r="G6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1.02.WhatIsFME.md</v>
+      </c>
+      <c r="H6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.01.WhatIsFME.md</v>
+      </c>
+      <c r="I6" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS1Lecture/1.02.WhatIsFME.md</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>106</v>
+        <v>21</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1.03.DataTransformation.md</v>
+      </c>
+      <c r="H7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.00.DataTransformation.md</v>
+      </c>
+      <c r="I7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS1Lecture/1.03.DataTransformation.md</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>109</v>
+        <v>21</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1.04.WhatIsDataTransformation.md</v>
+      </c>
+      <c r="H8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.01.WhatIsDataTransformation.md</v>
+      </c>
+      <c r="I8" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS1Lecture/1.04.WhatIsDataTransformation.md</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>112</v>
+        <v>21</v>
+      </c>
+      <c r="G9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1.05.StructuralTransformation.md</v>
+      </c>
+      <c r="H9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.02.StructuralTransformation.md</v>
+      </c>
+      <c r="I9" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS1Lecture/1.05.StructuralTransformation.md</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
+      </c>
+      <c r="G10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1.06.SchemaEditing.md</v>
+      </c>
+      <c r="H10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.03.SchemaEditing.md</v>
+      </c>
+      <c r="I10" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS1Lecture/1.06.SchemaEditing.md</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>118</v>
+        <v>21</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1.07.SchemaMapping.md</v>
+      </c>
+      <c r="H11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.04.SchemaMapping.md</v>
+      </c>
+      <c r="I11" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS1Lecture/1.07.SchemaMapping.md</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>96</v>
+        <v>23</v>
+      </c>
+      <c r="G12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.00.LabDemo.md</v>
+      </c>
+      <c r="H12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I12" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.00.LabDemo.md</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -3562,28 +3207,31 @@
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>122</v>
+        <v>23</v>
+      </c>
+      <c r="G13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.01.FMEDesktopComponents.md</v>
+      </c>
+      <c r="H13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.02.FMEDesktopComponents.md</v>
+      </c>
+      <c r="I13" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.01.FMEDesktopComponents.md</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -3594,25 +3242,28 @@
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>125</v>
+        <v>23</v>
+      </c>
+      <c r="G14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.02.IntroductionToWorkbench.md</v>
+      </c>
+      <c r="H14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.03.IntroductionToWorkbench.md</v>
+      </c>
+      <c r="I14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.02.IntroductionToWorkbench.md</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -3623,25 +3274,28 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>128</v>
+        <v>23</v>
+      </c>
+      <c r="G15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.03.WindowControl.md</v>
+      </c>
+      <c r="H15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.04.WindowControl.md</v>
+      </c>
+      <c r="I15" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.03.WindowControl.md</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -3652,25 +3306,28 @@
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>131</v>
+        <v>23</v>
+      </c>
+      <c r="G16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.04.CreatingATranslation.md</v>
+      </c>
+      <c r="H16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.05.CreatingATranslation.md</v>
+      </c>
+      <c r="I16" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.04.CreatingATranslation.md</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -3681,25 +3338,28 @@
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>134</v>
+        <v>23</v>
+      </c>
+      <c r="G17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.05.TheNewWorkspace.md</v>
+      </c>
+      <c r="H17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.06.TheNewWorkspace.md</v>
+      </c>
+      <c r="I17" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.05.TheNewWorkspace.md</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -3710,25 +3370,28 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>137</v>
+        <v>23</v>
+      </c>
+      <c r="G18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.06.RunningTheWorkspace.md</v>
+      </c>
+      <c r="H18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.07.RunningTheWorkspace.md</v>
+      </c>
+      <c r="I18" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.06.RunningTheWorkspace.md</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -3739,25 +3402,28 @@
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>140</v>
+        <v>23</v>
+      </c>
+      <c r="G19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.07.WhatIsDataInspection.md</v>
+      </c>
+      <c r="H19" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.08.WhatIsDataInspection.md</v>
+      </c>
+      <c r="I19" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.07.WhatIsDataInspection.md</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -3768,25 +3434,28 @@
         <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>143</v>
+        <v>23</v>
+      </c>
+      <c r="G20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.08.IntroductionToDataInspector.md</v>
+      </c>
+      <c r="H20" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.09.IntroductionToDataInspector.md</v>
+      </c>
+      <c r="I20" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.08.IntroductionToDataInspector.md</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -3797,25 +3466,28 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>146</v>
+        <v>23</v>
+      </c>
+      <c r="G21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.09.ViewingData.md</v>
+      </c>
+      <c r="H21" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.10.ViewingData.md</v>
+      </c>
+      <c r="I21" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.09.ViewingData.md</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -3826,25 +3498,28 @@
         <v>8</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>149</v>
+        <v>23</v>
+      </c>
+      <c r="G22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.10.QueryingData.md</v>
+      </c>
+      <c r="H22" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.11.QueryingData.md</v>
+      </c>
+      <c r="I22" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.10.QueryingData.md</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -3855,25 +3530,28 @@
         <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>152</v>
+        <v>23</v>
+      </c>
+      <c r="G23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.11.DataInspectorDisplayControl.md</v>
+      </c>
+      <c r="H23" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.12.DataInspectorDisplayControl.md</v>
+      </c>
+      <c r="I23" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.11.DataInspectorDisplayControl.md</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -3884,25 +3562,28 @@
         <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>155</v>
+        <v>23</v>
+      </c>
+      <c r="G24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.12.BackgroundMaps.md</v>
+      </c>
+      <c r="H24" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.13.BackgroundMaps.md</v>
+      </c>
+      <c r="I24" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.12.BackgroundMaps.md</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -3913,25 +3594,28 @@
         <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>158</v>
+        <v>23</v>
+      </c>
+      <c r="G25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.13.ReaderParameters.md</v>
+      </c>
+      <c r="H25" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.14.ReaderParameters.md</v>
+      </c>
+      <c r="I25" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.13.ReaderParameters.md</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -3942,309 +3626,342 @@
         <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>161</v>
+        <v>23</v>
+      </c>
+      <c r="G26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.14.WriterParameters.md</v>
+      </c>
+      <c r="H26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.15.WriterParameters.md</v>
+      </c>
+      <c r="I26" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.14.WriterParameters.md</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>164</v>
+        <v>23</v>
+      </c>
+      <c r="G27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.15.TransformationWithTransformers.md</v>
+      </c>
+      <c r="H27" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.05.TransformationWithTransformers.md</v>
+      </c>
+      <c r="I27" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.15.TransformationWithTransformers.md</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>167</v>
+        <v>23</v>
+      </c>
+      <c r="G28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.16.ContentTransformation.md</v>
+      </c>
+      <c r="H28" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.06.ContentTransformation.md</v>
+      </c>
+      <c r="I28" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.16.ContentTransformation.md</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>170</v>
+        <v>23</v>
+      </c>
+      <c r="G29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.17.TransformersInSeries.md</v>
+      </c>
+      <c r="H29" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.07.TransformersInSeries.md</v>
+      </c>
+      <c r="I29" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.17.TransformersInSeries.md</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>173</v>
+        <v>23</v>
+      </c>
+      <c r="G30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.18.FeatureCounts.md</v>
+      </c>
+      <c r="H30" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.08.FeatureCounts.md</v>
+      </c>
+      <c r="I30" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.18.FeatureCounts.md</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>176</v>
+        <v>23</v>
+      </c>
+      <c r="G31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.19.TransformersInParallel.md</v>
+      </c>
+      <c r="H31" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.09.TransformersInParallel.md</v>
+      </c>
+      <c r="I31" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.19.TransformersInParallel.md</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>179</v>
+        <v>23</v>
+      </c>
+      <c r="G32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.20.GroupByProcessing.md</v>
+      </c>
+      <c r="H32" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.10.GroupByProcessing.md</v>
+      </c>
+      <c r="I32" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.20.GroupByProcessing.md</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>182</v>
+        <v>23</v>
+      </c>
+      <c r="G33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.21.DataInspectionFromWorkbench.md</v>
+      </c>
+      <c r="H33" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.11.DataInspectionFromWorkbench.md</v>
+      </c>
+      <c r="I33" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.21.DataInspectionFromWorkbench.md</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>185</v>
+        <v>23</v>
+      </c>
+      <c r="G34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.22.CoordinateSystemTransformation.md</v>
+      </c>
+      <c r="H34" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.12.CoordinateSystemTransformation.md</v>
+      </c>
+      <c r="I34" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemo/2.22.CoordinateSystemTransformation.md</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="F35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>96</v>
+        <v>26</v>
+      </c>
+      <c r="G35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>3.00.LabExercises.md</v>
+      </c>
+      <c r="H35" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I35" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS3LabExercises/3.00.LabExercises.md</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>96</v>
+        <v>26</v>
+      </c>
+      <c r="G36" s="2" t="str">
+        <f t="shared" ref="G36:G53" si="3">IF(ISBLANK(A36),C36&amp;"."&amp;E35&amp;"."&amp;B36&amp;".md",C36&amp;"."&amp;E35&amp;"."&amp;RIGHT(B36,LEN(B36)-2))</f>
+        <v>3.00.GettingStartedwithFMEDesktop.md</v>
+      </c>
+      <c r="H36" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I36" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS3LabExercises/3.00.GettingStartedwithFMEDesktop.md</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -4252,28 +3969,31 @@
         <v>19</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>190</v>
+      <c r="G37" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>3.01.Exercise1.md</v>
+      </c>
+      <c r="H37" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.Exercise1.md</v>
+      </c>
+      <c r="I37" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS3LabExercises/3.01.Exercise1.md</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -4281,28 +4001,31 @@
         <v>19</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>193</v>
+        <v>26</v>
+      </c>
+      <c r="G38" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>3.02.Exercise2.md</v>
+      </c>
+      <c r="H38" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.Exercise2.md</v>
+      </c>
+      <c r="I38" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS3LabExercises/3.02.Exercise2.md</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -4310,28 +4033,31 @@
         <v>19</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>196</v>
+        <v>26</v>
+      </c>
+      <c r="G39" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>3.03.Exercise3.md</v>
+      </c>
+      <c r="H39" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.Exercise3.md</v>
+      </c>
+      <c r="I39" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS3LabExercises/3.03.Exercise3.md</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -4339,384 +4065,426 @@
         <v>19</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>199</v>
+        <v>26</v>
+      </c>
+      <c r="G40" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>3.04.Exercise4.md</v>
+      </c>
+      <c r="H40" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.Exercise4.md</v>
+      </c>
+      <c r="I40" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS3LabExercises/3.04.Exercise4.md</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>202</v>
+        <v>26</v>
+      </c>
+      <c r="G41" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>3.05.Exercise1.md</v>
+      </c>
+      <c r="H41" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.Exercise1.md</v>
+      </c>
+      <c r="I41" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS3LabExercises/3.05.Exercise1.md</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>205</v>
+        <v>26</v>
+      </c>
+      <c r="G42" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>3.06.Exercise2.md</v>
+      </c>
+      <c r="H42" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.Exercise2.md</v>
+      </c>
+      <c r="I42" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS3LabExercises/3.06.Exercise2.md</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>208</v>
+        <v>26</v>
+      </c>
+      <c r="G43" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>3.07.Exercise3.md</v>
+      </c>
+      <c r="H43" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.Exercise3.md</v>
+      </c>
+      <c r="I43" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS3LabExercises/3.07.Exercise3.md</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>211</v>
+        <v>26</v>
+      </c>
+      <c r="G44" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>3.08.Exercise4.md</v>
+      </c>
+      <c r="H44" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.Exercise4.md</v>
+      </c>
+      <c r="I44" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS3LabExercises/3.08.Exercise4.md</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>214</v>
+        <v>26</v>
+      </c>
+      <c r="G45" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>3.09.Exercise5.md</v>
+      </c>
+      <c r="H45" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.Exercise5.md</v>
+      </c>
+      <c r="I45" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS3LabExercises/3.09.Exercise5.md</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>217</v>
+        <v>26</v>
+      </c>
+      <c r="G46" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>3.10.Exercise6.md</v>
+      </c>
+      <c r="H46" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.Exercise6.md</v>
+      </c>
+      <c r="I46" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS3LabExercises/3.10.Exercise6.md</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>96</v>
+        <v>26</v>
+      </c>
+      <c r="G47" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>3.11.GettingStartedwithAutoCAD.md</v>
+      </c>
+      <c r="H47" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I47" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS3LabExercises/3.11.GettingStartedwithAutoCAD.md</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>96</v>
+        <v>26</v>
+      </c>
+      <c r="G48" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>3.12.GroupingEntitiesInDWG.md</v>
+      </c>
+      <c r="H48" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I48" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS3LabExercises/3.12.GroupingEntitiesInDWG.md</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>96</v>
+        <v>26</v>
+      </c>
+      <c r="G49" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>3.13.HandlingBlocksInDWG.md</v>
+      </c>
+      <c r="H49" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I49" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS3LabExercises/3.13.HandlingBlocksInDWG.md</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>96</v>
+        <v>26</v>
+      </c>
+      <c r="G50" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>3.14.DWGtoDGN.md</v>
+      </c>
+      <c r="H50" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I50" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS3LabExercises/3.14.DWGtoDGN.md</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>96</v>
+        <v>26</v>
+      </c>
+      <c r="G51" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>3.15.SHPtoDWG.md</v>
+      </c>
+      <c r="H51" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I51" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS3LabExercises/3.15.SHPtoDWG.md</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>96</v>
+        <v>26</v>
+      </c>
+      <c r="G52" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>3.16.ExplodingBlockEntitiesInDWG.md</v>
+      </c>
+      <c r="H52" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I52" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS3LabExercises/3.16.ExplodingBlockEntitiesInDWG.md</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>96</v>
+        <v>26</v>
+      </c>
+      <c r="G53" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>3.17.PreservingBlockEntitiesInDWG.md</v>
+      </c>
+      <c r="H53" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I53" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS3LabExercises/3.17.PreservingBlockEntitiesInDWG.md</v>
       </c>
     </row>
   </sheetData>

--- a/chapters.xlsx
+++ b/chapters.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="97">
   <si>
     <t>1.03.IntroductionToWorkbench.md</t>
   </si>
@@ -91,9 +91,6 @@
     <t>1.02.FMEDesktopComponents.md</t>
   </si>
   <si>
-    <t>CADGIS2LabDemo</t>
-  </si>
-  <si>
     <t>1.01.WhatIsFME.md</t>
   </si>
   <si>
@@ -274,9 +271,6 @@
     <t>Lecture</t>
   </si>
   <si>
-    <t>LabDemo</t>
-  </si>
-  <si>
     <t>LabExercises</t>
   </si>
   <si>
@@ -289,22 +283,34 @@
     <t>GroupingEntitiesInDWG</t>
   </si>
   <si>
-    <t>DWGtoDGN</t>
-  </si>
-  <si>
-    <t>SHPtoDWG</t>
-  </si>
-  <si>
     <t>ExplodingBlockEntitiesInDWG</t>
   </si>
   <si>
     <t>PreservingBlockEntitiesInDWG</t>
   </si>
   <si>
-    <t>GettingStartedwithFMEDesktop</t>
-  </si>
-  <si>
     <t>About</t>
+  </si>
+  <si>
+    <t>CADGIS2LabDemonstration</t>
+  </si>
+  <si>
+    <t>LabDemonstration</t>
+  </si>
+  <si>
+    <t>DataTransformation</t>
+  </si>
+  <si>
+    <t>LabQuestions</t>
+  </si>
+  <si>
+    <t>DWGToDGN</t>
+  </si>
+  <si>
+    <t>SHPToDWG</t>
+  </si>
+  <si>
+    <t>GettingStartedWithFMEDesktop</t>
   </si>
 </sst>
 </file>
@@ -1113,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I54" sqref="A2:I54"/>
+      <selection activeCell="L56" sqref="A2:L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1138,13 +1144,13 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="F1" t="s">
         <v>17</v>
@@ -1162,7 +1168,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1171,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -1192,46 +1198,46 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G36" si="0">IF(ISBLANK(A3),C3&amp;"."&amp;E3&amp;"."&amp;B3&amp;".md",C3&amp;"."&amp;E3&amp;"."&amp;RIGHT(B3,LEN(B3)-5))</f>
+        <f t="shared" ref="G3:G35" si="0">IF(ISBLANK(A3),C3&amp;"."&amp;E3&amp;"."&amp;B3&amp;".md",C3&amp;"."&amp;E3&amp;"."&amp;RIGHT(B3,LEN(B3)-5))</f>
         <v>0.01.CourseOverview.md</v>
       </c>
       <c r="H3" s="2" t="str">
-        <f t="shared" ref="H3:H54" si="1">IF(ISBLANK(A3),"",A3&amp;"/"&amp;B3)</f>
+        <f t="shared" ref="H3:H56" si="1">IF(ISBLANK(A3),"",A3&amp;"/"&amp;B3)</f>
         <v/>
       </c>
       <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3:I54" si="2">F3&amp;"/"&amp;G3</f>
+        <f t="shared" ref="I3:I56" si="2">F3&amp;"/"&amp;G3</f>
         <v>CADGIS0About/0.01.CourseOverview.md</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>20</v>
@@ -1252,16 +1258,16 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>21</v>
@@ -1282,16 +1288,16 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>21</v>
@@ -1314,16 +1320,16 @@
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>21</v>
@@ -1343,19 +1349,19 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>21</v>
@@ -1375,19 +1381,19 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>21</v>
@@ -1407,19 +1413,19 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>21</v>
@@ -1439,19 +1445,19 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>21</v>
@@ -1471,19 +1477,19 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>21</v>
@@ -1503,23 +1509,23 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.00.LabDemo.md</v>
+        <v>2.00.LabDemonstration.md</v>
       </c>
       <c r="H13" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1527,7 +1533,7 @@
       </c>
       <c r="I13" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.00.LabDemo.md</v>
+        <v>CADGIS2LabDemonstration/2.00.LabDemonstration.md</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -1538,16 +1544,16 @@
         <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G14" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1559,7 +1565,7 @@
       </c>
       <c r="I14" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.01.FMEDesktopComponents.md</v>
+        <v>CADGIS2LabDemonstration/2.01.FMEDesktopComponents.md</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -1570,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1591,7 +1597,7 @@
       </c>
       <c r="I15" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.02.IntroductionToWorkbench.md</v>
+        <v>CADGIS2LabDemonstration/2.02.IntroductionToWorkbench.md</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -1602,16 +1608,16 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1623,7 +1629,7 @@
       </c>
       <c r="I16" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.03.WindowControl.md</v>
+        <v>CADGIS2LabDemonstration/2.03.WindowControl.md</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -1634,16 +1640,16 @@
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G17" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1655,7 +1661,7 @@
       </c>
       <c r="I17" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.04.CreatingATranslation.md</v>
+        <v>CADGIS2LabDemonstration/2.04.CreatingATranslation.md</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -1666,16 +1672,16 @@
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G18" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1687,7 +1693,7 @@
       </c>
       <c r="I18" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.05.TheNewWorkspace.md</v>
+        <v>CADGIS2LabDemonstration/2.05.TheNewWorkspace.md</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1698,16 +1704,16 @@
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G19" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1719,7 +1725,7 @@
       </c>
       <c r="I19" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.06.RunningTheWorkspace.md</v>
+        <v>CADGIS2LabDemonstration/2.06.RunningTheWorkspace.md</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1730,16 +1736,16 @@
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G20" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1751,7 +1757,7 @@
       </c>
       <c r="I20" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.07.WhatIsDataInspection.md</v>
+        <v>CADGIS2LabDemonstration/2.07.WhatIsDataInspection.md</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1762,16 +1768,16 @@
         <v>6</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G21" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1783,7 +1789,7 @@
       </c>
       <c r="I21" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.08.IntroductionToDataInspector.md</v>
+        <v>CADGIS2LabDemonstration/2.08.IntroductionToDataInspector.md</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -1794,16 +1800,16 @@
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G22" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1815,7 +1821,7 @@
       </c>
       <c r="I22" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.09.ViewingData.md</v>
+        <v>CADGIS2LabDemonstration/2.09.ViewingData.md</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1826,16 +1832,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G23" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1847,7 +1853,7 @@
       </c>
       <c r="I23" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.10.QueryingData.md</v>
+        <v>CADGIS2LabDemonstration/2.10.QueryingData.md</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1858,16 +1864,16 @@
         <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G24" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1879,7 +1885,7 @@
       </c>
       <c r="I24" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.11.DataInspectorDisplayControl.md</v>
+        <v>CADGIS2LabDemonstration/2.11.DataInspectorDisplayControl.md</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -1890,16 +1896,16 @@
         <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G25" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1911,7 +1917,7 @@
       </c>
       <c r="I25" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.12.BackgroundMaps.md</v>
+        <v>CADGIS2LabDemonstration/2.12.BackgroundMaps.md</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -1922,16 +1928,16 @@
         <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G26" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1943,7 +1949,7 @@
       </c>
       <c r="I26" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.13.ReaderParameters.md</v>
+        <v>CADGIS2LabDemonstration/2.13.ReaderParameters.md</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -1954,16 +1960,16 @@
         <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G27" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1975,27 +1981,27 @@
       </c>
       <c r="I27" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.14.WriterParameters.md</v>
+        <v>CADGIS2LabDemonstration/2.14.WriterParameters.md</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G28" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2007,27 +2013,27 @@
       </c>
       <c r="I28" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.15.TransformationWithTransformers.md</v>
+        <v>CADGIS2LabDemonstration/2.15.TransformationWithTransformers.md</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G29" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2039,27 +2045,27 @@
       </c>
       <c r="I29" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.16.ContentTransformation.md</v>
+        <v>CADGIS2LabDemonstration/2.16.ContentTransformation.md</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G30" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2071,27 +2077,27 @@
       </c>
       <c r="I30" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.17.TransformersInSeries.md</v>
+        <v>CADGIS2LabDemonstration/2.17.TransformersInSeries.md</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G31" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2103,27 +2109,27 @@
       </c>
       <c r="I31" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.18.FeatureCounts.md</v>
+        <v>CADGIS2LabDemonstration/2.18.FeatureCounts.md</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G32" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2135,27 +2141,27 @@
       </c>
       <c r="I32" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.19.TransformersInParallel.md</v>
+        <v>CADGIS2LabDemonstration/2.19.TransformersInParallel.md</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G33" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2167,27 +2173,27 @@
       </c>
       <c r="I33" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.20.GroupByProcessing.md</v>
+        <v>CADGIS2LabDemonstration/2.20.GroupByProcessing.md</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G34" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2199,27 +2205,27 @@
       </c>
       <c r="I34" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.21.DataInspectionFromWorkbench.md</v>
+        <v>CADGIS2LabDemonstration/2.21.DataInspectionFromWorkbench.md</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G35" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2231,27 +2237,27 @@
       </c>
       <c r="I35" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.22.CoordinateSystemTransformation.md</v>
+        <v>CADGIS2LabDemonstration/2.22.CoordinateSystemTransformation.md</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="F36" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G36" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(A36),C36&amp;"."&amp;E36&amp;"."&amp;B36&amp;".md",C36&amp;"."&amp;E36&amp;"."&amp;RIGHT(B36,LEN(B36)-2))</f>
         <v>3.00.LabExercises.md</v>
       </c>
       <c r="H36" s="2" t="str">
@@ -2265,23 +2271,23 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G37" s="2" t="str">
-        <f t="shared" ref="G37:G47" si="3">IF(ISBLANK(A37),C37&amp;"."&amp;E36&amp;"."&amp;B37&amp;".md",C37&amp;"."&amp;E36&amp;"."&amp;RIGHT(B37,LEN(B37)-2))</f>
-        <v>3.00.GettingStartedwithFMEDesktop.md</v>
+        <f t="shared" ref="G37:G56" si="3">IF(ISBLANK(A37),C37&amp;"."&amp;E37&amp;"."&amp;B37&amp;".md",C37&amp;"."&amp;E37&amp;"."&amp;RIGHT(B37,LEN(B37)-2))</f>
+        <v>3.01.GettingStartedWithFMEDesktop.md</v>
       </c>
       <c r="H37" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2289,7 +2295,7 @@
       </c>
       <c r="I37" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.00.GettingStartedwithFMEDesktop.md</v>
+        <v>CADGIS3LabExercises/3.01.GettingStartedWithFMEDesktop.md</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -2297,23 +2303,23 @@
         <v>19</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G38" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.01.Exercise1.md</v>
+        <v>3.02.Exercise1.md</v>
       </c>
       <c r="H38" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2321,7 +2327,7 @@
       </c>
       <c r="I38" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.01.Exercise1.md</v>
+        <v>CADGIS3LabExercises/3.02.Exercise1.md</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -2329,23 +2335,23 @@
         <v>19</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G39" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.02.Exercise2.md</v>
+        <v>3.03.Exercise2.md</v>
       </c>
       <c r="H39" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2353,7 +2359,7 @@
       </c>
       <c r="I39" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.02.Exercise2.md</v>
+        <v>CADGIS3LabExercises/3.03.Exercise2.md</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -2361,23 +2367,23 @@
         <v>19</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G40" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.03.Exercise3.md</v>
+        <v>3.04.Exercise3.md</v>
       </c>
       <c r="H40" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2385,7 +2391,7 @@
       </c>
       <c r="I40" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.03.Exercise3.md</v>
+        <v>CADGIS3LabExercises/3.04.Exercise3.md</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -2393,23 +2399,23 @@
         <v>19</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G41" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.04.Exercise4.md</v>
+        <v>3.05.Exercise4.md</v>
       </c>
       <c r="H41" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2417,249 +2423,246 @@
       </c>
       <c r="I41" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.04.Exercise4.md</v>
+        <v>CADGIS3LabExercises/3.05.Exercise4.md</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" t="s">
-        <v>66</v>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G42" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.05.Exercise1.md</v>
-      </c>
-      <c r="H42" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise1.md</v>
+        <v>3.06.DataTransformation.md</v>
       </c>
       <c r="I42" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.05.Exercise1.md</v>
+        <v>CADGIS3LabExercises/3.06.DataTransformation.md</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G43" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.06.Exercise2.md</v>
+        <v>3.07.Exercise1.md</v>
       </c>
       <c r="H43" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise2.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise1.md</v>
       </c>
       <c r="I43" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.06.Exercise2.md</v>
+        <v>CADGIS3LabExercises/3.07.Exercise1.md</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G44" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.07.Exercise3.md</v>
+        <v>3.08.Exercise2.md</v>
       </c>
       <c r="H44" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise3.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise2.md</v>
       </c>
       <c r="I44" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.07.Exercise3.md</v>
+        <v>CADGIS3LabExercises/3.08.Exercise2.md</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G45" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.08.Exercise4.md</v>
+        <v>3.09.Exercise3.md</v>
       </c>
       <c r="H45" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise4.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise3.md</v>
       </c>
       <c r="I45" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.08.Exercise4.md</v>
+        <v>CADGIS3LabExercises/3.09.Exercise3.md</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G46" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.09.Exercise5.md</v>
+        <v>3.10.Exercise4.md</v>
       </c>
       <c r="H46" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise5.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise4.md</v>
       </c>
       <c r="I46" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.09.Exercise5.md</v>
+        <v>CADGIS3LabExercises/3.10.Exercise4.md</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G47" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.10.Exercise6.md</v>
+        <v>3.11.Exercise5.md</v>
       </c>
       <c r="H47" s="2" t="str">
         <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.Exercise5.md</v>
+      </c>
+      <c r="I47" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS3LabExercises/3.11.Exercise5.md</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>3.12.Exercise6.md</v>
+      </c>
+      <c r="H48" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>DesktopBasic2Transformation/2.Exercise6.md</v>
       </c>
-      <c r="I47" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.10.Exercise6.md</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B48" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G48" s="2" t="str">
-        <f t="shared" ref="G48:G54" si="4">IF(ISBLANK(A48),C48&amp;"."&amp;E47&amp;"."&amp;B48&amp;".md",C48&amp;"."&amp;E47&amp;"."&amp;RIGHT(B48,LEN(B48)-2))</f>
-        <v>3.11.GettingStartedwithAutoCAD.md</v>
-      </c>
-      <c r="H48" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="I48" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.11.GettingStartedwithAutoCAD.md</v>
+        <v>CADGIS3LabExercises/3.12.Exercise6.md</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G49" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>3.12.GroupingEntitiesInDWG.md</v>
+        <f t="shared" si="3"/>
+        <v>3.13.GettingStartedwithAutoCAD.md</v>
       </c>
       <c r="H49" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2667,28 +2670,28 @@
       </c>
       <c r="I49" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.12.GroupingEntitiesInDWG.md</v>
+        <v>CADGIS3LabExercises/3.13.GettingStartedwithAutoCAD.md</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G50" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>3.13.HandlingBlocksInDWG.md</v>
+        <f t="shared" si="3"/>
+        <v>3.14.GroupingEntitiesInDWG.md</v>
       </c>
       <c r="H50" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2696,28 +2699,28 @@
       </c>
       <c r="I50" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.13.HandlingBlocksInDWG.md</v>
+        <v>CADGIS3LabExercises/3.14.GroupingEntitiesInDWG.md</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G51" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>3.14.DWGtoDGN.md</v>
+        <f t="shared" si="3"/>
+        <v>3.15.HandlingBlocksInDWG.md</v>
       </c>
       <c r="H51" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2725,28 +2728,28 @@
       </c>
       <c r="I51" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.14.DWGtoDGN.md</v>
+        <v>CADGIS3LabExercises/3.15.HandlingBlocksInDWG.md</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G52" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>3.15.SHPtoDWG.md</v>
+        <f t="shared" si="3"/>
+        <v>3.16.DWGToDGN.md</v>
       </c>
       <c r="H52" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2754,28 +2757,28 @@
       </c>
       <c r="I52" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.15.SHPtoDWG.md</v>
+        <v>CADGIS3LabExercises/3.16.DWGToDGN.md</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G53" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>3.16.ExplodingBlockEntitiesInDWG.md</v>
+        <f t="shared" si="3"/>
+        <v>3.17.SHPToDWG.md</v>
       </c>
       <c r="H53" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2783,36 +2786,94 @@
       </c>
       <c r="I53" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.16.ExplodingBlockEntitiesInDWG.md</v>
+        <v>CADGIS3LabExercises/3.17.SHPToDWG.md</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G54" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>3.18.ExplodingBlockEntitiesInDWG.md</v>
+      </c>
+      <c r="H54" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I54" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS3LabExercises/3.18.ExplodingBlockEntitiesInDWG.md</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G54" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>3.17.PreservingBlockEntitiesInDWG.md</v>
-      </c>
-      <c r="H54" s="2" t="str">
+      <c r="F55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G55" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>3.19.PreservingBlockEntitiesInDWG.md</v>
+      </c>
+      <c r="H55" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I54" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.17.PreservingBlockEntitiesInDWG.md</v>
+      <c r="I55" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS3LabExercises/3.19.PreservingBlockEntitiesInDWG.md</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>3.20.LabQuestions.md</v>
+      </c>
+      <c r="H56" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I56" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS3LabExercises/3.20.LabQuestions.md</v>
       </c>
     </row>
   </sheetData>
@@ -2823,18 +2884,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1">
         <v>0</v>
@@ -2843,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>20</v>
@@ -2864,46 +2923,46 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="2" t="str">
-        <f t="shared" ref="G2:G35" si="0">IF(ISBLANK(A2),C2&amp;"."&amp;E2&amp;"."&amp;B2&amp;".md",C2&amp;"."&amp;E2&amp;"."&amp;RIGHT(B2,LEN(B2)-5))</f>
+        <f t="shared" ref="G2:G34" si="0">IF(ISBLANK(A2),C2&amp;"."&amp;E2&amp;"."&amp;B2&amp;".md",C2&amp;"."&amp;E2&amp;"."&amp;RIGHT(B2,LEN(B2)-5))</f>
         <v>0.01.CourseOverview.md</v>
       </c>
       <c r="H2" s="2" t="str">
-        <f t="shared" ref="H2:H53" si="1">IF(ISBLANK(A2),"",A2&amp;"/"&amp;B2)</f>
+        <f t="shared" ref="H2:H55" si="1">IF(ISBLANK(A2),"",A2&amp;"/"&amp;B2)</f>
         <v/>
       </c>
       <c r="I2" s="2" t="str">
-        <f t="shared" ref="I2:I53" si="2">F2&amp;"/"&amp;G2</f>
+        <f t="shared" ref="I2:I55" si="2">F2&amp;"/"&amp;G2</f>
         <v>CADGIS0About/0.01.CourseOverview.md</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>20</v>
@@ -2924,16 +2983,16 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>21</v>
@@ -2954,16 +3013,16 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>21</v>
@@ -2986,16 +3045,16 @@
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>21</v>
@@ -3015,19 +3074,19 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>21</v>
@@ -3047,19 +3106,19 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>21</v>
@@ -3079,19 +3138,19 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>21</v>
@@ -3111,19 +3170,19 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>21</v>
@@ -3143,19 +3202,19 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>21</v>
@@ -3175,23 +3234,23 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.00.LabDemo.md</v>
+        <v>2.00.LabDemonstration.md</v>
       </c>
       <c r="H12" s="2" t="str">
         <f t="shared" si="1"/>
@@ -3199,7 +3258,7 @@
       </c>
       <c r="I12" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.00.LabDemo.md</v>
+        <v>CADGIS2LabDemonstration/2.00.LabDemonstration.md</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -3210,16 +3269,16 @@
         <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G13" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3231,7 +3290,7 @@
       </c>
       <c r="I13" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.01.FMEDesktopComponents.md</v>
+        <v>CADGIS2LabDemonstration/2.01.FMEDesktopComponents.md</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -3242,16 +3301,16 @@
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G14" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3263,7 +3322,7 @@
       </c>
       <c r="I14" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.02.IntroductionToWorkbench.md</v>
+        <v>CADGIS2LabDemonstration/2.02.IntroductionToWorkbench.md</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -3274,16 +3333,16 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3295,7 +3354,7 @@
       </c>
       <c r="I15" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.03.WindowControl.md</v>
+        <v>CADGIS2LabDemonstration/2.03.WindowControl.md</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -3306,16 +3365,16 @@
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3327,7 +3386,7 @@
       </c>
       <c r="I16" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.04.CreatingATranslation.md</v>
+        <v>CADGIS2LabDemonstration/2.04.CreatingATranslation.md</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -3338,16 +3397,16 @@
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G17" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3359,7 +3418,7 @@
       </c>
       <c r="I17" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.05.TheNewWorkspace.md</v>
+        <v>CADGIS2LabDemonstration/2.05.TheNewWorkspace.md</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -3370,16 +3429,16 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G18" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3391,7 +3450,7 @@
       </c>
       <c r="I18" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.06.RunningTheWorkspace.md</v>
+        <v>CADGIS2LabDemonstration/2.06.RunningTheWorkspace.md</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -3402,16 +3461,16 @@
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G19" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3423,7 +3482,7 @@
       </c>
       <c r="I19" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.07.WhatIsDataInspection.md</v>
+        <v>CADGIS2LabDemonstration/2.07.WhatIsDataInspection.md</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -3434,16 +3493,16 @@
         <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G20" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3455,7 +3514,7 @@
       </c>
       <c r="I20" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.08.IntroductionToDataInspector.md</v>
+        <v>CADGIS2LabDemonstration/2.08.IntroductionToDataInspector.md</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -3466,16 +3525,16 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G21" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3487,7 +3546,7 @@
       </c>
       <c r="I21" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.09.ViewingData.md</v>
+        <v>CADGIS2LabDemonstration/2.09.ViewingData.md</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -3498,16 +3557,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G22" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3519,7 +3578,7 @@
       </c>
       <c r="I22" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.10.QueryingData.md</v>
+        <v>CADGIS2LabDemonstration/2.10.QueryingData.md</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -3530,16 +3589,16 @@
         <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G23" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3551,7 +3610,7 @@
       </c>
       <c r="I23" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.11.DataInspectorDisplayControl.md</v>
+        <v>CADGIS2LabDemonstration/2.11.DataInspectorDisplayControl.md</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -3562,16 +3621,16 @@
         <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G24" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3583,7 +3642,7 @@
       </c>
       <c r="I24" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.12.BackgroundMaps.md</v>
+        <v>CADGIS2LabDemonstration/2.12.BackgroundMaps.md</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -3594,16 +3653,16 @@
         <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G25" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3615,7 +3674,7 @@
       </c>
       <c r="I25" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.13.ReaderParameters.md</v>
+        <v>CADGIS2LabDemonstration/2.13.ReaderParameters.md</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -3626,16 +3685,16 @@
         <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G26" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3647,27 +3706,27 @@
       </c>
       <c r="I26" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.14.WriterParameters.md</v>
+        <v>CADGIS2LabDemonstration/2.14.WriterParameters.md</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G27" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3679,27 +3738,27 @@
       </c>
       <c r="I27" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.15.TransformationWithTransformers.md</v>
+        <v>CADGIS2LabDemonstration/2.15.TransformationWithTransformers.md</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G28" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3711,27 +3770,27 @@
       </c>
       <c r="I28" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.16.ContentTransformation.md</v>
+        <v>CADGIS2LabDemonstration/2.16.ContentTransformation.md</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G29" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3743,27 +3802,27 @@
       </c>
       <c r="I29" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.17.TransformersInSeries.md</v>
+        <v>CADGIS2LabDemonstration/2.17.TransformersInSeries.md</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G30" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3775,27 +3834,27 @@
       </c>
       <c r="I30" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.18.FeatureCounts.md</v>
+        <v>CADGIS2LabDemonstration/2.18.FeatureCounts.md</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G31" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3807,27 +3866,27 @@
       </c>
       <c r="I31" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.19.TransformersInParallel.md</v>
+        <v>CADGIS2LabDemonstration/2.19.TransformersInParallel.md</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G32" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3839,27 +3898,27 @@
       </c>
       <c r="I32" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.20.GroupByProcessing.md</v>
+        <v>CADGIS2LabDemonstration/2.20.GroupByProcessing.md</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G33" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3871,27 +3930,27 @@
       </c>
       <c r="I33" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.21.DataInspectionFromWorkbench.md</v>
+        <v>CADGIS2LabDemonstration/2.21.DataInspectionFromWorkbench.md</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="G34" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3903,27 +3962,27 @@
       </c>
       <c r="I34" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemo/2.22.CoordinateSystemTransformation.md</v>
+        <v>CADGIS2LabDemonstration/2.22.CoordinateSystemTransformation.md</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="F35" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G35" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(A35),C35&amp;"."&amp;E35&amp;"."&amp;B35&amp;".md",C35&amp;"."&amp;E35&amp;"."&amp;RIGHT(B35,LEN(B35)-2))</f>
         <v>3.00.LabExercises.md</v>
       </c>
       <c r="H35" s="2" t="str">
@@ -3937,23 +3996,23 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G36" s="2" t="str">
-        <f t="shared" ref="G36:G53" si="3">IF(ISBLANK(A36),C36&amp;"."&amp;E35&amp;"."&amp;B36&amp;".md",C36&amp;"."&amp;E35&amp;"."&amp;RIGHT(B36,LEN(B36)-2))</f>
-        <v>3.00.GettingStartedwithFMEDesktop.md</v>
+        <f t="shared" ref="G36:G55" si="3">IF(ISBLANK(A36),C36&amp;"."&amp;E36&amp;"."&amp;B36&amp;".md",C36&amp;"."&amp;E36&amp;"."&amp;RIGHT(B36,LEN(B36)-2))</f>
+        <v>3.01.GettingStartedWithFMEDesktop.md</v>
       </c>
       <c r="H36" s="2" t="str">
         <f t="shared" si="1"/>
@@ -3961,7 +4020,7 @@
       </c>
       <c r="I36" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.00.GettingStartedwithFMEDesktop.md</v>
+        <v>CADGIS3LabExercises/3.01.GettingStartedWithFMEDesktop.md</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -3969,23 +4028,23 @@
         <v>19</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G37" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.01.Exercise1.md</v>
+        <v>3.02.Exercise1.md</v>
       </c>
       <c r="H37" s="2" t="str">
         <f t="shared" si="1"/>
@@ -3993,7 +4052,7 @@
       </c>
       <c r="I37" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.01.Exercise1.md</v>
+        <v>CADGIS3LabExercises/3.02.Exercise1.md</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -4001,23 +4060,23 @@
         <v>19</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G38" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.02.Exercise2.md</v>
+        <v>3.03.Exercise2.md</v>
       </c>
       <c r="H38" s="2" t="str">
         <f t="shared" si="1"/>
@@ -4025,7 +4084,7 @@
       </c>
       <c r="I38" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.02.Exercise2.md</v>
+        <v>CADGIS3LabExercises/3.03.Exercise2.md</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -4033,23 +4092,23 @@
         <v>19</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G39" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.03.Exercise3.md</v>
+        <v>3.04.Exercise3.md</v>
       </c>
       <c r="H39" s="2" t="str">
         <f t="shared" si="1"/>
@@ -4057,7 +4116,7 @@
       </c>
       <c r="I39" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.03.Exercise3.md</v>
+        <v>CADGIS3LabExercises/3.04.Exercise3.md</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -4065,23 +4124,23 @@
         <v>19</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G40" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.04.Exercise4.md</v>
+        <v>3.05.Exercise4.md</v>
       </c>
       <c r="H40" s="2" t="str">
         <f t="shared" si="1"/>
@@ -4089,249 +4148,247 @@
       </c>
       <c r="I40" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.04.Exercise4.md</v>
+        <v>CADGIS3LabExercises/3.05.Exercise4.md</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" t="s">
-        <v>66</v>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G41" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.05.Exercise1.md</v>
-      </c>
-      <c r="H41" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise1.md</v>
-      </c>
+        <v>3.06.DataTransformation.md</v>
+      </c>
+      <c r="H41" s="2"/>
       <c r="I41" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.05.Exercise1.md</v>
+        <v>CADGIS3LabExercises/3.06.DataTransformation.md</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G42" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.06.Exercise2.md</v>
+        <v>3.07.Exercise1.md</v>
       </c>
       <c r="H42" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise2.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise1.md</v>
       </c>
       <c r="I42" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.06.Exercise2.md</v>
+        <v>CADGIS3LabExercises/3.07.Exercise1.md</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G43" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.07.Exercise3.md</v>
+        <v>3.08.Exercise2.md</v>
       </c>
       <c r="H43" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise3.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise2.md</v>
       </c>
       <c r="I43" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.07.Exercise3.md</v>
+        <v>CADGIS3LabExercises/3.08.Exercise2.md</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G44" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.08.Exercise4.md</v>
+        <v>3.09.Exercise3.md</v>
       </c>
       <c r="H44" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise4.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise3.md</v>
       </c>
       <c r="I44" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.08.Exercise4.md</v>
+        <v>CADGIS3LabExercises/3.09.Exercise3.md</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G45" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.09.Exercise5.md</v>
+        <v>3.10.Exercise4.md</v>
       </c>
       <c r="H45" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise5.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise4.md</v>
       </c>
       <c r="I45" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.09.Exercise5.md</v>
+        <v>CADGIS3LabExercises/3.10.Exercise4.md</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G46" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.10.Exercise6.md</v>
+        <v>3.11.Exercise5.md</v>
       </c>
       <c r="H46" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise6.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise5.md</v>
       </c>
       <c r="I46" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.10.Exercise6.md</v>
+        <v>CADGIS3LabExercises/3.11.Exercise5.md</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G47" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.11.GettingStartedwithAutoCAD.md</v>
+        <v>3.12.Exercise6.md</v>
       </c>
       <c r="H47" s="2" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>DesktopBasic2Transformation/2.Exercise6.md</v>
       </c>
       <c r="I47" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.11.GettingStartedwithAutoCAD.md</v>
+        <v>CADGIS3LabExercises/3.12.Exercise6.md</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G48" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.12.GroupingEntitiesInDWG.md</v>
+        <v>3.13.GettingStartedwithAutoCAD.md</v>
       </c>
       <c r="H48" s="2" t="str">
         <f t="shared" si="1"/>
@@ -4339,28 +4396,28 @@
       </c>
       <c r="I48" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.12.GroupingEntitiesInDWG.md</v>
+        <v>CADGIS3LabExercises/3.13.GettingStartedwithAutoCAD.md</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G49" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.13.HandlingBlocksInDWG.md</v>
+        <v>3.14.GroupingEntitiesInDWG.md</v>
       </c>
       <c r="H49" s="2" t="str">
         <f t="shared" si="1"/>
@@ -4368,28 +4425,28 @@
       </c>
       <c r="I49" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.13.HandlingBlocksInDWG.md</v>
+        <v>CADGIS3LabExercises/3.14.GroupingEntitiesInDWG.md</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G50" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.14.DWGtoDGN.md</v>
+        <v>3.15.HandlingBlocksInDWG.md</v>
       </c>
       <c r="H50" s="2" t="str">
         <f t="shared" si="1"/>
@@ -4397,28 +4454,28 @@
       </c>
       <c r="I50" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.14.DWGtoDGN.md</v>
+        <v>CADGIS3LabExercises/3.15.HandlingBlocksInDWG.md</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G51" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.15.SHPtoDWG.md</v>
+        <v>3.16.DWGToDGN.md</v>
       </c>
       <c r="H51" s="2" t="str">
         <f t="shared" si="1"/>
@@ -4426,28 +4483,28 @@
       </c>
       <c r="I51" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.15.SHPtoDWG.md</v>
+        <v>CADGIS3LabExercises/3.16.DWGToDGN.md</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G52" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.16.ExplodingBlockEntitiesInDWG.md</v>
+        <v>3.17.SHPToDWG.md</v>
       </c>
       <c r="H52" s="2" t="str">
         <f t="shared" si="1"/>
@@ -4455,28 +4512,28 @@
       </c>
       <c r="I52" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.16.ExplodingBlockEntitiesInDWG.md</v>
+        <v>CADGIS3LabExercises/3.17.SHPToDWG.md</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G53" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.17.PreservingBlockEntitiesInDWG.md</v>
+        <v>3.18.ExplodingBlockEntitiesInDWG.md</v>
       </c>
       <c r="H53" s="2" t="str">
         <f t="shared" si="1"/>
@@ -4484,7 +4541,65 @@
       </c>
       <c r="I53" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.17.PreservingBlockEntitiesInDWG.md</v>
+        <v>CADGIS3LabExercises/3.18.ExplodingBlockEntitiesInDWG.md</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G54" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>3.19.PreservingBlockEntitiesInDWG.md</v>
+      </c>
+      <c r="H54" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I54" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS3LabExercises/3.19.PreservingBlockEntitiesInDWG.md</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G55" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>3.20.LabQuestions.md</v>
+      </c>
+      <c r="H55" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I55" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS3LabExercises/3.20.LabQuestions.md</v>
       </c>
     </row>
   </sheetData>

--- a/chapters.xlsx
+++ b/chapters.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="98">
   <si>
     <t>1.03.IntroductionToWorkbench.md</t>
   </si>
@@ -238,9 +238,6 @@
     <t>chap</t>
   </si>
   <si>
-    <t>sec</t>
-  </si>
-  <si>
     <t>file</t>
   </si>
   <si>
@@ -311,6 +308,12 @@
   </si>
   <si>
     <t>GettingStartedWithFMEDesktop</t>
+  </si>
+  <si>
+    <t>DataIntegration</t>
+  </si>
+  <si>
+    <t>indent</t>
   </si>
 </sst>
 </file>
@@ -1119,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L56" sqref="A2:L56"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1147,10 +1150,10 @@
         <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="F1" t="s">
         <v>17</v>
@@ -1168,7 +1171,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1177,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -1198,13 +1201,13 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>26</v>
@@ -1213,28 +1216,28 @@
         <v>20</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G35" si="0">IF(ISBLANK(A3),C3&amp;"."&amp;E3&amp;"."&amp;B3&amp;".md",C3&amp;"."&amp;E3&amp;"."&amp;RIGHT(B3,LEN(B3)-5))</f>
+        <f t="shared" ref="G3:G38" si="0">IF(ISBLANK(A3),C3&amp;"."&amp;E3&amp;"."&amp;B3&amp;".md",C3&amp;"."&amp;E3&amp;"."&amp;RIGHT(B3,LEN(B3)-5))</f>
         <v>0.01.CourseOverview.md</v>
       </c>
       <c r="H3" s="2" t="str">
-        <f t="shared" ref="H3:H56" si="1">IF(ISBLANK(A3),"",A3&amp;"/"&amp;B3)</f>
+        <f t="shared" ref="H3:H57" si="1">IF(ISBLANK(A3),"",A3&amp;"/"&amp;B3)</f>
         <v/>
       </c>
       <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3:I56" si="2">F3&amp;"/"&amp;G3</f>
+        <f t="shared" ref="I3:I57" si="2">F3&amp;"/"&amp;G3</f>
         <v>CADGIS0About/0.01.CourseOverview.md</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>28</v>
@@ -1258,16 +1261,16 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>21</v>
@@ -1276,25 +1279,21 @@
         <f t="shared" si="0"/>
         <v>1.00.Lecture.md</v>
       </c>
-      <c r="H5" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="I5" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>F5&amp;"/"&amp;G5</f>
         <v>CADGIS1Lecture/1.00.Lecture.md</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>26</v>
@@ -1304,26 +1303,20 @@
       </c>
       <c r="G6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.01.WhyFME.md</v>
+        <v>1.01.DataIntegration.md</v>
       </c>
       <c r="H6" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(A6),"",A6&amp;"/"&amp;B5)</f>
         <v/>
       </c>
-      <c r="I6" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.01.WhyFME.md</v>
-      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>74</v>
@@ -1336,26 +1329,26 @@
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.02.WhatIsFME.md</v>
+        <v>1.02.WhyFME.md</v>
       </c>
       <c r="H7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.01.WhatIsFME.md</v>
+        <v/>
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.02.WhatIsFME.md</v>
+        <v>CADGIS1Lecture/1.02.WhyFME.md</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>74</v>
@@ -1368,15 +1361,15 @@
       </c>
       <c r="G8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.03.DataTransformation.md</v>
+        <v>1.03.WhatIsFME.md</v>
       </c>
       <c r="H8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.00.DataTransformation.md</v>
+        <v>DesktopBasic1Basics/1.01.WhatIsFME.md</v>
       </c>
       <c r="I8" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.03.DataTransformation.md</v>
+        <v>CADGIS1Lecture/1.03.WhatIsFME.md</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -1384,13 +1377,13 @@
         <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>30</v>
@@ -1400,15 +1393,15 @@
       </c>
       <c r="G9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.04.WhatIsDataTransformation.md</v>
+        <v>1.04.DataTransformation.md</v>
       </c>
       <c r="H9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.01.WhatIsDataTransformation.md</v>
+        <v>DesktopBasic2Transformation/2.00.DataTransformation.md</v>
       </c>
       <c r="I9" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.04.WhatIsDataTransformation.md</v>
+        <v>CADGIS1Lecture/1.04.DataTransformation.md</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -1416,10 +1409,10 @@
         <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>74</v>
@@ -1432,15 +1425,15 @@
       </c>
       <c r="G10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.05.StructuralTransformation.md</v>
+        <v>1.05.WhatIsDataTransformation.md</v>
       </c>
       <c r="H10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.02.StructuralTransformation.md</v>
+        <v>DesktopBasic2Transformation/2.01.WhatIsDataTransformation.md</v>
       </c>
       <c r="I10" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.05.StructuralTransformation.md</v>
+        <v>CADGIS1Lecture/1.05.WhatIsDataTransformation.md</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -1448,10 +1441,10 @@
         <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>74</v>
@@ -1464,15 +1457,15 @@
       </c>
       <c r="G11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.06.SchemaEditing.md</v>
+        <v>1.06.StructuralTransformation.md</v>
       </c>
       <c r="H11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.03.SchemaEditing.md</v>
+        <v>DesktopBasic2Transformation/2.02.StructuralTransformation.md</v>
       </c>
       <c r="I11" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.06.SchemaEditing.md</v>
+        <v>CADGIS1Lecture/1.06.StructuralTransformation.md</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -1480,10 +1473,10 @@
         <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>74</v>
@@ -1496,76 +1489,76 @@
       </c>
       <c r="G12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.07.SchemaMapping.md</v>
+        <v>1.07.SchemaEditing.md</v>
       </c>
       <c r="H12" s="2" t="str">
         <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.03.SchemaEditing.md</v>
+      </c>
+      <c r="I12" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS1Lecture/1.07.SchemaEditing.md</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1.08.SchemaMapping.md</v>
+      </c>
+      <c r="H13" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>DesktopBasic2Transformation/2.04.SchemaMapping.md</v>
       </c>
-      <c r="I12" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.07.SchemaMapping.md</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="I13" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS1Lecture/1.08.SchemaMapping.md</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="2" t="str">
+      <c r="F14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2.00.LabDemonstration.md</v>
       </c>
-      <c r="H13" s="2" t="str">
+      <c r="H14" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I13" s="2" t="str">
+      <c r="I14" s="2" t="str">
         <f t="shared" si="2"/>
         <v>CADGIS2LabDemonstration/2.00.LabDemonstration.md</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.01.FMEDesktopComponents.md</v>
-      </c>
-      <c r="H14" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.02.FMEDesktopComponents.md</v>
-      </c>
-      <c r="I14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.01.FMEDesktopComponents.md</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -1573,31 +1566,31 @@
         <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.02.IntroductionToWorkbench.md</v>
+        <v>2.01.FMEDesktopComponents.md</v>
       </c>
       <c r="H15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.03.IntroductionToWorkbench.md</v>
+        <v>DesktopBasic1Basics/1.02.FMEDesktopComponents.md</v>
       </c>
       <c r="I15" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.02.IntroductionToWorkbench.md</v>
+        <v>CADGIS2LabDemonstration/2.01.FMEDesktopComponents.md</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -1605,31 +1598,31 @@
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.03.WindowControl.md</v>
+        <v>2.02.IntroductionToWorkbench.md</v>
       </c>
       <c r="H16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.04.WindowControl.md</v>
+        <v>DesktopBasic1Basics/1.03.IntroductionToWorkbench.md</v>
       </c>
       <c r="I16" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.03.WindowControl.md</v>
+        <v>CADGIS2LabDemonstration/2.02.IntroductionToWorkbench.md</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -1637,31 +1630,31 @@
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.04.CreatingATranslation.md</v>
+        <v>2.03.WindowControl.md</v>
       </c>
       <c r="H17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.05.CreatingATranslation.md</v>
+        <v>DesktopBasic1Basics/1.04.WindowControl.md</v>
       </c>
       <c r="I17" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.04.CreatingATranslation.md</v>
+        <v>CADGIS2LabDemonstration/2.03.WindowControl.md</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -1669,31 +1662,31 @@
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.05.TheNewWorkspace.md</v>
+        <v>2.04.CreatingATranslation.md</v>
       </c>
       <c r="H18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.06.TheNewWorkspace.md</v>
+        <v>DesktopBasic1Basics/1.05.CreatingATranslation.md</v>
       </c>
       <c r="I18" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.05.TheNewWorkspace.md</v>
+        <v>CADGIS2LabDemonstration/2.04.CreatingATranslation.md</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1701,31 +1694,31 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.06.RunningTheWorkspace.md</v>
+        <v>2.05.TheNewWorkspace.md</v>
       </c>
       <c r="H19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.07.RunningTheWorkspace.md</v>
+        <v>DesktopBasic1Basics/1.06.TheNewWorkspace.md</v>
       </c>
       <c r="I19" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.06.RunningTheWorkspace.md</v>
+        <v>CADGIS2LabDemonstration/2.05.TheNewWorkspace.md</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1733,31 +1726,31 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.07.WhatIsDataInspection.md</v>
+        <v>2.06.RunningTheWorkspace.md</v>
       </c>
       <c r="H20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.08.WhatIsDataInspection.md</v>
+        <v>DesktopBasic1Basics/1.07.RunningTheWorkspace.md</v>
       </c>
       <c r="I20" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.07.WhatIsDataInspection.md</v>
+        <v>CADGIS2LabDemonstration/2.06.RunningTheWorkspace.md</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1765,31 +1758,31 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.08.IntroductionToDataInspector.md</v>
+        <v>2.07.WhatIsDataInspection.md</v>
       </c>
       <c r="H21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.09.IntroductionToDataInspector.md</v>
+        <v>DesktopBasic1Basics/1.08.WhatIsDataInspection.md</v>
       </c>
       <c r="I21" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.08.IntroductionToDataInspector.md</v>
+        <v>CADGIS2LabDemonstration/2.07.WhatIsDataInspection.md</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -1797,31 +1790,31 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.09.ViewingData.md</v>
+        <v>2.08.IntroductionToDataInspector.md</v>
       </c>
       <c r="H22" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.10.ViewingData.md</v>
+        <v>DesktopBasic1Basics/1.09.IntroductionToDataInspector.md</v>
       </c>
       <c r="I22" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.09.ViewingData.md</v>
+        <v>CADGIS2LabDemonstration/2.08.IntroductionToDataInspector.md</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1829,31 +1822,31 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.10.QueryingData.md</v>
+        <v>2.09.ViewingData.md</v>
       </c>
       <c r="H23" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.11.QueryingData.md</v>
+        <v>DesktopBasic1Basics/1.10.ViewingData.md</v>
       </c>
       <c r="I23" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.10.QueryingData.md</v>
+        <v>CADGIS2LabDemonstration/2.09.ViewingData.md</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1861,31 +1854,31 @@
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.11.DataInspectorDisplayControl.md</v>
+        <v>2.10.QueryingData.md</v>
       </c>
       <c r="H24" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.12.DataInspectorDisplayControl.md</v>
+        <v>DesktopBasic1Basics/1.11.QueryingData.md</v>
       </c>
       <c r="I24" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.11.DataInspectorDisplayControl.md</v>
+        <v>CADGIS2LabDemonstration/2.10.QueryingData.md</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -1893,31 +1886,31 @@
         <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.12.BackgroundMaps.md</v>
+        <v>2.11.DataInspectorDisplayControl.md</v>
       </c>
       <c r="H25" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.13.BackgroundMaps.md</v>
+        <v>DesktopBasic1Basics/1.12.DataInspectorDisplayControl.md</v>
       </c>
       <c r="I25" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.12.BackgroundMaps.md</v>
+        <v>CADGIS2LabDemonstration/2.11.DataInspectorDisplayControl.md</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -1925,31 +1918,31 @@
         <v>19</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G26" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.13.ReaderParameters.md</v>
+        <v>2.12.BackgroundMaps.md</v>
       </c>
       <c r="H26" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.14.ReaderParameters.md</v>
+        <v>DesktopBasic1Basics/1.13.BackgroundMaps.md</v>
       </c>
       <c r="I26" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.13.ReaderParameters.md</v>
+        <v>CADGIS2LabDemonstration/2.12.BackgroundMaps.md</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -1957,63 +1950,63 @@
         <v>19</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.13.ReaderParameters.md</v>
+      </c>
+      <c r="H27" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.14.ReaderParameters.md</v>
+      </c>
+      <c r="I27" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemonstration/2.13.ReaderParameters.md</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="C28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G27" s="2" t="str">
+      <c r="F28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2.14.WriterParameters.md</v>
       </c>
-      <c r="H27" s="2" t="str">
+      <c r="H28" s="2" t="str">
         <f t="shared" si="1"/>
         <v>DesktopBasic1Basics/1.15.WriterParameters.md</v>
       </c>
-      <c r="I27" s="2" t="str">
+      <c r="I28" s="2" t="str">
         <f t="shared" si="2"/>
         <v>CADGIS2LabDemonstration/2.14.WriterParameters.md</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G28" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.15.TransformationWithTransformers.md</v>
-      </c>
-      <c r="H28" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.05.TransformationWithTransformers.md</v>
-      </c>
-      <c r="I28" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.15.TransformationWithTransformers.md</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -2021,31 +2014,31 @@
         <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G29" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.16.ContentTransformation.md</v>
+        <v>2.15.TransformationWithTransformers.md</v>
       </c>
       <c r="H29" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.06.ContentTransformation.md</v>
+        <v>DesktopBasic2Transformation/2.05.TransformationWithTransformers.md</v>
       </c>
       <c r="I29" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.16.ContentTransformation.md</v>
+        <v>CADGIS2LabDemonstration/2.15.TransformationWithTransformers.md</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -2053,31 +2046,31 @@
         <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G30" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.17.TransformersInSeries.md</v>
+        <v>2.16.ContentTransformation.md</v>
       </c>
       <c r="H30" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.07.TransformersInSeries.md</v>
+        <v>DesktopBasic2Transformation/2.06.ContentTransformation.md</v>
       </c>
       <c r="I30" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.17.TransformersInSeries.md</v>
+        <v>CADGIS2LabDemonstration/2.16.ContentTransformation.md</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -2085,31 +2078,31 @@
         <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G31" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.18.FeatureCounts.md</v>
+        <v>2.17.TransformersInSeries.md</v>
       </c>
       <c r="H31" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.08.FeatureCounts.md</v>
+        <v>DesktopBasic2Transformation/2.07.TransformersInSeries.md</v>
       </c>
       <c r="I31" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.18.FeatureCounts.md</v>
+        <v>CADGIS2LabDemonstration/2.17.TransformersInSeries.md</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -2117,31 +2110,31 @@
         <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G32" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.19.TransformersInParallel.md</v>
+        <v>2.18.FeatureCounts.md</v>
       </c>
       <c r="H32" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.09.TransformersInParallel.md</v>
+        <v>DesktopBasic2Transformation/2.08.FeatureCounts.md</v>
       </c>
       <c r="I32" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.19.TransformersInParallel.md</v>
+        <v>CADGIS2LabDemonstration/2.18.FeatureCounts.md</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -2149,31 +2142,31 @@
         <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G33" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.20.GroupByProcessing.md</v>
+        <v>2.19.TransformersInParallel.md</v>
       </c>
       <c r="H33" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.10.GroupByProcessing.md</v>
+        <v>DesktopBasic2Transformation/2.09.TransformersInParallel.md</v>
       </c>
       <c r="I33" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.20.GroupByProcessing.md</v>
+        <v>CADGIS2LabDemonstration/2.19.TransformersInParallel.md</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -2181,31 +2174,31 @@
         <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G34" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.21.DataInspectionFromWorkbench.md</v>
+        <v>2.20.GroupByProcessing.md</v>
       </c>
       <c r="H34" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.11.DataInspectionFromWorkbench.md</v>
+        <v>DesktopBasic2Transformation/2.10.GroupByProcessing.md</v>
       </c>
       <c r="I34" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.21.DataInspectionFromWorkbench.md</v>
+        <v>CADGIS2LabDemonstration/2.20.GroupByProcessing.md</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -2213,81 +2206,84 @@
         <v>54</v>
       </c>
       <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.21.DataInspectionFromWorkbench.md</v>
+      </c>
+      <c r="H35" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.11.DataInspectionFromWorkbench.md</v>
+      </c>
+      <c r="I35" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemonstration/2.21.DataInspectionFromWorkbench.md</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="1" t="s">
+      <c r="C36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G35" s="2" t="str">
+      <c r="F36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2.22.CoordinateSystemTransformation.md</v>
       </c>
-      <c r="H35" s="2" t="str">
+      <c r="H36" s="2" t="str">
         <f t="shared" si="1"/>
         <v>DesktopBasic2Transformation/2.12.CoordinateSystemTransformation.md</v>
       </c>
-      <c r="I35" s="2" t="str">
+      <c r="I36" s="2" t="str">
         <f t="shared" si="2"/>
         <v>CADGIS2LabDemonstration/2.22.CoordinateSystemTransformation.md</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" s="2" t="str">
-        <f>IF(ISBLANK(A36),C36&amp;"."&amp;E36&amp;"."&amp;B36&amp;".md",C36&amp;"."&amp;E36&amp;"."&amp;RIGHT(B36,LEN(B36)-2))</f>
-        <v>3.00.LabExercises.md</v>
-      </c>
-      <c r="H36" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I36" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.00.LabExercises.md</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G37" s="2" t="str">
-        <f t="shared" ref="G37:G56" si="3">IF(ISBLANK(A37),C37&amp;"."&amp;E37&amp;"."&amp;B37&amp;".md",C37&amp;"."&amp;E37&amp;"."&amp;RIGHT(B37,LEN(B37)-2))</f>
-        <v>3.01.GettingStartedWithFMEDesktop.md</v>
+        <f t="shared" si="0"/>
+        <v>3.00.LabExercises.md</v>
       </c>
       <c r="H37" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2295,39 +2291,36 @@
       </c>
       <c r="I37" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.01.GettingStartedWithFMEDesktop.md</v>
+        <v>CADGIS3LabExercises/3.00.LabExercises.md</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>24</v>
+      <c r="B38" t="s">
+        <v>95</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G38" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.02.Exercise1.md</v>
+        <f t="shared" si="0"/>
+        <v>3.01.GettingStartedWithFMEDesktop.md</v>
       </c>
       <c r="H38" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise1.md</v>
+        <v/>
       </c>
       <c r="I38" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.02.Exercise1.md</v>
+        <v>CADGIS3LabExercises/3.01.GettingStartedWithFMEDesktop.md</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -2335,31 +2328,31 @@
         <v>19</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G39" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.03.Exercise2.md</v>
+        <f t="shared" ref="G38:G57" si="3">IF(ISBLANK(A39),C39&amp;"."&amp;E39&amp;"."&amp;B39&amp;".md",C39&amp;"."&amp;E39&amp;"."&amp;RIGHT(B39,LEN(B39)-2))</f>
+        <v>3.02.Exercise1.md</v>
       </c>
       <c r="H39" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise2.md</v>
+        <v>DesktopBasic1Basics/1.Exercise1.md</v>
       </c>
       <c r="I39" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.03.Exercise2.md</v>
+        <v>CADGIS3LabExercises/3.02.Exercise1.md</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -2367,31 +2360,31 @@
         <v>19</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G40" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.04.Exercise3.md</v>
+        <v>3.03.Exercise2.md</v>
       </c>
       <c r="H40" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise3.md</v>
+        <v>DesktopBasic1Basics/1.Exercise2.md</v>
       </c>
       <c r="I40" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.04.Exercise3.md</v>
+        <v>CADGIS3LabExercises/3.03.Exercise2.md</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -2399,89 +2392,89 @@
         <v>19</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G41" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.05.Exercise4.md</v>
+        <v>3.04.Exercise3.md</v>
       </c>
       <c r="H41" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise4.md</v>
+        <v>DesktopBasic1Basics/1.Exercise3.md</v>
       </c>
       <c r="I41" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.05.Exercise4.md</v>
+        <v>CADGIS3LabExercises/3.04.Exercise3.md</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G42" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.06.DataTransformation.md</v>
+        <v>3.05.Exercise4.md</v>
+      </c>
+      <c r="H42" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.Exercise4.md</v>
       </c>
       <c r="I42" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.06.DataTransformation.md</v>
+        <v>CADGIS3LabExercises/3.05.Exercise4.md</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" t="s">
-        <v>65</v>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G43" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.07.Exercise1.md</v>
-      </c>
-      <c r="H43" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise1.md</v>
+        <v>3.06.DataTransformation.md</v>
       </c>
       <c r="I43" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.07.Exercise1.md</v>
+        <v>CADGIS3LabExercises/3.06.DataTransformation.md</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -2489,31 +2482,31 @@
         <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G44" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.08.Exercise2.md</v>
+        <v>3.07.Exercise1.md</v>
       </c>
       <c r="H44" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise2.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise1.md</v>
       </c>
       <c r="I44" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.08.Exercise2.md</v>
+        <v>CADGIS3LabExercises/3.07.Exercise1.md</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -2521,31 +2514,31 @@
         <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G45" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.09.Exercise3.md</v>
+        <v>3.08.Exercise2.md</v>
       </c>
       <c r="H45" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise3.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise2.md</v>
       </c>
       <c r="I45" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.09.Exercise3.md</v>
+        <v>CADGIS3LabExercises/3.08.Exercise2.md</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -2553,31 +2546,31 @@
         <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G46" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.10.Exercise4.md</v>
+        <v>3.09.Exercise3.md</v>
       </c>
       <c r="H46" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise4.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise3.md</v>
       </c>
       <c r="I46" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.10.Exercise4.md</v>
+        <v>CADGIS3LabExercises/3.09.Exercise3.md</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -2585,31 +2578,31 @@
         <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G47" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.11.Exercise5.md</v>
+        <v>3.10.Exercise4.md</v>
       </c>
       <c r="H47" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise5.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise4.md</v>
       </c>
       <c r="I47" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.11.Exercise5.md</v>
+        <v>CADGIS3LabExercises/3.10.Exercise4.md</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -2617,81 +2610,84 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G48" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.12.Exercise6.md</v>
+        <v>3.11.Exercise5.md</v>
       </c>
       <c r="H48" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise6.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise5.md</v>
       </c>
       <c r="I48" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.12.Exercise6.md</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+        <v>CADGIS3LabExercises/3.11.Exercise5.md</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G49" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.13.GettingStartedwithAutoCAD.md</v>
+        <v>3.12.Exercise6.md</v>
       </c>
       <c r="H49" s="2" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>DesktopBasic2Transformation/2.Exercise6.md</v>
       </c>
       <c r="I49" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.13.GettingStartedwithAutoCAD.md</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+        <v>CADGIS3LabExercises/3.12.Exercise6.md</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G50" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.14.GroupingEntitiesInDWG.md</v>
+        <v>3.13.GettingStartedwithAutoCAD.md</v>
       </c>
       <c r="H50" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2699,28 +2695,28 @@
       </c>
       <c r="I50" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.14.GroupingEntitiesInDWG.md</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+        <v>CADGIS3LabExercises/3.13.GettingStartedwithAutoCAD.md</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>85</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G51" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.15.HandlingBlocksInDWG.md</v>
+        <v>3.14.GroupingEntitiesInDWG.md</v>
       </c>
       <c r="H51" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2728,28 +2724,28 @@
       </c>
       <c r="I51" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.15.HandlingBlocksInDWG.md</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+        <v>CADGIS3LabExercises/3.14.GroupingEntitiesInDWG.md</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G52" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.16.DWGToDGN.md</v>
+        <v>3.15.HandlingBlocksInDWG.md</v>
       </c>
       <c r="H52" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2757,28 +2753,28 @@
       </c>
       <c r="I52" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.16.DWGToDGN.md</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+        <v>CADGIS3LabExercises/3.15.HandlingBlocksInDWG.md</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G53" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.17.SHPToDWG.md</v>
+        <v>3.16.DWGToDGN.md</v>
       </c>
       <c r="H53" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2786,28 +2782,28 @@
       </c>
       <c r="I53" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.17.SHPToDWG.md</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+        <v>CADGIS3LabExercises/3.16.DWGToDGN.md</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G54" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.18.ExplodingBlockEntitiesInDWG.md</v>
+        <v>3.17.SHPToDWG.md</v>
       </c>
       <c r="H54" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2815,28 +2811,28 @@
       </c>
       <c r="I54" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.18.ExplodingBlockEntitiesInDWG.md</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+        <v>CADGIS3LabExercises/3.17.SHPToDWG.md</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G55" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.19.PreservingBlockEntitiesInDWG.md</v>
+        <v>3.18.ExplodingBlockEntitiesInDWG.md</v>
       </c>
       <c r="H55" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2844,34 +2840,63 @@
       </c>
       <c r="I55" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.19.PreservingBlockEntitiesInDWG.md</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+        <v>CADGIS3LabExercises/3.18.ExplodingBlockEntitiesInDWG.md</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G56" s="2" t="str">
         <f t="shared" si="3"/>
+        <v>3.19.PreservingBlockEntitiesInDWG.md</v>
+      </c>
+      <c r="H56" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I56" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS3LabExercises/3.19.PreservingBlockEntitiesInDWG.md</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G57" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>3.20.LabQuestions.md</v>
       </c>
-      <c r="H56" s="2" t="str">
+      <c r="H57" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I56" s="2" t="str">
+      <c r="I57" s="2" t="str">
         <f t="shared" si="2"/>
         <v>CADGIS3LabExercises/3.20.LabQuestions.md</v>
       </c>
@@ -2884,7 +2909,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2893,7 +2918,7 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1">
         <v>0</v>
@@ -2902,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>20</v>
@@ -2923,13 +2948,13 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>26</v>
@@ -2938,28 +2963,28 @@
         <v>20</v>
       </c>
       <c r="G2" s="2" t="str">
-        <f t="shared" ref="G2:G34" si="0">IF(ISBLANK(A2),C2&amp;"."&amp;E2&amp;"."&amp;B2&amp;".md",C2&amp;"."&amp;E2&amp;"."&amp;RIGHT(B2,LEN(B2)-5))</f>
+        <f t="shared" ref="G2:G37" si="0">IF(ISBLANK(A2),C2&amp;"."&amp;E2&amp;"."&amp;B2&amp;".md",C2&amp;"."&amp;E2&amp;"."&amp;RIGHT(B2,LEN(B2)-5))</f>
         <v>0.01.CourseOverview.md</v>
       </c>
       <c r="H2" s="2" t="str">
-        <f t="shared" ref="H2:H55" si="1">IF(ISBLANK(A2),"",A2&amp;"/"&amp;B2)</f>
+        <f t="shared" ref="H2:H56" si="1">IF(ISBLANK(A2),"",A2&amp;"/"&amp;B2)</f>
         <v/>
       </c>
       <c r="I2" s="2" t="str">
-        <f t="shared" ref="I2:I55" si="2">F2&amp;"/"&amp;G2</f>
+        <f t="shared" ref="I2:I56" si="2">F2&amp;"/"&amp;G2</f>
         <v>CADGIS0About/0.01.CourseOverview.md</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
@@ -2983,16 +3008,16 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>21</v>
@@ -3001,25 +3026,22 @@
         <f t="shared" si="0"/>
         <v>1.00.Lecture.md</v>
       </c>
-      <c r="H4" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="H4" s="2"/>
       <c r="I4" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>F4&amp;"/"&amp;G4</f>
         <v>CADGIS1Lecture/1.00.Lecture.md</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>26</v>
@@ -3029,26 +3051,21 @@
       </c>
       <c r="G5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.01.WhyFME.md</v>
+        <v>1.01.DataIntegration.md</v>
       </c>
       <c r="H5" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(A5),"",A5&amp;"/"&amp;B4)</f>
         <v/>
       </c>
-      <c r="I5" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.01.WhyFME.md</v>
-      </c>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>74</v>
@@ -3061,26 +3078,26 @@
       </c>
       <c r="G6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.02.WhatIsFME.md</v>
+        <v>1.02.WhyFME.md</v>
       </c>
       <c r="H6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.01.WhatIsFME.md</v>
+        <v/>
       </c>
       <c r="I6" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.02.WhatIsFME.md</v>
+        <v>CADGIS1Lecture/1.02.WhyFME.md</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>74</v>
@@ -3093,15 +3110,15 @@
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.03.DataTransformation.md</v>
+        <v>1.03.WhatIsFME.md</v>
       </c>
       <c r="H7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.00.DataTransformation.md</v>
+        <v>DesktopBasic1Basics/1.01.WhatIsFME.md</v>
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.03.DataTransformation.md</v>
+        <v>CADGIS1Lecture/1.03.WhatIsFME.md</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -3109,13 +3126,13 @@
         <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>30</v>
@@ -3125,15 +3142,15 @@
       </c>
       <c r="G8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.04.WhatIsDataTransformation.md</v>
+        <v>1.04.DataTransformation.md</v>
       </c>
       <c r="H8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.01.WhatIsDataTransformation.md</v>
+        <v>DesktopBasic2Transformation/2.00.DataTransformation.md</v>
       </c>
       <c r="I8" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.04.WhatIsDataTransformation.md</v>
+        <v>CADGIS1Lecture/1.04.DataTransformation.md</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -3141,10 +3158,10 @@
         <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>74</v>
@@ -3157,15 +3174,15 @@
       </c>
       <c r="G9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.05.StructuralTransformation.md</v>
+        <v>1.05.WhatIsDataTransformation.md</v>
       </c>
       <c r="H9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.02.StructuralTransformation.md</v>
+        <v>DesktopBasic2Transformation/2.01.WhatIsDataTransformation.md</v>
       </c>
       <c r="I9" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.05.StructuralTransformation.md</v>
+        <v>CADGIS1Lecture/1.05.WhatIsDataTransformation.md</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -3173,10 +3190,10 @@
         <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>74</v>
@@ -3189,15 +3206,15 @@
       </c>
       <c r="G10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.06.SchemaEditing.md</v>
+        <v>1.06.StructuralTransformation.md</v>
       </c>
       <c r="H10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.03.SchemaEditing.md</v>
+        <v>DesktopBasic2Transformation/2.02.StructuralTransformation.md</v>
       </c>
       <c r="I10" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.06.SchemaEditing.md</v>
+        <v>CADGIS1Lecture/1.06.StructuralTransformation.md</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -3205,10 +3222,10 @@
         <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>74</v>
@@ -3221,76 +3238,76 @@
       </c>
       <c r="G11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.07.SchemaMapping.md</v>
+        <v>1.07.SchemaEditing.md</v>
       </c>
       <c r="H11" s="2" t="str">
         <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.03.SchemaEditing.md</v>
+      </c>
+      <c r="I11" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS1Lecture/1.07.SchemaEditing.md</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1.08.SchemaMapping.md</v>
+      </c>
+      <c r="H12" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>DesktopBasic2Transformation/2.04.SchemaMapping.md</v>
       </c>
-      <c r="I11" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.07.SchemaMapping.md</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="I12" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS1Lecture/1.08.SchemaMapping.md</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G12" s="2" t="str">
+      <c r="F13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2.00.LabDemonstration.md</v>
       </c>
-      <c r="H12" s="2" t="str">
+      <c r="H13" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I12" s="2" t="str">
+      <c r="I13" s="2" t="str">
         <f t="shared" si="2"/>
         <v>CADGIS2LabDemonstration/2.00.LabDemonstration.md</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.01.FMEDesktopComponents.md</v>
-      </c>
-      <c r="H13" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.02.FMEDesktopComponents.md</v>
-      </c>
-      <c r="I13" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.01.FMEDesktopComponents.md</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -3298,31 +3315,31 @@
         <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.02.IntroductionToWorkbench.md</v>
+        <v>2.01.FMEDesktopComponents.md</v>
       </c>
       <c r="H14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.03.IntroductionToWorkbench.md</v>
+        <v>DesktopBasic1Basics/1.02.FMEDesktopComponents.md</v>
       </c>
       <c r="I14" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.02.IntroductionToWorkbench.md</v>
+        <v>CADGIS2LabDemonstration/2.01.FMEDesktopComponents.md</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -3330,31 +3347,31 @@
         <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.03.WindowControl.md</v>
+        <v>2.02.IntroductionToWorkbench.md</v>
       </c>
       <c r="H15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.04.WindowControl.md</v>
+        <v>DesktopBasic1Basics/1.03.IntroductionToWorkbench.md</v>
       </c>
       <c r="I15" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.03.WindowControl.md</v>
+        <v>CADGIS2LabDemonstration/2.02.IntroductionToWorkbench.md</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -3362,31 +3379,31 @@
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.04.CreatingATranslation.md</v>
+        <v>2.03.WindowControl.md</v>
       </c>
       <c r="H16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.05.CreatingATranslation.md</v>
+        <v>DesktopBasic1Basics/1.04.WindowControl.md</v>
       </c>
       <c r="I16" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.04.CreatingATranslation.md</v>
+        <v>CADGIS2LabDemonstration/2.03.WindowControl.md</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -3394,31 +3411,31 @@
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.05.TheNewWorkspace.md</v>
+        <v>2.04.CreatingATranslation.md</v>
       </c>
       <c r="H17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.06.TheNewWorkspace.md</v>
+        <v>DesktopBasic1Basics/1.05.CreatingATranslation.md</v>
       </c>
       <c r="I17" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.05.TheNewWorkspace.md</v>
+        <v>CADGIS2LabDemonstration/2.04.CreatingATranslation.md</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -3426,31 +3443,31 @@
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.06.RunningTheWorkspace.md</v>
+        <v>2.05.TheNewWorkspace.md</v>
       </c>
       <c r="H18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.07.RunningTheWorkspace.md</v>
+        <v>DesktopBasic1Basics/1.06.TheNewWorkspace.md</v>
       </c>
       <c r="I18" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.06.RunningTheWorkspace.md</v>
+        <v>CADGIS2LabDemonstration/2.05.TheNewWorkspace.md</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -3458,31 +3475,31 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.07.WhatIsDataInspection.md</v>
+        <v>2.06.RunningTheWorkspace.md</v>
       </c>
       <c r="H19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.08.WhatIsDataInspection.md</v>
+        <v>DesktopBasic1Basics/1.07.RunningTheWorkspace.md</v>
       </c>
       <c r="I19" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.07.WhatIsDataInspection.md</v>
+        <v>CADGIS2LabDemonstration/2.06.RunningTheWorkspace.md</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -3490,31 +3507,31 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.08.IntroductionToDataInspector.md</v>
+        <v>2.07.WhatIsDataInspection.md</v>
       </c>
       <c r="H20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.09.IntroductionToDataInspector.md</v>
+        <v>DesktopBasic1Basics/1.08.WhatIsDataInspection.md</v>
       </c>
       <c r="I20" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.08.IntroductionToDataInspector.md</v>
+        <v>CADGIS2LabDemonstration/2.07.WhatIsDataInspection.md</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -3522,31 +3539,31 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.09.ViewingData.md</v>
+        <v>2.08.IntroductionToDataInspector.md</v>
       </c>
       <c r="H21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.10.ViewingData.md</v>
+        <v>DesktopBasic1Basics/1.09.IntroductionToDataInspector.md</v>
       </c>
       <c r="I21" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.09.ViewingData.md</v>
+        <v>CADGIS2LabDemonstration/2.08.IntroductionToDataInspector.md</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -3554,31 +3571,31 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.10.QueryingData.md</v>
+        <v>2.09.ViewingData.md</v>
       </c>
       <c r="H22" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.11.QueryingData.md</v>
+        <v>DesktopBasic1Basics/1.10.ViewingData.md</v>
       </c>
       <c r="I22" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.10.QueryingData.md</v>
+        <v>CADGIS2LabDemonstration/2.09.ViewingData.md</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -3586,31 +3603,31 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.11.DataInspectorDisplayControl.md</v>
+        <v>2.10.QueryingData.md</v>
       </c>
       <c r="H23" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.12.DataInspectorDisplayControl.md</v>
+        <v>DesktopBasic1Basics/1.11.QueryingData.md</v>
       </c>
       <c r="I23" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.11.DataInspectorDisplayControl.md</v>
+        <v>CADGIS2LabDemonstration/2.10.QueryingData.md</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -3618,31 +3635,31 @@
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.12.BackgroundMaps.md</v>
+        <v>2.11.DataInspectorDisplayControl.md</v>
       </c>
       <c r="H24" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.13.BackgroundMaps.md</v>
+        <v>DesktopBasic1Basics/1.12.DataInspectorDisplayControl.md</v>
       </c>
       <c r="I24" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.12.BackgroundMaps.md</v>
+        <v>CADGIS2LabDemonstration/2.11.DataInspectorDisplayControl.md</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -3650,31 +3667,31 @@
         <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.13.ReaderParameters.md</v>
+        <v>2.12.BackgroundMaps.md</v>
       </c>
       <c r="H25" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.14.ReaderParameters.md</v>
+        <v>DesktopBasic1Basics/1.13.BackgroundMaps.md</v>
       </c>
       <c r="I25" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.13.ReaderParameters.md</v>
+        <v>CADGIS2LabDemonstration/2.12.BackgroundMaps.md</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -3682,63 +3699,63 @@
         <v>19</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.13.ReaderParameters.md</v>
+      </c>
+      <c r="H26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.14.ReaderParameters.md</v>
+      </c>
+      <c r="I26" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemonstration/2.13.ReaderParameters.md</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G26" s="2" t="str">
+      <c r="F27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2.14.WriterParameters.md</v>
       </c>
-      <c r="H26" s="2" t="str">
+      <c r="H27" s="2" t="str">
         <f t="shared" si="1"/>
         <v>DesktopBasic1Basics/1.15.WriterParameters.md</v>
       </c>
-      <c r="I26" s="2" t="str">
+      <c r="I27" s="2" t="str">
         <f t="shared" si="2"/>
         <v>CADGIS2LabDemonstration/2.14.WriterParameters.md</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.15.TransformationWithTransformers.md</v>
-      </c>
-      <c r="H27" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.05.TransformationWithTransformers.md</v>
-      </c>
-      <c r="I27" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.15.TransformationWithTransformers.md</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -3746,31 +3763,31 @@
         <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G28" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.16.ContentTransformation.md</v>
+        <v>2.15.TransformationWithTransformers.md</v>
       </c>
       <c r="H28" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.06.ContentTransformation.md</v>
+        <v>DesktopBasic2Transformation/2.05.TransformationWithTransformers.md</v>
       </c>
       <c r="I28" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.16.ContentTransformation.md</v>
+        <v>CADGIS2LabDemonstration/2.15.TransformationWithTransformers.md</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -3778,31 +3795,31 @@
         <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G29" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.17.TransformersInSeries.md</v>
+        <v>2.16.ContentTransformation.md</v>
       </c>
       <c r="H29" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.07.TransformersInSeries.md</v>
+        <v>DesktopBasic2Transformation/2.06.ContentTransformation.md</v>
       </c>
       <c r="I29" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.17.TransformersInSeries.md</v>
+        <v>CADGIS2LabDemonstration/2.16.ContentTransformation.md</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -3810,31 +3827,31 @@
         <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G30" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.18.FeatureCounts.md</v>
+        <v>2.17.TransformersInSeries.md</v>
       </c>
       <c r="H30" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.08.FeatureCounts.md</v>
+        <v>DesktopBasic2Transformation/2.07.TransformersInSeries.md</v>
       </c>
       <c r="I30" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.18.FeatureCounts.md</v>
+        <v>CADGIS2LabDemonstration/2.17.TransformersInSeries.md</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -3842,31 +3859,31 @@
         <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G31" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.19.TransformersInParallel.md</v>
+        <v>2.18.FeatureCounts.md</v>
       </c>
       <c r="H31" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.09.TransformersInParallel.md</v>
+        <v>DesktopBasic2Transformation/2.08.FeatureCounts.md</v>
       </c>
       <c r="I31" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.19.TransformersInParallel.md</v>
+        <v>CADGIS2LabDemonstration/2.18.FeatureCounts.md</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -3874,31 +3891,31 @@
         <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G32" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.20.GroupByProcessing.md</v>
+        <v>2.19.TransformersInParallel.md</v>
       </c>
       <c r="H32" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.10.GroupByProcessing.md</v>
+        <v>DesktopBasic2Transformation/2.09.TransformersInParallel.md</v>
       </c>
       <c r="I32" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.20.GroupByProcessing.md</v>
+        <v>CADGIS2LabDemonstration/2.19.TransformersInParallel.md</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -3906,31 +3923,31 @@
         <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G33" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.21.DataInspectionFromWorkbench.md</v>
+        <v>2.20.GroupByProcessing.md</v>
       </c>
       <c r="H33" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.11.DataInspectionFromWorkbench.md</v>
+        <v>DesktopBasic2Transformation/2.10.GroupByProcessing.md</v>
       </c>
       <c r="I33" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.21.DataInspectionFromWorkbench.md</v>
+        <v>CADGIS2LabDemonstration/2.20.GroupByProcessing.md</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -3938,81 +3955,84 @@
         <v>54</v>
       </c>
       <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.21.DataInspectionFromWorkbench.md</v>
+      </c>
+      <c r="H34" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.11.DataInspectionFromWorkbench.md</v>
+      </c>
+      <c r="I34" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemonstration/2.21.DataInspectionFromWorkbench.md</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="C35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G34" s="2" t="str">
+      <c r="F35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G35" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2.22.CoordinateSystemTransformation.md</v>
       </c>
-      <c r="H34" s="2" t="str">
+      <c r="H35" s="2" t="str">
         <f t="shared" si="1"/>
         <v>DesktopBasic2Transformation/2.12.CoordinateSystemTransformation.md</v>
       </c>
-      <c r="I34" s="2" t="str">
+      <c r="I35" s="2" t="str">
         <f t="shared" si="2"/>
         <v>CADGIS2LabDemonstration/2.22.CoordinateSystemTransformation.md</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B35" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" s="2" t="str">
-        <f>IF(ISBLANK(A35),C35&amp;"."&amp;E35&amp;"."&amp;B35&amp;".md",C35&amp;"."&amp;E35&amp;"."&amp;RIGHT(B35,LEN(B35)-2))</f>
-        <v>3.00.LabExercises.md</v>
-      </c>
-      <c r="H35" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I35" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.00.LabExercises.md</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G36" s="2" t="str">
-        <f t="shared" ref="G36:G55" si="3">IF(ISBLANK(A36),C36&amp;"."&amp;E36&amp;"."&amp;B36&amp;".md",C36&amp;"."&amp;E36&amp;"."&amp;RIGHT(B36,LEN(B36)-2))</f>
-        <v>3.01.GettingStartedWithFMEDesktop.md</v>
+        <f t="shared" si="0"/>
+        <v>3.00.LabExercises.md</v>
       </c>
       <c r="H36" s="2" t="str">
         <f t="shared" si="1"/>
@@ -4020,39 +4040,36 @@
       </c>
       <c r="I36" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.01.GettingStartedWithFMEDesktop.md</v>
+        <v>CADGIS3LabExercises/3.00.LabExercises.md</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>24</v>
+      <c r="B37" t="s">
+        <v>95</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G37" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.02.Exercise1.md</v>
+        <f t="shared" si="0"/>
+        <v>3.01.GettingStartedWithFMEDesktop.md</v>
       </c>
       <c r="H37" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise1.md</v>
+        <v/>
       </c>
       <c r="I37" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.02.Exercise1.md</v>
+        <v>CADGIS3LabExercises/3.01.GettingStartedWithFMEDesktop.md</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -4060,31 +4077,31 @@
         <v>19</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G38" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.03.Exercise2.md</v>
+        <f t="shared" ref="G38:G56" si="3">IF(ISBLANK(A38),C38&amp;"."&amp;E38&amp;"."&amp;B38&amp;".md",C38&amp;"."&amp;E38&amp;"."&amp;RIGHT(B38,LEN(B38)-2))</f>
+        <v>3.02.Exercise1.md</v>
       </c>
       <c r="H38" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise2.md</v>
+        <v>DesktopBasic1Basics/1.Exercise1.md</v>
       </c>
       <c r="I38" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.03.Exercise2.md</v>
+        <v>CADGIS3LabExercises/3.02.Exercise1.md</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -4092,31 +4109,31 @@
         <v>19</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G39" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.04.Exercise3.md</v>
+        <v>3.03.Exercise2.md</v>
       </c>
       <c r="H39" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise3.md</v>
+        <v>DesktopBasic1Basics/1.Exercise2.md</v>
       </c>
       <c r="I39" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.04.Exercise3.md</v>
+        <v>CADGIS3LabExercises/3.03.Exercise2.md</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -4124,90 +4141,90 @@
         <v>19</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G40" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.05.Exercise4.md</v>
+        <v>3.04.Exercise3.md</v>
       </c>
       <c r="H40" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise4.md</v>
+        <v>DesktopBasic1Basics/1.Exercise3.md</v>
       </c>
       <c r="I40" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.05.Exercise4.md</v>
+        <v>CADGIS3LabExercises/3.04.Exercise3.md</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G41" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.06.DataTransformation.md</v>
-      </c>
-      <c r="H41" s="2"/>
+        <v>3.05.Exercise4.md</v>
+      </c>
+      <c r="H41" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.Exercise4.md</v>
+      </c>
       <c r="I41" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.06.DataTransformation.md</v>
+        <v>CADGIS3LabExercises/3.05.Exercise4.md</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" t="s">
-        <v>65</v>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G42" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.07.Exercise1.md</v>
-      </c>
-      <c r="H42" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise1.md</v>
-      </c>
+        <v>3.06.DataTransformation.md</v>
+      </c>
+      <c r="H42" s="2"/>
       <c r="I42" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.07.Exercise1.md</v>
+        <v>CADGIS3LabExercises/3.06.DataTransformation.md</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -4215,31 +4232,31 @@
         <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G43" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.08.Exercise2.md</v>
+        <v>3.07.Exercise1.md</v>
       </c>
       <c r="H43" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise2.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise1.md</v>
       </c>
       <c r="I43" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.08.Exercise2.md</v>
+        <v>CADGIS3LabExercises/3.07.Exercise1.md</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -4247,31 +4264,31 @@
         <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G44" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.09.Exercise3.md</v>
+        <v>3.08.Exercise2.md</v>
       </c>
       <c r="H44" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise3.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise2.md</v>
       </c>
       <c r="I44" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.09.Exercise3.md</v>
+        <v>CADGIS3LabExercises/3.08.Exercise2.md</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -4279,31 +4296,31 @@
         <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G45" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.10.Exercise4.md</v>
+        <v>3.09.Exercise3.md</v>
       </c>
       <c r="H45" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise4.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise3.md</v>
       </c>
       <c r="I45" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.10.Exercise4.md</v>
+        <v>CADGIS3LabExercises/3.09.Exercise3.md</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -4311,31 +4328,31 @@
         <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G46" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.11.Exercise5.md</v>
+        <v>3.10.Exercise4.md</v>
       </c>
       <c r="H46" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise5.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise4.md</v>
       </c>
       <c r="I46" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.11.Exercise5.md</v>
+        <v>CADGIS3LabExercises/3.10.Exercise4.md</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -4343,81 +4360,84 @@
         <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G47" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.12.Exercise6.md</v>
+        <v>3.11.Exercise5.md</v>
       </c>
       <c r="H47" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise6.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise5.md</v>
       </c>
       <c r="I47" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.12.Exercise6.md</v>
+        <v>CADGIS3LabExercises/3.11.Exercise5.md</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G48" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.13.GettingStartedwithAutoCAD.md</v>
+        <v>3.12.Exercise6.md</v>
       </c>
       <c r="H48" s="2" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>DesktopBasic2Transformation/2.Exercise6.md</v>
       </c>
       <c r="I48" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.13.GettingStartedwithAutoCAD.md</v>
+        <v>CADGIS3LabExercises/3.12.Exercise6.md</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G49" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.14.GroupingEntitiesInDWG.md</v>
+        <v>3.13.GettingStartedwithAutoCAD.md</v>
       </c>
       <c r="H49" s="2" t="str">
         <f t="shared" si="1"/>
@@ -4425,7 +4445,7 @@
       </c>
       <c r="I49" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.14.GroupingEntitiesInDWG.md</v>
+        <v>CADGIS3LabExercises/3.13.GettingStartedwithAutoCAD.md</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.35">
@@ -4433,20 +4453,20 @@
         <v>85</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G50" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.15.HandlingBlocksInDWG.md</v>
+        <v>3.14.GroupingEntitiesInDWG.md</v>
       </c>
       <c r="H50" s="2" t="str">
         <f t="shared" si="1"/>
@@ -4454,28 +4474,28 @@
       </c>
       <c r="I50" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.15.HandlingBlocksInDWG.md</v>
+        <v>CADGIS3LabExercises/3.14.GroupingEntitiesInDWG.md</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G51" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.16.DWGToDGN.md</v>
+        <v>3.15.HandlingBlocksInDWG.md</v>
       </c>
       <c r="H51" s="2" t="str">
         <f t="shared" si="1"/>
@@ -4483,28 +4503,28 @@
       </c>
       <c r="I51" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.16.DWGToDGN.md</v>
+        <v>CADGIS3LabExercises/3.15.HandlingBlocksInDWG.md</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G52" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.17.SHPToDWG.md</v>
+        <v>3.16.DWGToDGN.md</v>
       </c>
       <c r="H52" s="2" t="str">
         <f t="shared" si="1"/>
@@ -4512,28 +4532,28 @@
       </c>
       <c r="I52" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.17.SHPToDWG.md</v>
+        <v>CADGIS3LabExercises/3.16.DWGToDGN.md</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G53" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.18.ExplodingBlockEntitiesInDWG.md</v>
+        <v>3.17.SHPToDWG.md</v>
       </c>
       <c r="H53" s="2" t="str">
         <f t="shared" si="1"/>
@@ -4541,28 +4561,28 @@
       </c>
       <c r="I53" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.18.ExplodingBlockEntitiesInDWG.md</v>
+        <v>CADGIS3LabExercises/3.17.SHPToDWG.md</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G54" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.19.PreservingBlockEntitiesInDWG.md</v>
+        <v>3.18.ExplodingBlockEntitiesInDWG.md</v>
       </c>
       <c r="H54" s="2" t="str">
         <f t="shared" si="1"/>
@@ -4570,34 +4590,63 @@
       </c>
       <c r="I54" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.19.PreservingBlockEntitiesInDWG.md</v>
+        <v>CADGIS3LabExercises/3.18.ExplodingBlockEntitiesInDWG.md</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G55" s="2" t="str">
         <f t="shared" si="3"/>
+        <v>3.19.PreservingBlockEntitiesInDWG.md</v>
+      </c>
+      <c r="H55" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I55" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS3LabExercises/3.19.PreservingBlockEntitiesInDWG.md</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>3.20.LabQuestions.md</v>
       </c>
-      <c r="H55" s="2" t="str">
+      <c r="H56" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I55" s="2" t="str">
+      <c r="I56" s="2" t="str">
         <f t="shared" si="2"/>
         <v>CADGIS3LabExercises/3.20.LabQuestions.md</v>
       </c>

--- a/chapters.xlsx
+++ b/chapters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10650"/>
   </bookViews>
   <sheets>
     <sheet name="chapters" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="97">
   <si>
     <t>1.03.IntroductionToWorkbench.md</t>
   </si>
@@ -67,18 +67,6 @@
     <t>destination</t>
   </si>
   <si>
-    <t>source folder</t>
-  </si>
-  <si>
-    <t>source file</t>
-  </si>
-  <si>
-    <t>destination folder</t>
-  </si>
-  <si>
-    <t>destination file</t>
-  </si>
-  <si>
     <t>DesktopBasic1Basics</t>
   </si>
   <si>
@@ -235,9 +223,6 @@
     <t>2.Exercise6.md</t>
   </si>
   <si>
-    <t>chap</t>
-  </si>
-  <si>
     <t>file</t>
   </si>
   <si>
@@ -262,9 +247,6 @@
     <t>CourseResources</t>
   </si>
   <si>
-    <t>WhyFME</t>
-  </si>
-  <si>
     <t>Lecture</t>
   </si>
   <si>
@@ -314,6 +296,21 @@
   </si>
   <si>
     <t>indent</t>
+  </si>
+  <si>
+    <t>chapter</t>
+  </si>
+  <si>
+    <t>source_folder</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>destination_folder</t>
+  </si>
+  <si>
+    <t>destination_file</t>
   </si>
 </sst>
 </file>
@@ -1122,11 +1119,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J57"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1141,25 +1136,25 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>13</v>
@@ -1171,7 +1166,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1180,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2" t="str">
         <f>IF(ISBLANK(A2),C2&amp;"."&amp;E2&amp;"."&amp;B2&amp;".md",C2&amp;"."&amp;E2&amp;"."&amp;RIGHT(B2,LEN(B2)-5))</f>
@@ -1201,49 +1196,49 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G38" si="0">IF(ISBLANK(A3),C3&amp;"."&amp;E3&amp;"."&amp;B3&amp;".md",C3&amp;"."&amp;E3&amp;"."&amp;RIGHT(B3,LEN(B3)-5))</f>
+        <f t="shared" ref="G3:G37" si="0">IF(ISBLANK(A3),C3&amp;"."&amp;E3&amp;"."&amp;B3&amp;".md",C3&amp;"."&amp;E3&amp;"."&amp;RIGHT(B3,LEN(B3)-5))</f>
         <v>0.01.CourseOverview.md</v>
       </c>
       <c r="H3" s="2" t="str">
-        <f t="shared" ref="H3:H57" si="1">IF(ISBLANK(A3),"",A3&amp;"/"&amp;B3)</f>
+        <f t="shared" ref="H3:H56" si="1">IF(ISBLANK(A3),"",A3&amp;"/"&amp;B3)</f>
         <v/>
       </c>
       <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3:I57" si="2">F3&amp;"/"&amp;G3</f>
+        <f t="shared" ref="I3:I56" si="2">F3&amp;"/"&amp;G3</f>
         <v>CADGIS0About/0.01.CourseOverview.md</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G4" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1261,45 +1256,45 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1.00.Lecture.md</v>
       </c>
       <c r="I5" s="2" t="str">
-        <f>F5&amp;"/"&amp;G5</f>
+        <f t="shared" si="2"/>
         <v>CADGIS1Lecture/1.00.Lecture.md</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1309,981 +1304,984 @@
         <f>IF(ISBLANK(A6),"",A6&amp;"/"&amp;B5)</f>
         <v/>
       </c>
+      <c r="I6" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS1Lecture/1.01.DataIntegration.md</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.02.WhyFME.md</v>
+        <v>1.02.WhatIsFME.md</v>
       </c>
       <c r="H7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>DesktopBasic1Basics/1.01.WhatIsFME.md</v>
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.02.WhyFME.md</v>
+        <v>CADGIS1Lecture/1.02.WhatIsFME.md</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.03.WhatIsFME.md</v>
+        <v>1.03.DataTransformation.md</v>
       </c>
       <c r="H8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.01.WhatIsFME.md</v>
+        <v>DesktopBasic2Transformation/2.00.DataTransformation.md</v>
       </c>
       <c r="I8" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.03.WhatIsFME.md</v>
+        <v>CADGIS1Lecture/1.03.DataTransformation.md</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.04.DataTransformation.md</v>
+        <v>1.04.WhatIsDataTransformation.md</v>
       </c>
       <c r="H9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.00.DataTransformation.md</v>
+        <v>DesktopBasic2Transformation/2.01.WhatIsDataTransformation.md</v>
       </c>
       <c r="I9" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.04.DataTransformation.md</v>
+        <v>CADGIS1Lecture/1.04.WhatIsDataTransformation.md</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.05.WhatIsDataTransformation.md</v>
+        <v>1.05.StructuralTransformation.md</v>
       </c>
       <c r="H10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.01.WhatIsDataTransformation.md</v>
+        <v>DesktopBasic2Transformation/2.02.StructuralTransformation.md</v>
       </c>
       <c r="I10" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.05.WhatIsDataTransformation.md</v>
+        <v>CADGIS1Lecture/1.05.StructuralTransformation.md</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.06.StructuralTransformation.md</v>
+        <v>1.06.SchemaEditing.md</v>
       </c>
       <c r="H11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.02.StructuralTransformation.md</v>
+        <v>DesktopBasic2Transformation/2.03.SchemaEditing.md</v>
       </c>
       <c r="I11" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.06.StructuralTransformation.md</v>
+        <v>CADGIS1Lecture/1.06.SchemaEditing.md</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.07.SchemaEditing.md</v>
+        <v>1.07.SchemaMapping.md</v>
       </c>
       <c r="H12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.03.SchemaEditing.md</v>
+        <v>DesktopBasic2Transformation/2.04.SchemaMapping.md</v>
       </c>
       <c r="I12" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.07.SchemaEditing.md</v>
+        <v>CADGIS1Lecture/1.07.SchemaMapping.md</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="G13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.08.SchemaMapping.md</v>
+        <v>2.00.LabDemonstration.md</v>
       </c>
       <c r="H13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.04.SchemaMapping.md</v>
+        <v/>
       </c>
       <c r="I13" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.08.SchemaMapping.md</v>
+        <v>CADGIS2LabDemonstration/2.00.LabDemonstration.md</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>90</v>
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.00.LabDemonstration.md</v>
+        <v>2.01.FMEDesktopComponents.md</v>
       </c>
       <c r="H14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>DesktopBasic1Basics/1.02.FMEDesktopComponents.md</v>
       </c>
       <c r="I14" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.00.LabDemonstration.md</v>
+        <v>CADGIS2LabDemonstration/2.01.FMEDesktopComponents.md</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.01.FMEDesktopComponents.md</v>
+        <v>2.02.IntroductionToWorkbench.md</v>
       </c>
       <c r="H15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.02.FMEDesktopComponents.md</v>
+        <v>DesktopBasic1Basics/1.03.IntroductionToWorkbench.md</v>
       </c>
       <c r="I15" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.01.FMEDesktopComponents.md</v>
+        <v>CADGIS2LabDemonstration/2.02.IntroductionToWorkbench.md</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.02.IntroductionToWorkbench.md</v>
+        <v>2.03.WindowControl.md</v>
       </c>
       <c r="H16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.03.IntroductionToWorkbench.md</v>
+        <v>DesktopBasic1Basics/1.04.WindowControl.md</v>
       </c>
       <c r="I16" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.02.IntroductionToWorkbench.md</v>
+        <v>CADGIS2LabDemonstration/2.03.WindowControl.md</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.03.WindowControl.md</v>
+        <v>2.04.CreatingATranslation.md</v>
       </c>
       <c r="H17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.04.WindowControl.md</v>
+        <v>DesktopBasic1Basics/1.05.CreatingATranslation.md</v>
       </c>
       <c r="I17" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.03.WindowControl.md</v>
+        <v>CADGIS2LabDemonstration/2.04.CreatingATranslation.md</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.04.CreatingATranslation.md</v>
+        <v>2.05.TheNewWorkspace.md</v>
       </c>
       <c r="H18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.05.CreatingATranslation.md</v>
+        <v>DesktopBasic1Basics/1.06.TheNewWorkspace.md</v>
       </c>
       <c r="I18" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.04.CreatingATranslation.md</v>
+        <v>CADGIS2LabDemonstration/2.05.TheNewWorkspace.md</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.05.TheNewWorkspace.md</v>
+        <v>2.06.RunningTheWorkspace.md</v>
       </c>
       <c r="H19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.06.TheNewWorkspace.md</v>
+        <v>DesktopBasic1Basics/1.07.RunningTheWorkspace.md</v>
       </c>
       <c r="I19" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.05.TheNewWorkspace.md</v>
+        <v>CADGIS2LabDemonstration/2.06.RunningTheWorkspace.md</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.06.RunningTheWorkspace.md</v>
+        <v>2.07.WhatIsDataInspection.md</v>
       </c>
       <c r="H20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.07.RunningTheWorkspace.md</v>
+        <v>DesktopBasic1Basics/1.08.WhatIsDataInspection.md</v>
       </c>
       <c r="I20" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.06.RunningTheWorkspace.md</v>
+        <v>CADGIS2LabDemonstration/2.07.WhatIsDataInspection.md</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.07.WhatIsDataInspection.md</v>
+        <v>2.08.IntroductionToDataInspector.md</v>
       </c>
       <c r="H21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.08.WhatIsDataInspection.md</v>
+        <v>DesktopBasic1Basics/1.09.IntroductionToDataInspector.md</v>
       </c>
       <c r="I21" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.07.WhatIsDataInspection.md</v>
+        <v>CADGIS2LabDemonstration/2.08.IntroductionToDataInspector.md</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.08.IntroductionToDataInspector.md</v>
+        <v>2.09.ViewingData.md</v>
       </c>
       <c r="H22" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.09.IntroductionToDataInspector.md</v>
+        <v>DesktopBasic1Basics/1.10.ViewingData.md</v>
       </c>
       <c r="I22" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.08.IntroductionToDataInspector.md</v>
+        <v>CADGIS2LabDemonstration/2.09.ViewingData.md</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.09.ViewingData.md</v>
+        <v>2.10.QueryingData.md</v>
       </c>
       <c r="H23" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.10.ViewingData.md</v>
+        <v>DesktopBasic1Basics/1.11.QueryingData.md</v>
       </c>
       <c r="I23" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.09.ViewingData.md</v>
+        <v>CADGIS2LabDemonstration/2.10.QueryingData.md</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.10.QueryingData.md</v>
+        <v>2.11.DataInspectorDisplayControl.md</v>
       </c>
       <c r="H24" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.11.QueryingData.md</v>
+        <v>DesktopBasic1Basics/1.12.DataInspectorDisplayControl.md</v>
       </c>
       <c r="I24" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.10.QueryingData.md</v>
+        <v>CADGIS2LabDemonstration/2.11.DataInspectorDisplayControl.md</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.11.DataInspectorDisplayControl.md</v>
+        <v>2.12.BackgroundMaps.md</v>
       </c>
       <c r="H25" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.12.DataInspectorDisplayControl.md</v>
+        <v>DesktopBasic1Basics/1.13.BackgroundMaps.md</v>
       </c>
       <c r="I25" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.11.DataInspectorDisplayControl.md</v>
+        <v>CADGIS2LabDemonstration/2.12.BackgroundMaps.md</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G26" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.12.BackgroundMaps.md</v>
+        <v>2.13.ReaderParameters.md</v>
       </c>
       <c r="H26" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.13.BackgroundMaps.md</v>
+        <v>DesktopBasic1Basics/1.14.ReaderParameters.md</v>
       </c>
       <c r="I26" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.12.BackgroundMaps.md</v>
+        <v>CADGIS2LabDemonstration/2.13.ReaderParameters.md</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G27" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.13.ReaderParameters.md</v>
+        <v>2.14.WriterParameters.md</v>
       </c>
       <c r="H27" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.14.ReaderParameters.md</v>
+        <v>DesktopBasic1Basics/1.15.WriterParameters.md</v>
       </c>
       <c r="I27" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.13.ReaderParameters.md</v>
+        <v>CADGIS2LabDemonstration/2.14.WriterParameters.md</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>12</v>
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G28" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.14.WriterParameters.md</v>
+        <v>2.15.TransformationWithTransformers.md</v>
       </c>
       <c r="H28" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.15.WriterParameters.md</v>
+        <v>DesktopBasic2Transformation/2.05.TransformationWithTransformers.md</v>
       </c>
       <c r="I28" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.14.WriterParameters.md</v>
+        <v>CADGIS2LabDemonstration/2.15.TransformationWithTransformers.md</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G29" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.15.TransformationWithTransformers.md</v>
+        <v>2.16.ContentTransformation.md</v>
       </c>
       <c r="H29" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.05.TransformationWithTransformers.md</v>
+        <v>DesktopBasic2Transformation/2.06.ContentTransformation.md</v>
       </c>
       <c r="I29" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.15.TransformationWithTransformers.md</v>
+        <v>CADGIS2LabDemonstration/2.16.ContentTransformation.md</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G30" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.16.ContentTransformation.md</v>
+        <v>2.17.TransformersInSeries.md</v>
       </c>
       <c r="H30" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.06.ContentTransformation.md</v>
+        <v>DesktopBasic2Transformation/2.07.TransformersInSeries.md</v>
       </c>
       <c r="I30" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.16.ContentTransformation.md</v>
+        <v>CADGIS2LabDemonstration/2.17.TransformersInSeries.md</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G31" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.17.TransformersInSeries.md</v>
+        <v>2.18.FeatureCounts.md</v>
       </c>
       <c r="H31" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.07.TransformersInSeries.md</v>
+        <v>DesktopBasic2Transformation/2.08.FeatureCounts.md</v>
       </c>
       <c r="I31" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.17.TransformersInSeries.md</v>
+        <v>CADGIS2LabDemonstration/2.18.FeatureCounts.md</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="F32" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G32" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.18.FeatureCounts.md</v>
+        <v>2.19.TransformersInParallel.md</v>
       </c>
       <c r="H32" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.08.FeatureCounts.md</v>
+        <v>DesktopBasic2Transformation/2.09.TransformersInParallel.md</v>
       </c>
       <c r="I32" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.18.FeatureCounts.md</v>
+        <v>CADGIS2LabDemonstration/2.19.TransformersInParallel.md</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G33" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.19.TransformersInParallel.md</v>
+        <v>2.20.GroupByProcessing.md</v>
       </c>
       <c r="H33" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.09.TransformersInParallel.md</v>
+        <v>DesktopBasic2Transformation/2.10.GroupByProcessing.md</v>
       </c>
       <c r="I33" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.19.TransformersInParallel.md</v>
+        <v>CADGIS2LabDemonstration/2.20.GroupByProcessing.md</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G34" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.20.GroupByProcessing.md</v>
+        <v>2.21.DataInspectionFromWorkbench.md</v>
       </c>
       <c r="H34" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.10.GroupByProcessing.md</v>
+        <v>DesktopBasic2Transformation/2.11.DataInspectionFromWorkbench.md</v>
       </c>
       <c r="I34" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.20.GroupByProcessing.md</v>
+        <v>CADGIS2LabDemonstration/2.21.DataInspectionFromWorkbench.md</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G35" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.21.DataInspectionFromWorkbench.md</v>
+        <v>2.22.CoordinateSystemTransformation.md</v>
       </c>
       <c r="H35" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.11.DataInspectionFromWorkbench.md</v>
+        <v>DesktopBasic2Transformation/2.12.CoordinateSystemTransformation.md</v>
       </c>
       <c r="I35" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.21.DataInspectionFromWorkbench.md</v>
+        <v>CADGIS2LabDemonstration/2.22.CoordinateSystemTransformation.md</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>54</v>
-      </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="G36" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.22.CoordinateSystemTransformation.md</v>
+        <v>3.00.LabExercises.md</v>
       </c>
       <c r="H36" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.12.CoordinateSystemTransformation.md</v>
+        <v/>
       </c>
       <c r="I36" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.22.CoordinateSystemTransformation.md</v>
+        <v>CADGIS3LabExercises/3.00.LabExercises.md</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G37" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>3.00.LabExercises.md</v>
+        <v>3.01.GettingStartedWithFMEDesktop.md</v>
       </c>
       <c r="H37" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2291,403 +2289,403 @@
       </c>
       <c r="I37" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.00.LabExercises.md</v>
+        <v>CADGIS3LabExercises/3.01.GettingStartedWithFMEDesktop.md</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B38" t="s">
-        <v>95</v>
+      <c r="A38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G38" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>3.01.GettingStartedWithFMEDesktop.md</v>
+        <f t="shared" ref="G38:G56" si="3">IF(ISBLANK(A38),C38&amp;"."&amp;E38&amp;"."&amp;B38&amp;".md",C38&amp;"."&amp;E38&amp;"."&amp;RIGHT(B38,LEN(B38)-2))</f>
+        <v>3.02.Exercise1.md</v>
       </c>
       <c r="H38" s="2" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>DesktopBasic1Basics/1.Exercise1.md</v>
       </c>
       <c r="I38" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.01.GettingStartedWithFMEDesktop.md</v>
+        <v>CADGIS3LabExercises/3.02.Exercise1.md</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G39" s="2" t="str">
-        <f t="shared" ref="G38:G57" si="3">IF(ISBLANK(A39),C39&amp;"."&amp;E39&amp;"."&amp;B39&amp;".md",C39&amp;"."&amp;E39&amp;"."&amp;RIGHT(B39,LEN(B39)-2))</f>
-        <v>3.02.Exercise1.md</v>
+        <f t="shared" si="3"/>
+        <v>3.03.Exercise2.md</v>
       </c>
       <c r="H39" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise1.md</v>
+        <v>DesktopBasic1Basics/1.Exercise2.md</v>
       </c>
       <c r="I39" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.02.Exercise1.md</v>
+        <v>CADGIS3LabExercises/3.03.Exercise2.md</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G40" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.03.Exercise2.md</v>
+        <v>3.04.Exercise3.md</v>
       </c>
       <c r="H40" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise2.md</v>
+        <v>DesktopBasic1Basics/1.Exercise3.md</v>
       </c>
       <c r="I40" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.03.Exercise2.md</v>
+        <v>CADGIS3LabExercises/3.04.Exercise3.md</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G41" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.04.Exercise3.md</v>
+        <v>3.05.Exercise4.md</v>
       </c>
       <c r="H41" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise3.md</v>
+        <v>DesktopBasic1Basics/1.Exercise4.md</v>
       </c>
       <c r="I41" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.04.Exercise3.md</v>
+        <v>CADGIS3LabExercises/3.05.Exercise4.md</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G42" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.05.Exercise4.md</v>
-      </c>
-      <c r="H42" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise4.md</v>
+        <v>3.06.DataTransformation.md</v>
       </c>
       <c r="I42" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.05.Exercise4.md</v>
+        <v>CADGIS3LabExercises/3.06.DataTransformation.md</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1" t="s">
-        <v>91</v>
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
+        <v>61</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G43" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.06.DataTransformation.md</v>
+        <v>3.07.Exercise1.md</v>
+      </c>
+      <c r="H43" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.Exercise1.md</v>
       </c>
       <c r="I43" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.06.DataTransformation.md</v>
+        <v>CADGIS3LabExercises/3.07.Exercise1.md</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G44" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.07.Exercise1.md</v>
+        <v>3.08.Exercise2.md</v>
       </c>
       <c r="H44" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise1.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise2.md</v>
       </c>
       <c r="I44" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.07.Exercise1.md</v>
+        <v>CADGIS3LabExercises/3.08.Exercise2.md</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G45" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.08.Exercise2.md</v>
+        <v>3.09.Exercise3.md</v>
       </c>
       <c r="H45" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise2.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise3.md</v>
       </c>
       <c r="I45" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.08.Exercise2.md</v>
+        <v>CADGIS3LabExercises/3.09.Exercise3.md</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G46" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.09.Exercise3.md</v>
+        <v>3.10.Exercise4.md</v>
       </c>
       <c r="H46" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise3.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise4.md</v>
       </c>
       <c r="I46" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.09.Exercise3.md</v>
+        <v>CADGIS3LabExercises/3.10.Exercise4.md</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G47" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.10.Exercise4.md</v>
+        <v>3.11.Exercise5.md</v>
       </c>
       <c r="H47" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise4.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise5.md</v>
       </c>
       <c r="I47" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.10.Exercise4.md</v>
+        <v>CADGIS3LabExercises/3.11.Exercise5.md</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G48" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.11.Exercise5.md</v>
+        <v>3.12.Exercise6.md</v>
       </c>
       <c r="H48" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise5.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise6.md</v>
       </c>
       <c r="I48" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.11.Exercise5.md</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>54</v>
-      </c>
+        <v>CADGIS3LabExercises/3.12.Exercise6.md</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G49" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.12.Exercise6.md</v>
+        <v>3.13.GettingStartedwithAutoCAD.md</v>
       </c>
       <c r="H49" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise6.md</v>
+        <v/>
       </c>
       <c r="I49" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.12.Exercise6.md</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+        <v>CADGIS3LabExercises/3.13.GettingStartedwithAutoCAD.md</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G50" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.13.GettingStartedwithAutoCAD.md</v>
+        <v>3.14.GroupingEntitiesInDWG.md</v>
       </c>
       <c r="H50" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2695,28 +2693,28 @@
       </c>
       <c r="I50" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.13.GettingStartedwithAutoCAD.md</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+        <v>CADGIS3LabExercises/3.14.GroupingEntitiesInDWG.md</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G51" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.14.GroupingEntitiesInDWG.md</v>
+        <v>3.15.HandlingBlocksInDWG.md</v>
       </c>
       <c r="H51" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2724,28 +2722,28 @@
       </c>
       <c r="I51" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.14.GroupingEntitiesInDWG.md</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+        <v>CADGIS3LabExercises/3.15.HandlingBlocksInDWG.md</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G52" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.15.HandlingBlocksInDWG.md</v>
+        <v>3.16.DWGToDGN.md</v>
       </c>
       <c r="H52" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2753,28 +2751,28 @@
       </c>
       <c r="I52" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.15.HandlingBlocksInDWG.md</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+        <v>CADGIS3LabExercises/3.16.DWGToDGN.md</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G53" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.16.DWGToDGN.md</v>
+        <v>3.17.SHPToDWG.md</v>
       </c>
       <c r="H53" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2782,28 +2780,28 @@
       </c>
       <c r="I53" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.16.DWGToDGN.md</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+        <v>CADGIS3LabExercises/3.17.SHPToDWG.md</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G54" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.17.SHPToDWG.md</v>
+        <v>3.18.ExplodingBlockEntitiesInDWG.md</v>
       </c>
       <c r="H54" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2811,28 +2809,28 @@
       </c>
       <c r="I54" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.17.SHPToDWG.md</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+        <v>CADGIS3LabExercises/3.18.ExplodingBlockEntitiesInDWG.md</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G55" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.18.ExplodingBlockEntitiesInDWG.md</v>
+        <v>3.19.PreservingBlockEntitiesInDWG.md</v>
       </c>
       <c r="H55" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2840,63 +2838,34 @@
       </c>
       <c r="I55" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.18.ExplodingBlockEntitiesInDWG.md</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+        <v>CADGIS3LabExercises/3.19.PreservingBlockEntitiesInDWG.md</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G56" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.19.PreservingBlockEntitiesInDWG.md</v>
+        <v>3.20.LabQuestions.md</v>
       </c>
       <c r="H56" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I56" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.19.PreservingBlockEntitiesInDWG.md</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B57" t="s">
-        <v>92</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G57" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.20.LabQuestions.md</v>
-      </c>
-      <c r="H57" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I57" s="2" t="str">
         <f t="shared" si="2"/>
         <v>CADGIS3LabExercises/3.20.LabQuestions.md</v>
       </c>
@@ -2911,14 +2880,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="5" width="8.7265625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1">
         <v>0</v>
@@ -2927,10 +2899,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G1" s="2" t="str">
         <f>IF(ISBLANK(A1),C1&amp;"."&amp;E1&amp;"."&amp;B1&amp;".md",C1&amp;"."&amp;E1&amp;"."&amp;RIGHT(B1,LEN(B1)-5))</f>
@@ -2948,49 +2920,49 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2" t="str">
-        <f t="shared" ref="G2:G37" si="0">IF(ISBLANK(A2),C2&amp;"."&amp;E2&amp;"."&amp;B2&amp;".md",C2&amp;"."&amp;E2&amp;"."&amp;RIGHT(B2,LEN(B2)-5))</f>
+        <f t="shared" ref="G2:G36" si="0">IF(ISBLANK(A2),C2&amp;"."&amp;E2&amp;"."&amp;B2&amp;".md",C2&amp;"."&amp;E2&amp;"."&amp;RIGHT(B2,LEN(B2)-5))</f>
         <v>0.01.CourseOverview.md</v>
       </c>
       <c r="H2" s="2" t="str">
-        <f t="shared" ref="H2:H56" si="1">IF(ISBLANK(A2),"",A2&amp;"/"&amp;B2)</f>
+        <f t="shared" ref="H2:H55" si="1">IF(ISBLANK(A2),"",A2&amp;"/"&amp;B2)</f>
         <v/>
       </c>
       <c r="I2" s="2" t="str">
-        <f t="shared" ref="I2:I56" si="2">F2&amp;"/"&amp;G2</f>
+        <f t="shared" ref="I2:I55" si="2">F2&amp;"/"&amp;G2</f>
         <v>CADGIS0About/0.01.CourseOverview.md</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G3" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3008,19 +2980,19 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3028,26 +3000,26 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="str">
-        <f>F4&amp;"/"&amp;G4</f>
+        <f t="shared" si="2"/>
         <v>CADGIS1Lecture/1.00.Lecture.md</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3057,982 +3029,984 @@
         <f>IF(ISBLANK(A5),"",A5&amp;"/"&amp;B4)</f>
         <v/>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS1Lecture/1.01.DataIntegration.md</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.02.WhyFME.md</v>
+        <v>1.02.WhatIsFME.md</v>
       </c>
       <c r="H6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>DesktopBasic1Basics/1.01.WhatIsFME.md</v>
       </c>
       <c r="I6" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.02.WhyFME.md</v>
+        <v>CADGIS1Lecture/1.02.WhatIsFME.md</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.03.WhatIsFME.md</v>
+        <v>1.03.DataTransformation.md</v>
       </c>
       <c r="H7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.01.WhatIsFME.md</v>
+        <v>DesktopBasic2Transformation/2.00.DataTransformation.md</v>
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.03.WhatIsFME.md</v>
+        <v>CADGIS1Lecture/1.03.DataTransformation.md</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.04.DataTransformation.md</v>
+        <v>1.04.WhatIsDataTransformation.md</v>
       </c>
       <c r="H8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.00.DataTransformation.md</v>
+        <v>DesktopBasic2Transformation/2.01.WhatIsDataTransformation.md</v>
       </c>
       <c r="I8" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.04.DataTransformation.md</v>
+        <v>CADGIS1Lecture/1.04.WhatIsDataTransformation.md</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.05.WhatIsDataTransformation.md</v>
+        <v>1.05.StructuralTransformation.md</v>
       </c>
       <c r="H9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.01.WhatIsDataTransformation.md</v>
+        <v>DesktopBasic2Transformation/2.02.StructuralTransformation.md</v>
       </c>
       <c r="I9" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.05.WhatIsDataTransformation.md</v>
+        <v>CADGIS1Lecture/1.05.StructuralTransformation.md</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.06.StructuralTransformation.md</v>
+        <v>1.06.SchemaEditing.md</v>
       </c>
       <c r="H10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.02.StructuralTransformation.md</v>
+        <v>DesktopBasic2Transformation/2.03.SchemaEditing.md</v>
       </c>
       <c r="I10" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.06.StructuralTransformation.md</v>
+        <v>CADGIS1Lecture/1.06.SchemaEditing.md</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.07.SchemaEditing.md</v>
+        <v>1.07.SchemaMapping.md</v>
       </c>
       <c r="H11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.03.SchemaEditing.md</v>
+        <v>DesktopBasic2Transformation/2.04.SchemaMapping.md</v>
       </c>
       <c r="I11" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.07.SchemaEditing.md</v>
+        <v>CADGIS1Lecture/1.07.SchemaMapping.md</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>54</v>
-      </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="G12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.08.SchemaMapping.md</v>
+        <v>2.00.LabDemonstration.md</v>
       </c>
       <c r="H12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.04.SchemaMapping.md</v>
+        <v/>
       </c>
       <c r="I12" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.08.SchemaMapping.md</v>
+        <v>CADGIS2LabDemonstration/2.00.LabDemonstration.md</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>90</v>
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.00.LabDemonstration.md</v>
+        <v>2.01.FMEDesktopComponents.md</v>
       </c>
       <c r="H13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>DesktopBasic1Basics/1.02.FMEDesktopComponents.md</v>
       </c>
       <c r="I13" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.00.LabDemonstration.md</v>
+        <v>CADGIS2LabDemonstration/2.01.FMEDesktopComponents.md</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.01.FMEDesktopComponents.md</v>
+        <v>2.02.IntroductionToWorkbench.md</v>
       </c>
       <c r="H14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.02.FMEDesktopComponents.md</v>
+        <v>DesktopBasic1Basics/1.03.IntroductionToWorkbench.md</v>
       </c>
       <c r="I14" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.01.FMEDesktopComponents.md</v>
+        <v>CADGIS2LabDemonstration/2.02.IntroductionToWorkbench.md</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.02.IntroductionToWorkbench.md</v>
+        <v>2.03.WindowControl.md</v>
       </c>
       <c r="H15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.03.IntroductionToWorkbench.md</v>
+        <v>DesktopBasic1Basics/1.04.WindowControl.md</v>
       </c>
       <c r="I15" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.02.IntroductionToWorkbench.md</v>
+        <v>CADGIS2LabDemonstration/2.03.WindowControl.md</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.03.WindowControl.md</v>
+        <v>2.04.CreatingATranslation.md</v>
       </c>
       <c r="H16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.04.WindowControl.md</v>
+        <v>DesktopBasic1Basics/1.05.CreatingATranslation.md</v>
       </c>
       <c r="I16" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.03.WindowControl.md</v>
+        <v>CADGIS2LabDemonstration/2.04.CreatingATranslation.md</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.04.CreatingATranslation.md</v>
+        <v>2.05.TheNewWorkspace.md</v>
       </c>
       <c r="H17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.05.CreatingATranslation.md</v>
+        <v>DesktopBasic1Basics/1.06.TheNewWorkspace.md</v>
       </c>
       <c r="I17" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.04.CreatingATranslation.md</v>
+        <v>CADGIS2LabDemonstration/2.05.TheNewWorkspace.md</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.05.TheNewWorkspace.md</v>
+        <v>2.06.RunningTheWorkspace.md</v>
       </c>
       <c r="H18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.06.TheNewWorkspace.md</v>
+        <v>DesktopBasic1Basics/1.07.RunningTheWorkspace.md</v>
       </c>
       <c r="I18" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.05.TheNewWorkspace.md</v>
+        <v>CADGIS2LabDemonstration/2.06.RunningTheWorkspace.md</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.06.RunningTheWorkspace.md</v>
+        <v>2.07.WhatIsDataInspection.md</v>
       </c>
       <c r="H19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.07.RunningTheWorkspace.md</v>
+        <v>DesktopBasic1Basics/1.08.WhatIsDataInspection.md</v>
       </c>
       <c r="I19" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.06.RunningTheWorkspace.md</v>
+        <v>CADGIS2LabDemonstration/2.07.WhatIsDataInspection.md</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.07.WhatIsDataInspection.md</v>
+        <v>2.08.IntroductionToDataInspector.md</v>
       </c>
       <c r="H20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.08.WhatIsDataInspection.md</v>
+        <v>DesktopBasic1Basics/1.09.IntroductionToDataInspector.md</v>
       </c>
       <c r="I20" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.07.WhatIsDataInspection.md</v>
+        <v>CADGIS2LabDemonstration/2.08.IntroductionToDataInspector.md</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.08.IntroductionToDataInspector.md</v>
+        <v>2.09.ViewingData.md</v>
       </c>
       <c r="H21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.09.IntroductionToDataInspector.md</v>
+        <v>DesktopBasic1Basics/1.10.ViewingData.md</v>
       </c>
       <c r="I21" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.08.IntroductionToDataInspector.md</v>
+        <v>CADGIS2LabDemonstration/2.09.ViewingData.md</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.09.ViewingData.md</v>
+        <v>2.10.QueryingData.md</v>
       </c>
       <c r="H22" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.10.ViewingData.md</v>
+        <v>DesktopBasic1Basics/1.11.QueryingData.md</v>
       </c>
       <c r="I22" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.09.ViewingData.md</v>
+        <v>CADGIS2LabDemonstration/2.10.QueryingData.md</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.10.QueryingData.md</v>
+        <v>2.11.DataInspectorDisplayControl.md</v>
       </c>
       <c r="H23" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.11.QueryingData.md</v>
+        <v>DesktopBasic1Basics/1.12.DataInspectorDisplayControl.md</v>
       </c>
       <c r="I23" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.10.QueryingData.md</v>
+        <v>CADGIS2LabDemonstration/2.11.DataInspectorDisplayControl.md</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.11.DataInspectorDisplayControl.md</v>
+        <v>2.12.BackgroundMaps.md</v>
       </c>
       <c r="H24" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.12.DataInspectorDisplayControl.md</v>
+        <v>DesktopBasic1Basics/1.13.BackgroundMaps.md</v>
       </c>
       <c r="I24" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.11.DataInspectorDisplayControl.md</v>
+        <v>CADGIS2LabDemonstration/2.12.BackgroundMaps.md</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.12.BackgroundMaps.md</v>
+        <v>2.13.ReaderParameters.md</v>
       </c>
       <c r="H25" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.13.BackgroundMaps.md</v>
+        <v>DesktopBasic1Basics/1.14.ReaderParameters.md</v>
       </c>
       <c r="I25" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.12.BackgroundMaps.md</v>
+        <v>CADGIS2LabDemonstration/2.13.ReaderParameters.md</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G26" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.13.ReaderParameters.md</v>
+        <v>2.14.WriterParameters.md</v>
       </c>
       <c r="H26" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.14.ReaderParameters.md</v>
+        <v>DesktopBasic1Basics/1.15.WriterParameters.md</v>
       </c>
       <c r="I26" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.13.ReaderParameters.md</v>
+        <v>CADGIS2LabDemonstration/2.14.WriterParameters.md</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>12</v>
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G27" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.14.WriterParameters.md</v>
+        <v>2.15.TransformationWithTransformers.md</v>
       </c>
       <c r="H27" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.15.WriterParameters.md</v>
+        <v>DesktopBasic2Transformation/2.05.TransformationWithTransformers.md</v>
       </c>
       <c r="I27" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.14.WriterParameters.md</v>
+        <v>CADGIS2LabDemonstration/2.15.TransformationWithTransformers.md</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G28" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.15.TransformationWithTransformers.md</v>
+        <v>2.16.ContentTransformation.md</v>
       </c>
       <c r="H28" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.05.TransformationWithTransformers.md</v>
+        <v>DesktopBasic2Transformation/2.06.ContentTransformation.md</v>
       </c>
       <c r="I28" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.15.TransformationWithTransformers.md</v>
+        <v>CADGIS2LabDemonstration/2.16.ContentTransformation.md</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G29" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.16.ContentTransformation.md</v>
+        <v>2.17.TransformersInSeries.md</v>
       </c>
       <c r="H29" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.06.ContentTransformation.md</v>
+        <v>DesktopBasic2Transformation/2.07.TransformersInSeries.md</v>
       </c>
       <c r="I29" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.16.ContentTransformation.md</v>
+        <v>CADGIS2LabDemonstration/2.17.TransformersInSeries.md</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G30" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.17.TransformersInSeries.md</v>
+        <v>2.18.FeatureCounts.md</v>
       </c>
       <c r="H30" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.07.TransformersInSeries.md</v>
+        <v>DesktopBasic2Transformation/2.08.FeatureCounts.md</v>
       </c>
       <c r="I30" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.17.TransformersInSeries.md</v>
+        <v>CADGIS2LabDemonstration/2.18.FeatureCounts.md</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G31" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.18.FeatureCounts.md</v>
+        <v>2.19.TransformersInParallel.md</v>
       </c>
       <c r="H31" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.08.FeatureCounts.md</v>
+        <v>DesktopBasic2Transformation/2.09.TransformersInParallel.md</v>
       </c>
       <c r="I31" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.18.FeatureCounts.md</v>
+        <v>CADGIS2LabDemonstration/2.19.TransformersInParallel.md</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G32" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.19.TransformersInParallel.md</v>
+        <v>2.20.GroupByProcessing.md</v>
       </c>
       <c r="H32" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.09.TransformersInParallel.md</v>
+        <v>DesktopBasic2Transformation/2.10.GroupByProcessing.md</v>
       </c>
       <c r="I32" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.19.TransformersInParallel.md</v>
+        <v>CADGIS2LabDemonstration/2.20.GroupByProcessing.md</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G33" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.20.GroupByProcessing.md</v>
+        <v>2.21.DataInspectionFromWorkbench.md</v>
       </c>
       <c r="H33" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.10.GroupByProcessing.md</v>
+        <v>DesktopBasic2Transformation/2.11.DataInspectionFromWorkbench.md</v>
       </c>
       <c r="I33" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.20.GroupByProcessing.md</v>
+        <v>CADGIS2LabDemonstration/2.21.DataInspectionFromWorkbench.md</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G34" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.21.DataInspectionFromWorkbench.md</v>
+        <v>2.22.CoordinateSystemTransformation.md</v>
       </c>
       <c r="H34" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.11.DataInspectionFromWorkbench.md</v>
+        <v>DesktopBasic2Transformation/2.12.CoordinateSystemTransformation.md</v>
       </c>
       <c r="I34" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.21.DataInspectionFromWorkbench.md</v>
+        <v>CADGIS2LabDemonstration/2.22.CoordinateSystemTransformation.md</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>54</v>
-      </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="G35" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.22.CoordinateSystemTransformation.md</v>
+        <v>3.00.LabExercises.md</v>
       </c>
       <c r="H35" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.12.CoordinateSystemTransformation.md</v>
+        <v/>
       </c>
       <c r="I35" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.22.CoordinateSystemTransformation.md</v>
+        <v>CADGIS3LabExercises/3.00.LabExercises.md</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G36" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>3.00.LabExercises.md</v>
+        <v>3.01.GettingStartedWithFMEDesktop.md</v>
       </c>
       <c r="H36" s="2" t="str">
         <f t="shared" si="1"/>
@@ -4040,404 +4014,404 @@
       </c>
       <c r="I36" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.00.LabExercises.md</v>
+        <v>CADGIS3LabExercises/3.01.GettingStartedWithFMEDesktop.md</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B37" t="s">
-        <v>95</v>
+      <c r="A37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G37" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>3.01.GettingStartedWithFMEDesktop.md</v>
+        <f t="shared" ref="G37:G55" si="3">IF(ISBLANK(A37),C37&amp;"."&amp;E37&amp;"."&amp;B37&amp;".md",C37&amp;"."&amp;E37&amp;"."&amp;RIGHT(B37,LEN(B37)-2))</f>
+        <v>3.02.Exercise1.md</v>
       </c>
       <c r="H37" s="2" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>DesktopBasic1Basics/1.Exercise1.md</v>
       </c>
       <c r="I37" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.01.GettingStartedWithFMEDesktop.md</v>
+        <v>CADGIS3LabExercises/3.02.Exercise1.md</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G38" s="2" t="str">
-        <f t="shared" ref="G38:G56" si="3">IF(ISBLANK(A38),C38&amp;"."&amp;E38&amp;"."&amp;B38&amp;".md",C38&amp;"."&amp;E38&amp;"."&amp;RIGHT(B38,LEN(B38)-2))</f>
-        <v>3.02.Exercise1.md</v>
+        <f t="shared" si="3"/>
+        <v>3.03.Exercise2.md</v>
       </c>
       <c r="H38" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise1.md</v>
+        <v>DesktopBasic1Basics/1.Exercise2.md</v>
       </c>
       <c r="I38" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.02.Exercise1.md</v>
+        <v>CADGIS3LabExercises/3.03.Exercise2.md</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G39" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.03.Exercise2.md</v>
+        <v>3.04.Exercise3.md</v>
       </c>
       <c r="H39" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise2.md</v>
+        <v>DesktopBasic1Basics/1.Exercise3.md</v>
       </c>
       <c r="I39" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.03.Exercise2.md</v>
+        <v>CADGIS3LabExercises/3.04.Exercise3.md</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G40" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.04.Exercise3.md</v>
+        <v>3.05.Exercise4.md</v>
       </c>
       <c r="H40" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise3.md</v>
+        <v>DesktopBasic1Basics/1.Exercise4.md</v>
       </c>
       <c r="I40" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.04.Exercise3.md</v>
+        <v>CADGIS3LabExercises/3.05.Exercise4.md</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G41" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.05.Exercise4.md</v>
-      </c>
-      <c r="H41" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise4.md</v>
-      </c>
+        <v>3.06.DataTransformation.md</v>
+      </c>
+      <c r="H41" s="2"/>
       <c r="I41" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.05.Exercise4.md</v>
+        <v>CADGIS3LabExercises/3.06.DataTransformation.md</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1" t="s">
-        <v>91</v>
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" t="s">
+        <v>61</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G42" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.06.DataTransformation.md</v>
-      </c>
-      <c r="H42" s="2"/>
+        <v>3.07.Exercise1.md</v>
+      </c>
+      <c r="H42" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.Exercise1.md</v>
+      </c>
       <c r="I42" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.06.DataTransformation.md</v>
+        <v>CADGIS3LabExercises/3.07.Exercise1.md</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G43" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.07.Exercise1.md</v>
+        <v>3.08.Exercise2.md</v>
       </c>
       <c r="H43" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise1.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise2.md</v>
       </c>
       <c r="I43" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.07.Exercise1.md</v>
+        <v>CADGIS3LabExercises/3.08.Exercise2.md</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G44" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.08.Exercise2.md</v>
+        <v>3.09.Exercise3.md</v>
       </c>
       <c r="H44" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise2.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise3.md</v>
       </c>
       <c r="I44" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.08.Exercise2.md</v>
+        <v>CADGIS3LabExercises/3.09.Exercise3.md</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G45" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.09.Exercise3.md</v>
+        <v>3.10.Exercise4.md</v>
       </c>
       <c r="H45" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise3.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise4.md</v>
       </c>
       <c r="I45" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.09.Exercise3.md</v>
+        <v>CADGIS3LabExercises/3.10.Exercise4.md</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G46" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.10.Exercise4.md</v>
+        <v>3.11.Exercise5.md</v>
       </c>
       <c r="H46" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise4.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise5.md</v>
       </c>
       <c r="I46" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.10.Exercise4.md</v>
+        <v>CADGIS3LabExercises/3.11.Exercise5.md</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G47" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.11.Exercise5.md</v>
+        <v>3.12.Exercise6.md</v>
       </c>
       <c r="H47" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise5.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise6.md</v>
       </c>
       <c r="I47" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.11.Exercise5.md</v>
+        <v>CADGIS3LabExercises/3.12.Exercise6.md</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>54</v>
-      </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G48" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.12.Exercise6.md</v>
+        <v>3.13.GettingStartedwithAutoCAD.md</v>
       </c>
       <c r="H48" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise6.md</v>
+        <v/>
       </c>
       <c r="I48" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.12.Exercise6.md</v>
+        <v>CADGIS3LabExercises/3.13.GettingStartedwithAutoCAD.md</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G49" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.13.GettingStartedwithAutoCAD.md</v>
+        <v>3.14.GroupingEntitiesInDWG.md</v>
       </c>
       <c r="H49" s="2" t="str">
         <f t="shared" si="1"/>
@@ -4445,28 +4419,28 @@
       </c>
       <c r="I49" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.13.GettingStartedwithAutoCAD.md</v>
+        <v>CADGIS3LabExercises/3.14.GroupingEntitiesInDWG.md</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G50" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.14.GroupingEntitiesInDWG.md</v>
+        <v>3.15.HandlingBlocksInDWG.md</v>
       </c>
       <c r="H50" s="2" t="str">
         <f t="shared" si="1"/>
@@ -4474,28 +4448,28 @@
       </c>
       <c r="I50" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.14.GroupingEntitiesInDWG.md</v>
+        <v>CADGIS3LabExercises/3.15.HandlingBlocksInDWG.md</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G51" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.15.HandlingBlocksInDWG.md</v>
+        <v>3.16.DWGToDGN.md</v>
       </c>
       <c r="H51" s="2" t="str">
         <f t="shared" si="1"/>
@@ -4503,28 +4477,28 @@
       </c>
       <c r="I51" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.15.HandlingBlocksInDWG.md</v>
+        <v>CADGIS3LabExercises/3.16.DWGToDGN.md</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G52" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.16.DWGToDGN.md</v>
+        <v>3.17.SHPToDWG.md</v>
       </c>
       <c r="H52" s="2" t="str">
         <f t="shared" si="1"/>
@@ -4532,28 +4506,28 @@
       </c>
       <c r="I52" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.16.DWGToDGN.md</v>
+        <v>CADGIS3LabExercises/3.17.SHPToDWG.md</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G53" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.17.SHPToDWG.md</v>
+        <v>3.18.ExplodingBlockEntitiesInDWG.md</v>
       </c>
       <c r="H53" s="2" t="str">
         <f t="shared" si="1"/>
@@ -4561,28 +4535,28 @@
       </c>
       <c r="I53" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.17.SHPToDWG.md</v>
+        <v>CADGIS3LabExercises/3.18.ExplodingBlockEntitiesInDWG.md</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G54" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.18.ExplodingBlockEntitiesInDWG.md</v>
+        <v>3.19.PreservingBlockEntitiesInDWG.md</v>
       </c>
       <c r="H54" s="2" t="str">
         <f t="shared" si="1"/>
@@ -4590,28 +4564,28 @@
       </c>
       <c r="I54" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.18.ExplodingBlockEntitiesInDWG.md</v>
+        <v>CADGIS3LabExercises/3.19.PreservingBlockEntitiesInDWG.md</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G55" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.19.PreservingBlockEntitiesInDWG.md</v>
+        <v>3.20.LabQuestions.md</v>
       </c>
       <c r="H55" s="2" t="str">
         <f t="shared" si="1"/>
@@ -4619,39 +4593,17 @@
       </c>
       <c r="I55" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.19.PreservingBlockEntitiesInDWG.md</v>
+        <v>CADGIS3LabExercises/3.20.LabQuestions.md</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B56" t="s">
-        <v>92</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G56" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.20.LabQuestions.md</v>
-      </c>
-      <c r="H56" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I56" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.20.LabQuestions.md</v>
-      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/chapters.xlsx
+++ b/chapters.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="101">
   <si>
     <t>1.03.IntroductionToWorkbench.md</t>
   </si>
@@ -311,6 +311,18 @@
   </si>
   <si>
     <t>destination_file</t>
+  </si>
+  <si>
+    <t>AboutThisDocument</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1133,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1166,7 +1180,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1182,7 +1196,7 @@
       </c>
       <c r="G2" s="2" t="str">
         <f>IF(ISBLANK(A2),C2&amp;"."&amp;E2&amp;"."&amp;B2&amp;".md",C2&amp;"."&amp;E2&amp;"."&amp;RIGHT(B2,LEN(B2)-5))</f>
-        <v>0.00.About.md</v>
+        <v>0.00.AboutThisDocument.md</v>
       </c>
       <c r="H2" s="2" t="str">
         <f>IF(ISBLANK(A2),"",A2&amp;"/"&amp;B2)</f>
@@ -1190,7 +1204,7 @@
       </c>
       <c r="I2" s="2" t="str">
         <f>F2&amp;"/"&amp;G2</f>
-        <v>CADGIS0About/0.00.About.md</v>
+        <v>CADGIS0About/0.00.AboutThisDocument.md</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -1406,128 +1420,128 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>50</v>
-      </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="G10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.05.StructuralTransformation.md</v>
+        <v>2.00.LabDemonstration.md</v>
       </c>
       <c r="H10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.02.StructuralTransformation.md</v>
+        <v/>
       </c>
       <c r="I10" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.05.StructuralTransformation.md</v>
+        <v>CADGIS2LabDemonstration/2.00.LabDemonstration.md</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="G11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.06.SchemaEditing.md</v>
+        <v>2.01.FMEDesktopComponents.md</v>
       </c>
       <c r="H11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.03.SchemaEditing.md</v>
+        <v>DesktopBasic1Basics/1.02.FMEDesktopComponents.md</v>
       </c>
       <c r="I11" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.06.SchemaEditing.md</v>
+        <v>CADGIS2LabDemonstration/2.01.FMEDesktopComponents.md</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="G12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.07.SchemaMapping.md</v>
+        <v>2.02.IntroductionToWorkbench.md</v>
       </c>
       <c r="H12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.04.SchemaMapping.md</v>
+        <v>DesktopBasic1Basics/1.03.IntroductionToWorkbench.md</v>
       </c>
       <c r="I12" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.07.SchemaMapping.md</v>
+        <v>CADGIS2LabDemonstration/2.02.IntroductionToWorkbench.md</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>84</v>
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.00.LabDemonstration.md</v>
+        <v>2.03.WindowControl.md</v>
       </c>
       <c r="H13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>DesktopBasic1Basics/1.04.WindowControl.md</v>
       </c>
       <c r="I13" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.00.LabDemonstration.md</v>
+        <v>CADGIS2LabDemonstration/2.03.WindowControl.md</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -1535,31 +1549,31 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.01.FMEDesktopComponents.md</v>
+        <v>2.04.CreatingATranslation.md</v>
       </c>
       <c r="H14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.02.FMEDesktopComponents.md</v>
+        <v>DesktopBasic1Basics/1.05.CreatingATranslation.md</v>
       </c>
       <c r="I14" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.01.FMEDesktopComponents.md</v>
+        <v>CADGIS2LabDemonstration/2.04.CreatingATranslation.md</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -1567,31 +1581,31 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.02.IntroductionToWorkbench.md</v>
+        <v>2.05.TheNewWorkspace.md</v>
       </c>
       <c r="H15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.03.IntroductionToWorkbench.md</v>
+        <v>DesktopBasic1Basics/1.06.TheNewWorkspace.md</v>
       </c>
       <c r="I15" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.02.IntroductionToWorkbench.md</v>
+        <v>CADGIS2LabDemonstration/2.05.TheNewWorkspace.md</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -1599,7 +1613,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>69</v>
@@ -1608,22 +1622,22 @@
         <v>69</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.03.WindowControl.md</v>
+        <v>2.06.RunningTheWorkspace.md</v>
       </c>
       <c r="H16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.04.WindowControl.md</v>
+        <v>DesktopBasic1Basics/1.07.RunningTheWorkspace.md</v>
       </c>
       <c r="I16" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.03.WindowControl.md</v>
+        <v>CADGIS2LabDemonstration/2.06.RunningTheWorkspace.md</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -1631,31 +1645,31 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.04.CreatingATranslation.md</v>
+        <v>2.07.WhatIsDataInspection.md</v>
       </c>
       <c r="H17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.05.CreatingATranslation.md</v>
+        <v>DesktopBasic1Basics/1.08.WhatIsDataInspection.md</v>
       </c>
       <c r="I17" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.04.CreatingATranslation.md</v>
+        <v>CADGIS2LabDemonstration/2.07.WhatIsDataInspection.md</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -1663,7 +1677,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>69</v>
@@ -1672,22 +1686,22 @@
         <v>69</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.05.TheNewWorkspace.md</v>
+        <v>2.08.IntroductionToDataInspector.md</v>
       </c>
       <c r="H18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.06.TheNewWorkspace.md</v>
+        <v>DesktopBasic1Basics/1.09.IntroductionToDataInspector.md</v>
       </c>
       <c r="I18" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.05.TheNewWorkspace.md</v>
+        <v>CADGIS2LabDemonstration/2.08.IntroductionToDataInspector.md</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1695,7 +1709,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>69</v>
@@ -1704,22 +1718,22 @@
         <v>69</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.06.RunningTheWorkspace.md</v>
+        <v>2.09.ViewingData.md</v>
       </c>
       <c r="H19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.07.RunningTheWorkspace.md</v>
+        <v>DesktopBasic1Basics/1.10.ViewingData.md</v>
       </c>
       <c r="I19" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.06.RunningTheWorkspace.md</v>
+        <v>CADGIS2LabDemonstration/2.09.ViewingData.md</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1727,31 +1741,31 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.07.WhatIsDataInspection.md</v>
+        <v>2.10.QueryingData.md</v>
       </c>
       <c r="H20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.08.WhatIsDataInspection.md</v>
+        <v>DesktopBasic1Basics/1.11.QueryingData.md</v>
       </c>
       <c r="I20" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.07.WhatIsDataInspection.md</v>
+        <v>CADGIS2LabDemonstration/2.10.QueryingData.md</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1759,7 +1773,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>69</v>
@@ -1768,22 +1782,22 @@
         <v>69</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.08.IntroductionToDataInspector.md</v>
+        <v>2.11.DataInspectorDisplayControl.md</v>
       </c>
       <c r="H21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.09.IntroductionToDataInspector.md</v>
+        <v>DesktopBasic1Basics/1.12.DataInspectorDisplayControl.md</v>
       </c>
       <c r="I21" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.08.IntroductionToDataInspector.md</v>
+        <v>CADGIS2LabDemonstration/2.11.DataInspectorDisplayControl.md</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -1791,7 +1805,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>69</v>
@@ -1800,22 +1814,22 @@
         <v>69</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.09.ViewingData.md</v>
+        <v>2.12.BackgroundMaps.md</v>
       </c>
       <c r="H22" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.10.ViewingData.md</v>
+        <v>DesktopBasic1Basics/1.13.BackgroundMaps.md</v>
       </c>
       <c r="I22" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.09.ViewingData.md</v>
+        <v>CADGIS2LabDemonstration/2.12.BackgroundMaps.md</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1823,31 +1837,31 @@
         <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.10.QueryingData.md</v>
+        <v>2.13.ReaderParameters.md</v>
       </c>
       <c r="H23" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.11.QueryingData.md</v>
+        <v>DesktopBasic1Basics/1.14.ReaderParameters.md</v>
       </c>
       <c r="I23" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.10.QueryingData.md</v>
+        <v>CADGIS2LabDemonstration/2.13.ReaderParameters.md</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1855,127 +1869,127 @@
         <v>15</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.11.DataInspectorDisplayControl.md</v>
+        <v>2.14.WriterParameters.md</v>
       </c>
       <c r="H24" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.12.DataInspectorDisplayControl.md</v>
+        <v>DesktopBasic1Basics/1.15.WriterParameters.md</v>
       </c>
       <c r="I24" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.11.DataInspectorDisplayControl.md</v>
+        <v>CADGIS2LabDemonstration/2.14.WriterParameters.md</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>10</v>
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.12.BackgroundMaps.md</v>
+        <f>IF(ISBLANK(A25),C25&amp;"."&amp;E25&amp;"."&amp;B25&amp;".md",C25&amp;"."&amp;E25&amp;"."&amp;RIGHT(B25,LEN(B25)-5))</f>
+        <v>2.15.StructuralTransformation.md</v>
       </c>
       <c r="H25" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.13.BackgroundMaps.md</v>
+        <f>IF(ISBLANK(A25),"",A25&amp;"/"&amp;B25)</f>
+        <v>DesktopBasic2Transformation/2.02.StructuralTransformation.md</v>
       </c>
       <c r="I25" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.12.BackgroundMaps.md</v>
+        <f>F25&amp;"/"&amp;G25</f>
+        <v>CADGIS2LabDemonstration/2.15.StructuralTransformation.md</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>11</v>
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.13.ReaderParameters.md</v>
+        <f>IF(ISBLANK(A26),C26&amp;"."&amp;E26&amp;"."&amp;B26&amp;".md",C26&amp;"."&amp;E26&amp;"."&amp;RIGHT(B26,LEN(B26)-5))</f>
+        <v>2.16.SchemaEditing.md</v>
       </c>
       <c r="H26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.14.ReaderParameters.md</v>
+        <f>IF(ISBLANK(A26),"",A26&amp;"/"&amp;B26)</f>
+        <v>DesktopBasic2Transformation/2.03.SchemaEditing.md</v>
       </c>
       <c r="I26" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.13.ReaderParameters.md</v>
+        <f>F26&amp;"/"&amp;G26</f>
+        <v>CADGIS2LabDemonstration/2.16.SchemaEditing.md</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>12</v>
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.14.WriterParameters.md</v>
+        <f>IF(ISBLANK(A27),C27&amp;"."&amp;E27&amp;"."&amp;B27&amp;".md",C27&amp;"."&amp;E27&amp;"."&amp;RIGHT(B27,LEN(B27)-5))</f>
+        <v>2.17.SchemaMapping.md</v>
       </c>
       <c r="H27" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.15.WriterParameters.md</v>
+        <f>IF(ISBLANK(A27),"",A27&amp;"/"&amp;B27)</f>
+        <v>DesktopBasic2Transformation/2.04.SchemaMapping.md</v>
       </c>
       <c r="I27" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.14.WriterParameters.md</v>
+        <f>F27&amp;"/"&amp;G27</f>
+        <v>CADGIS2LabDemonstration/2.17.SchemaMapping.md</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -1992,14 +2006,14 @@
         <v>68</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G28" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.15.TransformationWithTransformers.md</v>
+        <v>2.18.TransformationWithTransformers.md</v>
       </c>
       <c r="H28" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2007,7 +2021,7 @@
       </c>
       <c r="I28" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.15.TransformationWithTransformers.md</v>
+        <v>CADGIS2LabDemonstration/2.18.TransformationWithTransformers.md</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -2024,14 +2038,14 @@
         <v>68</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G29" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.16.ContentTransformation.md</v>
+        <v>2.19.ContentTransformation.md</v>
       </c>
       <c r="H29" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2039,7 +2053,7 @@
       </c>
       <c r="I29" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.16.ContentTransformation.md</v>
+        <v>CADGIS2LabDemonstration/2.19.ContentTransformation.md</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -2053,17 +2067,17 @@
         <v>69</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G30" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.17.TransformersInSeries.md</v>
+        <v>2.20.TransformersInSeries.md</v>
       </c>
       <c r="H30" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2071,7 +2085,7 @@
       </c>
       <c r="I30" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.17.TransformersInSeries.md</v>
+        <v>CADGIS2LabDemonstration/2.20.TransformersInSeries.md</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -2085,17 +2099,17 @@
         <v>69</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G31" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.18.FeatureCounts.md</v>
+        <v>2.21.FeatureCounts.md</v>
       </c>
       <c r="H31" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2103,7 +2117,7 @@
       </c>
       <c r="I31" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.18.FeatureCounts.md</v>
+        <v>CADGIS2LabDemonstration/2.21.FeatureCounts.md</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -2117,17 +2131,17 @@
         <v>69</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G32" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.19.TransformersInParallel.md</v>
+        <v>2.22.TransformersInParallel.md</v>
       </c>
       <c r="H32" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2135,7 +2149,7 @@
       </c>
       <c r="I32" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.19.TransformersInParallel.md</v>
+        <v>CADGIS2LabDemonstration/2.22.TransformersInParallel.md</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -2152,14 +2166,14 @@
         <v>68</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G33" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.20.GroupByProcessing.md</v>
+        <v>2.23.GroupByProcessing.md</v>
       </c>
       <c r="H33" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2167,7 +2181,7 @@
       </c>
       <c r="I33" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.20.GroupByProcessing.md</v>
+        <v>CADGIS2LabDemonstration/2.23.GroupByProcessing.md</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -2184,14 +2198,14 @@
         <v>68</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G34" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.21.DataInspectionFromWorkbench.md</v>
+        <v>2.24.DataInspectionFromWorkbench.md</v>
       </c>
       <c r="H34" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2199,7 +2213,7 @@
       </c>
       <c r="I34" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.21.DataInspectionFromWorkbench.md</v>
+        <v>CADGIS2LabDemonstration/2.24.DataInspectionFromWorkbench.md</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -2216,14 +2230,14 @@
         <v>68</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G35" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.22.CoordinateSystemTransformation.md</v>
+        <v>2.25.CoordinateSystemTransformation.md</v>
       </c>
       <c r="H35" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2231,7 +2245,7 @@
       </c>
       <c r="I35" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.22.CoordinateSystemTransformation.md</v>
+        <v>CADGIS2LabDemonstration/2.25.CoordinateSystemTransformation.md</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">

--- a/chapters.xlsx
+++ b/chapters.xlsx
@@ -13,14 +13,13 @@
   </bookViews>
   <sheets>
     <sheet name="chapters" sheetId="1" r:id="rId1"/>
-    <sheet name="csv" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="101">
   <si>
     <t>1.03.IntroductionToWorkbench.md</t>
   </si>
@@ -268,9 +267,6 @@
     <t>PreservingBlockEntitiesInDWG</t>
   </si>
   <si>
-    <t>About</t>
-  </si>
-  <si>
     <t>CADGIS2LabDemonstration</t>
   </si>
   <si>
@@ -323,6 +319,9 @@
   </si>
   <si>
     <t>25</t>
+  </si>
+  <si>
+    <t>CADGISIntegration</t>
   </si>
 </sst>
 </file>
@@ -1131,10 +1130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1150,25 +1149,25 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
         <v>93</v>
       </c>
-      <c r="B1" t="s">
-        <v>94</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>13</v>
@@ -1180,7 +1179,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1225,15 +1224,15 @@
         <v>16</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G37" si="0">IF(ISBLANK(A3),C3&amp;"."&amp;E3&amp;"."&amp;B3&amp;".md",C3&amp;"."&amp;E3&amp;"."&amp;RIGHT(B3,LEN(B3)-5))</f>
+        <f t="shared" ref="G3:G38" si="0">IF(ISBLANK(A3),C3&amp;"."&amp;E3&amp;"."&amp;B3&amp;".md",C3&amp;"."&amp;E3&amp;"."&amp;RIGHT(B3,LEN(B3)-5))</f>
         <v>0.01.CourseOverview.md</v>
       </c>
       <c r="H3" s="2" t="str">
-        <f t="shared" ref="H3:H56" si="1">IF(ISBLANK(A3),"",A3&amp;"/"&amp;B3)</f>
+        <f t="shared" ref="H3:H57" si="1">IF(ISBLANK(A3),"",A3&amp;"/"&amp;B3)</f>
         <v/>
       </c>
       <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3:I56" si="2">F3&amp;"/"&amp;G3</f>
+        <f t="shared" ref="I3:I57" si="2">F3&amp;"/"&amp;G3</f>
         <v>CADGIS0About/0.01.CourseOverview.md</v>
       </c>
     </row>
@@ -1296,7 +1295,7 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>68</v>
@@ -1334,7 +1333,7 @@
         <v>68</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>24</v>
@@ -1420,64 +1419,61 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>84</v>
+      <c r="B10" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1.05.CADGISIntegration.md</v>
+      </c>
+      <c r="H10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I10" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS1Lecture/1.05.CADGISIntegration.md</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="2" t="str">
+      <c r="F11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2.00.LabDemonstration.md</v>
       </c>
-      <c r="H10" s="2" t="str">
+      <c r="H11" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I10" s="2" t="str">
+      <c r="I11" s="2" t="str">
         <f t="shared" si="2"/>
         <v>CADGIS2LabDemonstration/2.00.LabDemonstration.md</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.01.FMEDesktopComponents.md</v>
-      </c>
-      <c r="H11" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.02.FMEDesktopComponents.md</v>
-      </c>
-      <c r="I11" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.01.FMEDesktopComponents.md</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -1485,7 +1481,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>69</v>
@@ -1494,22 +1490,22 @@
         <v>68</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.02.IntroductionToWorkbench.md</v>
+        <v>2.01.FMEDesktopComponents.md</v>
       </c>
       <c r="H12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.03.IntroductionToWorkbench.md</v>
+        <v>DesktopBasic1Basics/1.02.FMEDesktopComponents.md</v>
       </c>
       <c r="I12" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.02.IntroductionToWorkbench.md</v>
+        <v>CADGIS2LabDemonstration/2.01.FMEDesktopComponents.md</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -1517,31 +1513,31 @@
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.03.WindowControl.md</v>
+        <v>2.02.IntroductionToWorkbench.md</v>
       </c>
       <c r="H13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.04.WindowControl.md</v>
+        <v>DesktopBasic1Basics/1.03.IntroductionToWorkbench.md</v>
       </c>
       <c r="I13" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.03.WindowControl.md</v>
+        <v>CADGIS2LabDemonstration/2.02.IntroductionToWorkbench.md</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -1549,7 +1545,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>69</v>
@@ -1558,22 +1554,22 @@
         <v>69</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.04.CreatingATranslation.md</v>
+        <v>2.03.WindowControl.md</v>
       </c>
       <c r="H14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.05.CreatingATranslation.md</v>
+        <v>DesktopBasic1Basics/1.04.WindowControl.md</v>
       </c>
       <c r="I14" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.04.CreatingATranslation.md</v>
+        <v>CADGIS2LabDemonstration/2.03.WindowControl.md</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -1581,7 +1577,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>69</v>
@@ -1590,22 +1586,22 @@
         <v>69</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.05.TheNewWorkspace.md</v>
+        <v>2.04.CreatingATranslation.md</v>
       </c>
       <c r="H15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.06.TheNewWorkspace.md</v>
+        <v>DesktopBasic1Basics/1.05.CreatingATranslation.md</v>
       </c>
       <c r="I15" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.05.TheNewWorkspace.md</v>
+        <v>CADGIS2LabDemonstration/2.04.CreatingATranslation.md</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -1613,7 +1609,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>69</v>
@@ -1622,22 +1618,22 @@
         <v>69</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.06.RunningTheWorkspace.md</v>
+        <v>2.05.TheNewWorkspace.md</v>
       </c>
       <c r="H16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.07.RunningTheWorkspace.md</v>
+        <v>DesktopBasic1Basics/1.06.TheNewWorkspace.md</v>
       </c>
       <c r="I16" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.06.RunningTheWorkspace.md</v>
+        <v>CADGIS2LabDemonstration/2.05.TheNewWorkspace.md</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -1645,31 +1641,31 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.07.WhatIsDataInspection.md</v>
+        <v>2.06.RunningTheWorkspace.md</v>
       </c>
       <c r="H17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.08.WhatIsDataInspection.md</v>
+        <v>DesktopBasic1Basics/1.07.RunningTheWorkspace.md</v>
       </c>
       <c r="I17" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.07.WhatIsDataInspection.md</v>
+        <v>CADGIS2LabDemonstration/2.06.RunningTheWorkspace.md</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -1677,31 +1673,31 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.08.IntroductionToDataInspector.md</v>
+        <v>2.07.WhatIsDataInspection.md</v>
       </c>
       <c r="H18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.09.IntroductionToDataInspector.md</v>
+        <v>DesktopBasic1Basics/1.08.WhatIsDataInspection.md</v>
       </c>
       <c r="I18" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.08.IntroductionToDataInspector.md</v>
+        <v>CADGIS2LabDemonstration/2.07.WhatIsDataInspection.md</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1709,7 +1705,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>69</v>
@@ -1718,22 +1714,22 @@
         <v>69</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.09.ViewingData.md</v>
+        <v>2.08.IntroductionToDataInspector.md</v>
       </c>
       <c r="H19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.10.ViewingData.md</v>
+        <v>DesktopBasic1Basics/1.09.IntroductionToDataInspector.md</v>
       </c>
       <c r="I19" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.09.ViewingData.md</v>
+        <v>CADGIS2LabDemonstration/2.08.IntroductionToDataInspector.md</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1741,7 +1737,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>69</v>
@@ -1750,22 +1746,22 @@
         <v>69</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.10.QueryingData.md</v>
+        <v>2.09.ViewingData.md</v>
       </c>
       <c r="H20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.11.QueryingData.md</v>
+        <v>DesktopBasic1Basics/1.10.ViewingData.md</v>
       </c>
       <c r="I20" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.10.QueryingData.md</v>
+        <v>CADGIS2LabDemonstration/2.09.ViewingData.md</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1773,7 +1769,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>69</v>
@@ -1782,22 +1778,22 @@
         <v>69</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.11.DataInspectorDisplayControl.md</v>
+        <v>2.10.QueryingData.md</v>
       </c>
       <c r="H21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.12.DataInspectorDisplayControl.md</v>
+        <v>DesktopBasic1Basics/1.11.QueryingData.md</v>
       </c>
       <c r="I21" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.11.DataInspectorDisplayControl.md</v>
+        <v>CADGIS2LabDemonstration/2.10.QueryingData.md</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -1805,7 +1801,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>69</v>
@@ -1814,22 +1810,22 @@
         <v>69</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.12.BackgroundMaps.md</v>
+        <v>2.11.DataInspectorDisplayControl.md</v>
       </c>
       <c r="H22" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.13.BackgroundMaps.md</v>
+        <v>DesktopBasic1Basics/1.12.DataInspectorDisplayControl.md</v>
       </c>
       <c r="I22" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.12.BackgroundMaps.md</v>
+        <v>CADGIS2LabDemonstration/2.11.DataInspectorDisplayControl.md</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1837,31 +1833,31 @@
         <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.13.ReaderParameters.md</v>
+        <v>2.12.BackgroundMaps.md</v>
       </c>
       <c r="H23" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.14.ReaderParameters.md</v>
+        <v>DesktopBasic1Basics/1.13.BackgroundMaps.md</v>
       </c>
       <c r="I23" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.13.ReaderParameters.md</v>
+        <v>CADGIS2LabDemonstration/2.12.BackgroundMaps.md</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1869,7 +1865,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>69</v>
@@ -1878,30 +1874,30 @@
         <v>68</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.14.WriterParameters.md</v>
+        <v>2.13.ReaderParameters.md</v>
       </c>
       <c r="H24" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.15.WriterParameters.md</v>
+        <v>DesktopBasic1Basics/1.14.ReaderParameters.md</v>
       </c>
       <c r="I24" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.14.WriterParameters.md</v>
+        <v>CADGIS2LabDemonstration/2.13.ReaderParameters.md</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" t="s">
-        <v>39</v>
+      <c r="A25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>69</v>
@@ -1910,22 +1906,22 @@
         <v>68</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G25" s="2" t="str">
-        <f>IF(ISBLANK(A25),C25&amp;"."&amp;E25&amp;"."&amp;B25&amp;".md",C25&amp;"."&amp;E25&amp;"."&amp;RIGHT(B25,LEN(B25)-5))</f>
-        <v>2.15.StructuralTransformation.md</v>
+        <f t="shared" si="0"/>
+        <v>2.14.WriterParameters.md</v>
       </c>
       <c r="H25" s="2" t="str">
-        <f>IF(ISBLANK(A25),"",A25&amp;"/"&amp;B25)</f>
-        <v>DesktopBasic2Transformation/2.02.StructuralTransformation.md</v>
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.15.WriterParameters.md</v>
       </c>
       <c r="I25" s="2" t="str">
-        <f>F25&amp;"/"&amp;G25</f>
-        <v>CADGIS2LabDemonstration/2.15.StructuralTransformation.md</v>
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemonstration/2.14.WriterParameters.md</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -1933,31 +1929,31 @@
         <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G26" s="2" t="str">
-        <f>IF(ISBLANK(A26),C26&amp;"."&amp;E26&amp;"."&amp;B26&amp;".md",C26&amp;"."&amp;E26&amp;"."&amp;RIGHT(B26,LEN(B26)-5))</f>
-        <v>2.16.SchemaEditing.md</v>
+        <f t="shared" si="0"/>
+        <v>2.15.StructuralTransformation.md</v>
       </c>
       <c r="H26" s="2" t="str">
         <f>IF(ISBLANK(A26),"",A26&amp;"/"&amp;B26)</f>
-        <v>DesktopBasic2Transformation/2.03.SchemaEditing.md</v>
+        <v>DesktopBasic2Transformation/2.02.StructuralTransformation.md</v>
       </c>
       <c r="I26" s="2" t="str">
         <f>F26&amp;"/"&amp;G26</f>
-        <v>CADGIS2LabDemonstration/2.16.SchemaEditing.md</v>
+        <v>CADGIS2LabDemonstration/2.15.StructuralTransformation.md</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -1965,7 +1961,7 @@
         <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>69</v>
@@ -1974,22 +1970,22 @@
         <v>69</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G27" s="2" t="str">
-        <f>IF(ISBLANK(A27),C27&amp;"."&amp;E27&amp;"."&amp;B27&amp;".md",C27&amp;"."&amp;E27&amp;"."&amp;RIGHT(B27,LEN(B27)-5))</f>
-        <v>2.17.SchemaMapping.md</v>
+        <f t="shared" si="0"/>
+        <v>2.16.SchemaEditing.md</v>
       </c>
       <c r="H27" s="2" t="str">
         <f>IF(ISBLANK(A27),"",A27&amp;"/"&amp;B27)</f>
-        <v>DesktopBasic2Transformation/2.04.SchemaMapping.md</v>
+        <v>DesktopBasic2Transformation/2.03.SchemaEditing.md</v>
       </c>
       <c r="I27" s="2" t="str">
         <f>F27&amp;"/"&amp;G27</f>
-        <v>CADGIS2LabDemonstration/2.17.SchemaMapping.md</v>
+        <v>CADGIS2LabDemonstration/2.16.SchemaEditing.md</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -1997,31 +1993,31 @@
         <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G28" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.18.TransformationWithTransformers.md</v>
+        <v>2.17.SchemaMapping.md</v>
       </c>
       <c r="H28" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.05.TransformationWithTransformers.md</v>
+        <f>IF(ISBLANK(A28),"",A28&amp;"/"&amp;B28)</f>
+        <v>DesktopBasic2Transformation/2.04.SchemaMapping.md</v>
       </c>
       <c r="I28" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.18.TransformationWithTransformers.md</v>
+        <f>F28&amp;"/"&amp;G28</f>
+        <v>CADGIS2LabDemonstration/2.17.SchemaMapping.md</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -2029,7 +2025,7 @@
         <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>69</v>
@@ -2038,22 +2034,22 @@
         <v>68</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G29" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.19.ContentTransformation.md</v>
+        <v>2.18.TransformationWithTransformers.md</v>
       </c>
       <c r="H29" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.06.ContentTransformation.md</v>
+        <v>DesktopBasic2Transformation/2.05.TransformationWithTransformers.md</v>
       </c>
       <c r="I29" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.19.ContentTransformation.md</v>
+        <v>CADGIS2LabDemonstration/2.18.TransformationWithTransformers.md</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -2061,31 +2057,31 @@
         <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G30" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.20.TransformersInSeries.md</v>
+        <v>2.19.ContentTransformation.md</v>
       </c>
       <c r="H30" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.07.TransformersInSeries.md</v>
+        <v>DesktopBasic2Transformation/2.06.ContentTransformation.md</v>
       </c>
       <c r="I30" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.20.TransformersInSeries.md</v>
+        <v>CADGIS2LabDemonstration/2.19.ContentTransformation.md</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -2093,7 +2089,7 @@
         <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>69</v>
@@ -2102,22 +2098,22 @@
         <v>69</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G31" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.21.FeatureCounts.md</v>
+        <v>2.20.TransformersInSeries.md</v>
       </c>
       <c r="H31" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.08.FeatureCounts.md</v>
+        <v>DesktopBasic2Transformation/2.07.TransformersInSeries.md</v>
       </c>
       <c r="I31" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.21.FeatureCounts.md</v>
+        <v>CADGIS2LabDemonstration/2.20.TransformersInSeries.md</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -2125,7 +2121,7 @@
         <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>69</v>
@@ -2134,22 +2130,22 @@
         <v>69</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G32" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.22.TransformersInParallel.md</v>
+        <v>2.21.FeatureCounts.md</v>
       </c>
       <c r="H32" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.09.TransformersInParallel.md</v>
+        <v>DesktopBasic2Transformation/2.08.FeatureCounts.md</v>
       </c>
       <c r="I32" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.22.TransformersInParallel.md</v>
+        <v>CADGIS2LabDemonstration/2.21.FeatureCounts.md</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -2157,31 +2153,31 @@
         <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G33" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.23.GroupByProcessing.md</v>
+        <v>2.22.TransformersInParallel.md</v>
       </c>
       <c r="H33" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.10.GroupByProcessing.md</v>
+        <v>DesktopBasic2Transformation/2.09.TransformersInParallel.md</v>
       </c>
       <c r="I33" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.23.GroupByProcessing.md</v>
+        <v>CADGIS2LabDemonstration/2.22.TransformersInParallel.md</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -2189,7 +2185,7 @@
         <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>69</v>
@@ -2198,22 +2194,22 @@
         <v>68</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G34" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2.24.DataInspectionFromWorkbench.md</v>
+        <v>2.23.GroupByProcessing.md</v>
       </c>
       <c r="H34" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.11.DataInspectionFromWorkbench.md</v>
+        <v>DesktopBasic2Transformation/2.10.GroupByProcessing.md</v>
       </c>
       <c r="I34" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.24.DataInspectionFromWorkbench.md</v>
+        <v>CADGIS2LabDemonstration/2.23.GroupByProcessing.md</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -2221,7 +2217,7 @@
         <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>69</v>
@@ -2230,72 +2226,75 @@
         <v>68</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G35" s="2" t="str">
         <f t="shared" si="0"/>
+        <v>2.24.DataInspectionFromWorkbench.md</v>
+      </c>
+      <c r="H35" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic2Transformation/2.11.DataInspectionFromWorkbench.md</v>
+      </c>
+      <c r="I35" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>CADGIS2LabDemonstration/2.24.DataInspectionFromWorkbench.md</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>2.25.CoordinateSystemTransformation.md</v>
       </c>
-      <c r="H35" s="2" t="str">
+      <c r="H36" s="2" t="str">
         <f t="shared" si="1"/>
         <v>DesktopBasic2Transformation/2.12.CoordinateSystemTransformation.md</v>
       </c>
-      <c r="I35" s="2" t="str">
+      <c r="I36" s="2" t="str">
         <f t="shared" si="2"/>
         <v>CADGIS2LabDemonstration/2.25.CoordinateSystemTransformation.md</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B36" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>3.00.LabExercises.md</v>
-      </c>
-      <c r="H36" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I36" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.00.LabExercises.md</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G37" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>3.01.GettingStartedWithFMEDesktop.md</v>
+        <v>3.00.LabExercises.md</v>
       </c>
       <c r="H37" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2303,39 +2302,36 @@
       </c>
       <c r="I37" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.01.GettingStartedWithFMEDesktop.md</v>
+        <v>CADGIS3LabExercises/3.00.LabExercises.md</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>20</v>
+      <c r="B38" t="s">
+        <v>88</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G38" s="2" t="str">
-        <f t="shared" ref="G38:G56" si="3">IF(ISBLANK(A38),C38&amp;"."&amp;E38&amp;"."&amp;B38&amp;".md",C38&amp;"."&amp;E38&amp;"."&amp;RIGHT(B38,LEN(B38)-2))</f>
-        <v>3.02.Exercise1.md</v>
+        <f t="shared" si="0"/>
+        <v>3.01.GettingStartedWithFMEDesktop.md</v>
       </c>
       <c r="H38" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise1.md</v>
+        <v/>
       </c>
       <c r="I38" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.02.Exercise1.md</v>
+        <v>CADGIS3LabExercises/3.01.GettingStartedWithFMEDesktop.md</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -2343,7 +2339,7 @@
         <v>15</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>72</v>
@@ -2352,22 +2348,22 @@
         <v>69</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G39" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.03.Exercise2.md</v>
+        <f t="shared" ref="G39:G57" si="3">IF(ISBLANK(A39),C39&amp;"."&amp;E39&amp;"."&amp;B39&amp;".md",C39&amp;"."&amp;E39&amp;"."&amp;RIGHT(B39,LEN(B39)-2))</f>
+        <v>3.02.Exercise1.md</v>
       </c>
       <c r="H39" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise2.md</v>
+        <v>DesktopBasic1Basics/1.Exercise1.md</v>
       </c>
       <c r="I39" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.03.Exercise2.md</v>
+        <v>CADGIS3LabExercises/3.02.Exercise1.md</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -2375,7 +2371,7 @@
         <v>15</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>72</v>
@@ -2384,22 +2380,22 @@
         <v>69</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G40" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.04.Exercise3.md</v>
+        <v>3.03.Exercise2.md</v>
       </c>
       <c r="H40" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise3.md</v>
+        <v>DesktopBasic1Basics/1.Exercise2.md</v>
       </c>
       <c r="I40" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.04.Exercise3.md</v>
+        <v>CADGIS3LabExercises/3.03.Exercise2.md</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -2407,7 +2403,7 @@
         <v>15</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>72</v>
@@ -2416,80 +2412,80 @@
         <v>69</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G41" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.05.Exercise4.md</v>
+        <v>3.04.Exercise3.md</v>
       </c>
       <c r="H41" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise4.md</v>
+        <v>DesktopBasic1Basics/1.Exercise3.md</v>
       </c>
       <c r="I41" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.05.Exercise4.md</v>
+        <v>CADGIS3LabExercises/3.04.Exercise3.md</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B42" s="1" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G42" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.06.DataTransformation.md</v>
+        <v>3.05.Exercise4.md</v>
+      </c>
+      <c r="H42" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>DesktopBasic1Basics/1.Exercise4.md</v>
       </c>
       <c r="I42" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.06.DataTransformation.md</v>
+        <v>CADGIS3LabExercises/3.05.Exercise4.md</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" t="s">
-        <v>61</v>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G43" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.07.Exercise1.md</v>
-      </c>
-      <c r="H43" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise1.md</v>
+        <v>3.06.DataTransformation.md</v>
       </c>
       <c r="I43" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.07.Exercise1.md</v>
+        <v>CADGIS3LabExercises/3.06.DataTransformation.md</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -2497,7 +2493,7 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>72</v>
@@ -2506,22 +2502,22 @@
         <v>69</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G44" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.08.Exercise2.md</v>
+        <v>3.07.Exercise1.md</v>
       </c>
       <c r="H44" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise2.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise1.md</v>
       </c>
       <c r="I44" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.08.Exercise2.md</v>
+        <v>CADGIS3LabExercises/3.07.Exercise1.md</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -2529,7 +2525,7 @@
         <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>72</v>
@@ -2538,22 +2534,22 @@
         <v>69</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G45" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.09.Exercise3.md</v>
+        <v>3.08.Exercise2.md</v>
       </c>
       <c r="H45" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise3.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise2.md</v>
       </c>
       <c r="I45" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.09.Exercise3.md</v>
+        <v>CADGIS3LabExercises/3.08.Exercise2.md</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -2561,7 +2557,7 @@
         <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>72</v>
@@ -2570,22 +2566,22 @@
         <v>69</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G46" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.10.Exercise4.md</v>
+        <v>3.09.Exercise3.md</v>
       </c>
       <c r="H46" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise4.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise3.md</v>
       </c>
       <c r="I46" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.10.Exercise4.md</v>
+        <v>CADGIS3LabExercises/3.09.Exercise3.md</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -2593,7 +2589,7 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>72</v>
@@ -2602,22 +2598,22 @@
         <v>69</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G47" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.11.Exercise5.md</v>
+        <v>3.10.Exercise4.md</v>
       </c>
       <c r="H47" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise5.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise4.md</v>
       </c>
       <c r="I47" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.11.Exercise5.md</v>
+        <v>CADGIS3LabExercises/3.10.Exercise4.md</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -2625,7 +2621,7 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>72</v>
@@ -2634,72 +2630,75 @@
         <v>69</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G48" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.12.Exercise6.md</v>
+        <v>3.11.Exercise5.md</v>
       </c>
       <c r="H48" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise6.md</v>
+        <v>DesktopBasic2Transformation/2.Exercise5.md</v>
       </c>
       <c r="I48" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.12.Exercise6.md</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+        <v>CADGIS3LabExercises/3.11.Exercise5.md</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
       <c r="B49" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G49" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.13.GettingStartedwithAutoCAD.md</v>
+        <v>3.12.Exercise6.md</v>
       </c>
       <c r="H49" s="2" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>DesktopBasic2Transformation/2.Exercise6.md</v>
       </c>
       <c r="I49" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.13.GettingStartedwithAutoCAD.md</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+        <v>CADGIS3LabExercises/3.12.Exercise6.md</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G50" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.14.GroupingEntitiesInDWG.md</v>
+        <v>3.13.GettingStartedwithAutoCAD.md</v>
       </c>
       <c r="H50" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2707,12 +2706,12 @@
       </c>
       <c r="I50" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.14.GroupingEntitiesInDWG.md</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+        <v>CADGIS3LabExercises/3.13.GettingStartedwithAutoCAD.md</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>72</v>
@@ -2721,14 +2720,14 @@
         <v>69</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G51" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.15.HandlingBlocksInDWG.md</v>
+        <v>3.14.GroupingEntitiesInDWG.md</v>
       </c>
       <c r="H51" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2736,12 +2735,12 @@
       </c>
       <c r="I51" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.15.HandlingBlocksInDWG.md</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+        <v>CADGIS3LabExercises/3.14.GroupingEntitiesInDWG.md</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>72</v>
@@ -2750,14 +2749,14 @@
         <v>69</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G52" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.16.DWGToDGN.md</v>
+        <v>3.15.HandlingBlocksInDWG.md</v>
       </c>
       <c r="H52" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2765,12 +2764,12 @@
       </c>
       <c r="I52" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.16.DWGToDGN.md</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+        <v>CADGIS3LabExercises/3.15.HandlingBlocksInDWG.md</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>72</v>
@@ -2779,14 +2778,14 @@
         <v>69</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G53" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.17.SHPToDWG.md</v>
+        <v>3.16.DWGToDGN.md</v>
       </c>
       <c r="H53" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2794,12 +2793,12 @@
       </c>
       <c r="I53" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.17.SHPToDWG.md</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+        <v>CADGIS3LabExercises/3.16.DWGToDGN.md</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>72</v>
@@ -2808,14 +2807,14 @@
         <v>69</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G54" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.18.ExplodingBlockEntitiesInDWG.md</v>
+        <v>3.17.SHPToDWG.md</v>
       </c>
       <c r="H54" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2823,12 +2822,12 @@
       </c>
       <c r="I54" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.18.ExplodingBlockEntitiesInDWG.md</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+        <v>CADGIS3LabExercises/3.17.SHPToDWG.md</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>72</v>
@@ -2837,14 +2836,14 @@
         <v>69</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G55" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.19.PreservingBlockEntitiesInDWG.md</v>
+        <v>3.18.ExplodingBlockEntitiesInDWG.md</v>
       </c>
       <c r="H55" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2852,28 +2851,28 @@
       </c>
       <c r="I55" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.19.PreservingBlockEntitiesInDWG.md</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+        <v>CADGIS3LabExercises/3.18.ExplodingBlockEntitiesInDWG.md</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G56" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>3.20.LabQuestions.md</v>
+        <v>3.19.PreservingBlockEntitiesInDWG.md</v>
       </c>
       <c r="H56" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2881,1740 +2880,37 @@
       </c>
       <c r="I56" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.20.LabQuestions.md</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I56"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="5" width="8.7265625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="1">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="2" t="str">
-        <f>IF(ISBLANK(A1),C1&amp;"."&amp;E1&amp;"."&amp;B1&amp;".md",C1&amp;"."&amp;E1&amp;"."&amp;RIGHT(B1,LEN(B1)-5))</f>
-        <v>0.00.About.md</v>
-      </c>
-      <c r="H1" s="2" t="str">
-        <f>IF(ISBLANK(A1),"",A1&amp;"/"&amp;B1)</f>
-        <v/>
-      </c>
-      <c r="I1" s="2" t="str">
-        <f>F1&amp;"/"&amp;G1</f>
-        <v>CADGIS0About/0.00.About.md</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>CADGIS3LabExercises/3.19.PreservingBlockEntitiesInDWG.md</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="str">
-        <f t="shared" ref="G2:G36" si="0">IF(ISBLANK(A2),C2&amp;"."&amp;E2&amp;"."&amp;B2&amp;".md",C2&amp;"."&amp;E2&amp;"."&amp;RIGHT(B2,LEN(B2)-5))</f>
-        <v>0.01.CourseOverview.md</v>
-      </c>
-      <c r="H2" s="2" t="str">
-        <f t="shared" ref="H2:H55" si="1">IF(ISBLANK(A2),"",A2&amp;"/"&amp;B2)</f>
-        <v/>
-      </c>
-      <c r="I2" s="2" t="str">
-        <f t="shared" ref="I2:I55" si="2">F2&amp;"/"&amp;G2</f>
-        <v>CADGIS0About/0.01.CourseOverview.md</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>0.02.CourseResources.md</v>
-      </c>
-      <c r="H3" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I3" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS0About/0.02.CourseResources.md</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1.00.Lecture.md</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.00.Lecture.md</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1.01.DataIntegration.md</v>
-      </c>
-      <c r="H5" s="2" t="str">
-        <f>IF(ISBLANK(A5),"",A5&amp;"/"&amp;B4)</f>
-        <v/>
-      </c>
-      <c r="I5" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.01.DataIntegration.md</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1.02.WhatIsFME.md</v>
-      </c>
-      <c r="H6" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.01.WhatIsFME.md</v>
-      </c>
-      <c r="I6" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.02.WhatIsFME.md</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1.03.DataTransformation.md</v>
-      </c>
-      <c r="H7" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.00.DataTransformation.md</v>
-      </c>
-      <c r="I7" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.03.DataTransformation.md</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1.04.WhatIsDataTransformation.md</v>
-      </c>
-      <c r="H8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.01.WhatIsDataTransformation.md</v>
-      </c>
-      <c r="I8" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.04.WhatIsDataTransformation.md</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1.05.StructuralTransformation.md</v>
-      </c>
-      <c r="H9" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.02.StructuralTransformation.md</v>
-      </c>
-      <c r="I9" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.05.StructuralTransformation.md</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1.06.SchemaEditing.md</v>
-      </c>
-      <c r="H10" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.03.SchemaEditing.md</v>
-      </c>
-      <c r="I10" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.06.SchemaEditing.md</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1.07.SchemaMapping.md</v>
-      </c>
-      <c r="H11" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.04.SchemaMapping.md</v>
-      </c>
-      <c r="I11" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.07.SchemaMapping.md</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.00.LabDemonstration.md</v>
-      </c>
-      <c r="H12" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I12" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.00.LabDemonstration.md</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.01.FMEDesktopComponents.md</v>
-      </c>
-      <c r="H13" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.02.FMEDesktopComponents.md</v>
-      </c>
-      <c r="I13" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.01.FMEDesktopComponents.md</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.02.IntroductionToWorkbench.md</v>
-      </c>
-      <c r="H14" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.03.IntroductionToWorkbench.md</v>
-      </c>
-      <c r="I14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.02.IntroductionToWorkbench.md</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.03.WindowControl.md</v>
-      </c>
-      <c r="H15" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.04.WindowControl.md</v>
-      </c>
-      <c r="I15" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.03.WindowControl.md</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.04.CreatingATranslation.md</v>
-      </c>
-      <c r="H16" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.05.CreatingATranslation.md</v>
-      </c>
-      <c r="I16" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.04.CreatingATranslation.md</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.05.TheNewWorkspace.md</v>
-      </c>
-      <c r="H17" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.06.TheNewWorkspace.md</v>
-      </c>
-      <c r="I17" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.05.TheNewWorkspace.md</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.06.RunningTheWorkspace.md</v>
-      </c>
-      <c r="H18" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.07.RunningTheWorkspace.md</v>
-      </c>
-      <c r="I18" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.06.RunningTheWorkspace.md</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.07.WhatIsDataInspection.md</v>
-      </c>
-      <c r="H19" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.08.WhatIsDataInspection.md</v>
-      </c>
-      <c r="I19" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.07.WhatIsDataInspection.md</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.08.IntroductionToDataInspector.md</v>
-      </c>
-      <c r="H20" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.09.IntroductionToDataInspector.md</v>
-      </c>
-      <c r="I20" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.08.IntroductionToDataInspector.md</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.09.ViewingData.md</v>
-      </c>
-      <c r="H21" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.10.ViewingData.md</v>
-      </c>
-      <c r="I21" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.09.ViewingData.md</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.10.QueryingData.md</v>
-      </c>
-      <c r="H22" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.11.QueryingData.md</v>
-      </c>
-      <c r="I22" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.10.QueryingData.md</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.11.DataInspectorDisplayControl.md</v>
-      </c>
-      <c r="H23" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.12.DataInspectorDisplayControl.md</v>
-      </c>
-      <c r="I23" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.11.DataInspectorDisplayControl.md</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.12.BackgroundMaps.md</v>
-      </c>
-      <c r="H24" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.13.BackgroundMaps.md</v>
-      </c>
-      <c r="I24" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.12.BackgroundMaps.md</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.13.ReaderParameters.md</v>
-      </c>
-      <c r="H25" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.14.ReaderParameters.md</v>
-      </c>
-      <c r="I25" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.13.ReaderParameters.md</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.14.WriterParameters.md</v>
-      </c>
-      <c r="H26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.15.WriterParameters.md</v>
-      </c>
-      <c r="I26" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.14.WriterParameters.md</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.15.TransformationWithTransformers.md</v>
-      </c>
-      <c r="H27" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.05.TransformationWithTransformers.md</v>
-      </c>
-      <c r="I27" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.15.TransformationWithTransformers.md</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G28" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.16.ContentTransformation.md</v>
-      </c>
-      <c r="H28" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.06.ContentTransformation.md</v>
-      </c>
-      <c r="I28" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.16.ContentTransformation.md</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G29" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.17.TransformersInSeries.md</v>
-      </c>
-      <c r="H29" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.07.TransformersInSeries.md</v>
-      </c>
-      <c r="I29" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.17.TransformersInSeries.md</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G30" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.18.FeatureCounts.md</v>
-      </c>
-      <c r="H30" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.08.FeatureCounts.md</v>
-      </c>
-      <c r="I30" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.18.FeatureCounts.md</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G31" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.19.TransformersInParallel.md</v>
-      </c>
-      <c r="H31" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.09.TransformersInParallel.md</v>
-      </c>
-      <c r="I31" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.19.TransformersInParallel.md</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G32" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.20.GroupByProcessing.md</v>
-      </c>
-      <c r="H32" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.10.GroupByProcessing.md</v>
-      </c>
-      <c r="I32" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.20.GroupByProcessing.md</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G33" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.21.DataInspectionFromWorkbench.md</v>
-      </c>
-      <c r="H33" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.11.DataInspectionFromWorkbench.md</v>
-      </c>
-      <c r="I33" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.21.DataInspectionFromWorkbench.md</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.22.CoordinateSystemTransformation.md</v>
-      </c>
-      <c r="H34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.12.CoordinateSystemTransformation.md</v>
-      </c>
-      <c r="I34" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.22.CoordinateSystemTransformation.md</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>3.00.LabExercises.md</v>
-      </c>
-      <c r="H35" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I35" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.00.LabExercises.md</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>3.01.GettingStartedWithFMEDesktop.md</v>
-      </c>
-      <c r="H36" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I36" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.01.GettingStartedWithFMEDesktop.md</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="2" t="str">
-        <f t="shared" ref="G37:G55" si="3">IF(ISBLANK(A37),C37&amp;"."&amp;E37&amp;"."&amp;B37&amp;".md",C37&amp;"."&amp;E37&amp;"."&amp;RIGHT(B37,LEN(B37)-2))</f>
-        <v>3.02.Exercise1.md</v>
-      </c>
-      <c r="H37" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise1.md</v>
-      </c>
-      <c r="I37" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.02.Exercise1.md</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.03.Exercise2.md</v>
-      </c>
-      <c r="H38" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise2.md</v>
-      </c>
-      <c r="I38" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.03.Exercise2.md</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.04.Exercise3.md</v>
-      </c>
-      <c r="H39" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise3.md</v>
-      </c>
-      <c r="I39" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.04.Exercise3.md</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.05.Exercise4.md</v>
-      </c>
-      <c r="H40" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise4.md</v>
-      </c>
-      <c r="I40" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.05.Exercise4.md</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.06.DataTransformation.md</v>
-      </c>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.06.DataTransformation.md</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.07.Exercise1.md</v>
-      </c>
-      <c r="H42" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise1.md</v>
-      </c>
-      <c r="I42" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.07.Exercise1.md</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.08.Exercise2.md</v>
-      </c>
-      <c r="H43" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise2.md</v>
-      </c>
-      <c r="I43" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.08.Exercise2.md</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.09.Exercise3.md</v>
-      </c>
-      <c r="H44" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise3.md</v>
-      </c>
-      <c r="I44" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.09.Exercise3.md</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.10.Exercise4.md</v>
-      </c>
-      <c r="H45" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise4.md</v>
-      </c>
-      <c r="I45" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.10.Exercise4.md</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.11.Exercise5.md</v>
-      </c>
-      <c r="H46" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise5.md</v>
-      </c>
-      <c r="I46" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.11.Exercise5.md</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.12.Exercise6.md</v>
-      </c>
-      <c r="H47" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise6.md</v>
-      </c>
-      <c r="I47" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.12.Exercise6.md</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B48" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.13.GettingStartedwithAutoCAD.md</v>
-      </c>
-      <c r="H48" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I48" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.13.GettingStartedwithAutoCAD.md</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B49" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.14.GroupingEntitiesInDWG.md</v>
-      </c>
-      <c r="H49" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I49" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.14.GroupingEntitiesInDWG.md</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B50" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.15.HandlingBlocksInDWG.md</v>
-      </c>
-      <c r="H50" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I50" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.15.HandlingBlocksInDWG.md</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B51" t="s">
-        <v>87</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.16.DWGToDGN.md</v>
-      </c>
-      <c r="H51" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I51" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.16.DWGToDGN.md</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B52" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.17.SHPToDWG.md</v>
-      </c>
-      <c r="H52" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I52" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.17.SHPToDWG.md</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B53" t="s">
-        <v>80</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.18.ExplodingBlockEntitiesInDWG.md</v>
-      </c>
-      <c r="H53" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I53" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.18.ExplodingBlockEntitiesInDWG.md</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B54" t="s">
-        <v>81</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.19.PreservingBlockEntitiesInDWG.md</v>
-      </c>
-      <c r="H54" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I54" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.19.PreservingBlockEntitiesInDWG.md</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B55" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" s="2" t="str">
+      <c r="G57" s="2" t="str">
         <f t="shared" si="3"/>
         <v>3.20.LabQuestions.md</v>
       </c>
-      <c r="H55" s="2" t="str">
+      <c r="H57" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I55" s="2" t="str">
+      <c r="I57" s="2" t="str">
         <f t="shared" si="2"/>
         <v>CADGIS3LabExercises/3.20.LabQuestions.md</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="F56" s="1"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/chapters.xlsx
+++ b/chapters.xlsx
@@ -291,9 +291,6 @@
     <t>DataIntegration</t>
   </si>
   <si>
-    <t>indent</t>
-  </si>
-  <si>
     <t>chapter</t>
   </si>
   <si>
@@ -322,6 +319,9 @@
   </si>
   <si>
     <t>CADGISIntegration</t>
+  </si>
+  <si>
+    <t>section</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1133,7 @@
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1149,25 +1149,25 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
         <v>92</v>
       </c>
-      <c r="B1" t="s">
-        <v>93</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>13</v>
@@ -1179,7 +1179,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>68</v>
@@ -2194,7 +2194,7 @@
         <v>68</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>82</v>
@@ -2226,7 +2226,7 @@
         <v>68</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>82</v>
@@ -2258,7 +2258,7 @@
         <v>68</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>82</v>

--- a/chapters.xlsx
+++ b/chapters.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="89">
   <si>
     <t>1.03.IntroductionToWorkbench.md</t>
   </si>
@@ -81,9 +81,6 @@
     <t>1.01.WhatIsFME.md</t>
   </si>
   <si>
-    <t>1.Exercise1.md</t>
-  </si>
-  <si>
     <t>CADGIS3LabExercises</t>
   </si>
   <si>
@@ -195,33 +192,6 @@
     <t>22</t>
   </si>
   <si>
-    <t>1.Exercise2.md</t>
-  </si>
-  <si>
-    <t>1.Exercise3.md</t>
-  </si>
-  <si>
-    <t>1.Exercise4.md</t>
-  </si>
-  <si>
-    <t>2.Exercise1.md</t>
-  </si>
-  <si>
-    <t>2.Exercise2.md</t>
-  </si>
-  <si>
-    <t>2.Exercise3.md</t>
-  </si>
-  <si>
-    <t>2.Exercise4.md</t>
-  </si>
-  <si>
-    <t>2.Exercise5.md</t>
-  </si>
-  <si>
-    <t>2.Exercise6.md</t>
-  </si>
-  <si>
     <t>file</t>
   </si>
   <si>
@@ -273,9 +243,6 @@
     <t>LabDemonstration</t>
   </si>
   <si>
-    <t>DataTransformation</t>
-  </si>
-  <si>
     <t>LabQuestions</t>
   </si>
   <si>
@@ -285,12 +252,6 @@
     <t>SHPToDWG</t>
   </si>
   <si>
-    <t>GettingStartedWithFMEDesktop</t>
-  </si>
-  <si>
-    <t>DataIntegration</t>
-  </si>
-  <si>
     <t>chapter</t>
   </si>
   <si>
@@ -322,6 +283,9 @@
   </si>
   <si>
     <t>section</t>
+  </si>
+  <si>
+    <t>CADGISScenario</t>
   </si>
 </sst>
 </file>
@@ -1130,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1149,25 +1113,25 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>13</v>
@@ -1179,7 +1143,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1188,13 +1152,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="2" t="str">
-        <f>IF(ISBLANK(A2),C2&amp;"."&amp;E2&amp;"."&amp;B2&amp;".md",C2&amp;"."&amp;E2&amp;"."&amp;RIGHT(B2,LEN(B2)-5))</f>
+        <f t="shared" ref="G2:G7" si="0">IF(ISBLANK(A2),C2&amp;"."&amp;E2&amp;"."&amp;B2&amp;".md",C2&amp;"."&amp;E2&amp;"."&amp;RIGHT(B2,LEN(B2)-5))</f>
         <v>0.00.AboutThisDocument.md</v>
       </c>
       <c r="H2" s="2" t="str">
@@ -1202,53 +1166,53 @@
         <v/>
       </c>
       <c r="I2" s="2" t="str">
-        <f>F2&amp;"/"&amp;G2</f>
+        <f t="shared" ref="I2:I45" si="1">F2&amp;"/"&amp;G2</f>
         <v>CADGIS0About/0.00.AboutThisDocument.md</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G38" si="0">IF(ISBLANK(A3),C3&amp;"."&amp;E3&amp;"."&amp;B3&amp;".md",C3&amp;"."&amp;E3&amp;"."&amp;RIGHT(B3,LEN(B3)-5))</f>
+        <f t="shared" si="0"/>
         <v>0.01.CourseOverview.md</v>
       </c>
       <c r="H3" s="2" t="str">
-        <f t="shared" ref="H3:H57" si="1">IF(ISBLANK(A3),"",A3&amp;"/"&amp;B3)</f>
+        <f>IF(ISBLANK(A3),"",A3&amp;"/"&amp;B3)</f>
         <v/>
       </c>
       <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3:I57" si="2">F3&amp;"/"&amp;G3</f>
+        <f t="shared" si="1"/>
         <v>CADGIS0About/0.01.CourseOverview.md</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>16</v>
@@ -1258,27 +1222,27 @@
         <v>0.02.CourseResources.md</v>
       </c>
       <c r="H4" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(A4),"",A4&amp;"/"&amp;B4)</f>
         <v/>
       </c>
       <c r="I4" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>CADGIS0About/0.02.CourseResources.md</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>17</v>
@@ -1288,38 +1252,37 @@
         <v>1.00.Lecture.md</v>
       </c>
       <c r="I5" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>CADGIS1Lecture/1.00.Lecture.md</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.01.DataIntegration.md</v>
+        <v>1.01.CADGISIntegration.md</v>
       </c>
       <c r="H6" s="2" t="str">
-        <f>IF(ISBLANK(A6),"",A6&amp;"/"&amp;B5)</f>
+        <f t="shared" ref="H6:H44" si="2">IF(ISBLANK(A6),"",A6&amp;"/"&amp;B6)</f>
         <v/>
       </c>
       <c r="I6" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.01.DataIntegration.md</v>
+        <f t="shared" si="1"/>
+        <v>CADGIS1Lecture/1.01.CADGISIntegration.md</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -1330,13 +1293,13 @@
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>17</v>
@@ -1346,134 +1309,137 @@
         <v>1.02.WhatIsFME.md</v>
       </c>
       <c r="H7" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>DesktopBasic1Basics/1.01.WhatIsFME.md</v>
       </c>
       <c r="I7" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>CADGIS1Lecture/1.02.WhatIsFME.md</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1.03.DataTransformation.md</v>
+        <f>IF(ISBLANK(A8),C8&amp;"."&amp;E7&amp;"."&amp;B8&amp;".md",C8&amp;"."&amp;E7&amp;"."&amp;RIGHT(B8,LEN(B8)-5))</f>
+        <v>1.02.DataTransformation.md</v>
       </c>
       <c r="H8" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>DesktopBasic2Transformation/2.00.DataTransformation.md</v>
       </c>
       <c r="I8" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.03.DataTransformation.md</v>
+        <f t="shared" si="1"/>
+        <v>CADGIS1Lecture/1.02.DataTransformation.md</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1.04.WhatIsDataTransformation.md</v>
+        <f>IF(ISBLANK(A9),C9&amp;"."&amp;E8&amp;"."&amp;B9&amp;".md",C9&amp;"."&amp;E8&amp;"."&amp;RIGHT(B9,LEN(B9)-5))</f>
+        <v>1.03.WhatIsDataTransformation.md</v>
       </c>
       <c r="H9" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>DesktopBasic2Transformation/2.01.WhatIsDataTransformation.md</v>
       </c>
       <c r="I9" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.04.WhatIsDataTransformation.md</v>
+        <f t="shared" si="1"/>
+        <v>CADGIS1Lecture/1.03.WhatIsDataTransformation.md</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="1" t="s">
-        <v>99</v>
+      <c r="B10" t="s">
+        <v>73</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="G10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1.05.CADGISIntegration.md</v>
+        <f t="shared" ref="G10:G36" si="3">IF(ISBLANK(A10),C10&amp;"."&amp;E10&amp;"."&amp;B10&amp;".md",C10&amp;"."&amp;E10&amp;"."&amp;RIGHT(B10,LEN(B10)-5))</f>
+        <v>2.00.LabDemonstration.md</v>
       </c>
       <c r="H10" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I10" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS1Lecture/1.05.CADGISIntegration.md</v>
+        <f t="shared" si="1"/>
+        <v>CADGIS2LabDemonstration/2.00.LabDemonstration.md</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>83</v>
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.00.LabDemonstration.md</v>
+        <f t="shared" si="3"/>
+        <v>2.01.FMEDesktopComponents.md</v>
       </c>
       <c r="H11" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>DesktopBasic1Basics/1.02.FMEDesktopComponents.md</v>
       </c>
       <c r="I11" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.00.LabDemonstration.md</v>
+        <f t="shared" si="1"/>
+        <v>CADGIS2LabDemonstration/2.01.FMEDesktopComponents.md</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -1481,31 +1447,31 @@
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.01.FMEDesktopComponents.md</v>
+        <f t="shared" si="3"/>
+        <v>2.02.IntroductionToWorkbench.md</v>
       </c>
       <c r="H12" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.02.FMEDesktopComponents.md</v>
+        <f t="shared" si="2"/>
+        <v>DesktopBasic1Basics/1.03.IntroductionToWorkbench.md</v>
       </c>
       <c r="I12" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.01.FMEDesktopComponents.md</v>
+        <f t="shared" si="1"/>
+        <v>CADGIS2LabDemonstration/2.02.IntroductionToWorkbench.md</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -1513,31 +1479,31 @@
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.02.IntroductionToWorkbench.md</v>
+        <f t="shared" si="3"/>
+        <v>2.03.WindowControl.md</v>
       </c>
       <c r="H13" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.03.IntroductionToWorkbench.md</v>
+        <f t="shared" si="2"/>
+        <v>DesktopBasic1Basics/1.04.WindowControl.md</v>
       </c>
       <c r="I13" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.02.IntroductionToWorkbench.md</v>
+        <f t="shared" si="1"/>
+        <v>CADGIS2LabDemonstration/2.03.WindowControl.md</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -1545,31 +1511,31 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.03.WindowControl.md</v>
+        <f t="shared" si="3"/>
+        <v>2.04.CreatingATranslation.md</v>
       </c>
       <c r="H14" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.04.WindowControl.md</v>
+        <f t="shared" si="2"/>
+        <v>DesktopBasic1Basics/1.05.CreatingATranslation.md</v>
       </c>
       <c r="I14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.03.WindowControl.md</v>
+        <f t="shared" si="1"/>
+        <v>CADGIS2LabDemonstration/2.04.CreatingATranslation.md</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -1577,31 +1543,31 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.04.CreatingATranslation.md</v>
+        <f t="shared" si="3"/>
+        <v>2.05.TheNewWorkspace.md</v>
       </c>
       <c r="H15" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.05.CreatingATranslation.md</v>
+        <f t="shared" si="2"/>
+        <v>DesktopBasic1Basics/1.06.TheNewWorkspace.md</v>
       </c>
       <c r="I15" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.04.CreatingATranslation.md</v>
+        <f t="shared" si="1"/>
+        <v>CADGIS2LabDemonstration/2.05.TheNewWorkspace.md</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -1609,31 +1575,31 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.05.TheNewWorkspace.md</v>
+        <f t="shared" si="3"/>
+        <v>2.06.RunningTheWorkspace.md</v>
       </c>
       <c r="H16" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.06.TheNewWorkspace.md</v>
+        <f t="shared" si="2"/>
+        <v>DesktopBasic1Basics/1.07.RunningTheWorkspace.md</v>
       </c>
       <c r="I16" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.05.TheNewWorkspace.md</v>
+        <f t="shared" si="1"/>
+        <v>CADGIS2LabDemonstration/2.06.RunningTheWorkspace.md</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -1641,31 +1607,31 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.06.RunningTheWorkspace.md</v>
+        <f t="shared" si="3"/>
+        <v>2.07.WhatIsDataInspection.md</v>
       </c>
       <c r="H17" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.07.RunningTheWorkspace.md</v>
+        <f t="shared" si="2"/>
+        <v>DesktopBasic1Basics/1.08.WhatIsDataInspection.md</v>
       </c>
       <c r="I17" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.06.RunningTheWorkspace.md</v>
+        <f t="shared" si="1"/>
+        <v>CADGIS2LabDemonstration/2.07.WhatIsDataInspection.md</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -1673,31 +1639,31 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.07.WhatIsDataInspection.md</v>
+        <f t="shared" si="3"/>
+        <v>2.08.IntroductionToDataInspector.md</v>
       </c>
       <c r="H18" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.08.WhatIsDataInspection.md</v>
+        <f t="shared" si="2"/>
+        <v>DesktopBasic1Basics/1.09.IntroductionToDataInspector.md</v>
       </c>
       <c r="I18" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.07.WhatIsDataInspection.md</v>
+        <f t="shared" si="1"/>
+        <v>CADGIS2LabDemonstration/2.08.IntroductionToDataInspector.md</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1705,31 +1671,31 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.08.IntroductionToDataInspector.md</v>
+        <f t="shared" si="3"/>
+        <v>2.09.ViewingData.md</v>
       </c>
       <c r="H19" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.09.IntroductionToDataInspector.md</v>
+        <f t="shared" si="2"/>
+        <v>DesktopBasic1Basics/1.10.ViewingData.md</v>
       </c>
       <c r="I19" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.08.IntroductionToDataInspector.md</v>
+        <f t="shared" si="1"/>
+        <v>CADGIS2LabDemonstration/2.09.ViewingData.md</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1737,31 +1703,31 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.09.ViewingData.md</v>
+        <f t="shared" si="3"/>
+        <v>2.10.QueryingData.md</v>
       </c>
       <c r="H20" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.10.ViewingData.md</v>
+        <f t="shared" si="2"/>
+        <v>DesktopBasic1Basics/1.11.QueryingData.md</v>
       </c>
       <c r="I20" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.09.ViewingData.md</v>
+        <f t="shared" si="1"/>
+        <v>CADGIS2LabDemonstration/2.10.QueryingData.md</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1769,31 +1735,31 @@
         <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.10.QueryingData.md</v>
+        <f t="shared" si="3"/>
+        <v>2.11.DataInspectorDisplayControl.md</v>
       </c>
       <c r="H21" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.11.QueryingData.md</v>
+        <f t="shared" si="2"/>
+        <v>DesktopBasic1Basics/1.12.DataInspectorDisplayControl.md</v>
       </c>
       <c r="I21" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.10.QueryingData.md</v>
+        <f t="shared" si="1"/>
+        <v>CADGIS2LabDemonstration/2.11.DataInspectorDisplayControl.md</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -1801,31 +1767,31 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.11.DataInspectorDisplayControl.md</v>
+        <f t="shared" si="3"/>
+        <v>2.12.BackgroundMaps.md</v>
       </c>
       <c r="H22" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.12.DataInspectorDisplayControl.md</v>
+        <f t="shared" si="2"/>
+        <v>DesktopBasic1Basics/1.13.BackgroundMaps.md</v>
       </c>
       <c r="I22" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.11.DataInspectorDisplayControl.md</v>
+        <f t="shared" si="1"/>
+        <v>CADGIS2LabDemonstration/2.12.BackgroundMaps.md</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1833,31 +1799,31 @@
         <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.12.BackgroundMaps.md</v>
+        <f t="shared" si="3"/>
+        <v>2.13.ReaderParameters.md</v>
       </c>
       <c r="H23" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.13.BackgroundMaps.md</v>
+        <f t="shared" si="2"/>
+        <v>DesktopBasic1Basics/1.14.ReaderParameters.md</v>
       </c>
       <c r="I23" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.12.BackgroundMaps.md</v>
+        <f t="shared" si="1"/>
+        <v>CADGIS2LabDemonstration/2.13.ReaderParameters.md</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1865,1051 +1831,673 @@
         <v>15</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.13.ReaderParameters.md</v>
+        <f t="shared" si="3"/>
+        <v>2.14.WriterParameters.md</v>
       </c>
       <c r="H24" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.14.ReaderParameters.md</v>
+        <f t="shared" si="2"/>
+        <v>DesktopBasic1Basics/1.15.WriterParameters.md</v>
       </c>
       <c r="I24" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.13.ReaderParameters.md</v>
+        <f t="shared" si="1"/>
+        <v>CADGIS2LabDemonstration/2.14.WriterParameters.md</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>12</v>
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.14.WriterParameters.md</v>
+        <f t="shared" si="3"/>
+        <v>2.15.StructuralTransformation.md</v>
       </c>
       <c r="H25" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.15.WriterParameters.md</v>
+        <f t="shared" si="2"/>
+        <v>DesktopBasic2Transformation/2.02.StructuralTransformation.md</v>
       </c>
       <c r="I25" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.14.WriterParameters.md</v>
+        <f t="shared" si="1"/>
+        <v>CADGIS2LabDemonstration/2.15.StructuralTransformation.md</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.15.StructuralTransformation.md</v>
+        <f t="shared" si="3"/>
+        <v>2.16.SchemaEditing.md</v>
       </c>
       <c r="H26" s="2" t="str">
-        <f>IF(ISBLANK(A26),"",A26&amp;"/"&amp;B26)</f>
-        <v>DesktopBasic2Transformation/2.02.StructuralTransformation.md</v>
+        <f t="shared" si="2"/>
+        <v>DesktopBasic2Transformation/2.03.SchemaEditing.md</v>
       </c>
       <c r="I26" s="2" t="str">
-        <f>F26&amp;"/"&amp;G26</f>
-        <v>CADGIS2LabDemonstration/2.15.StructuralTransformation.md</v>
+        <f t="shared" si="1"/>
+        <v>CADGIS2LabDemonstration/2.16.SchemaEditing.md</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
         <v>40</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.16.SchemaEditing.md</v>
+        <f t="shared" si="3"/>
+        <v>2.17.SchemaMapping.md</v>
       </c>
       <c r="H27" s="2" t="str">
-        <f>IF(ISBLANK(A27),"",A27&amp;"/"&amp;B27)</f>
-        <v>DesktopBasic2Transformation/2.03.SchemaEditing.md</v>
+        <f t="shared" si="2"/>
+        <v>DesktopBasic2Transformation/2.04.SchemaMapping.md</v>
       </c>
       <c r="I27" s="2" t="str">
-        <f>F27&amp;"/"&amp;G27</f>
-        <v>CADGIS2LabDemonstration/2.16.SchemaEditing.md</v>
+        <f t="shared" si="1"/>
+        <v>CADGIS2LabDemonstration/2.17.SchemaMapping.md</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
         <v>41</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G28" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.17.SchemaMapping.md</v>
+        <f t="shared" si="3"/>
+        <v>2.18.TransformationWithTransformers.md</v>
       </c>
       <c r="H28" s="2" t="str">
-        <f>IF(ISBLANK(A28),"",A28&amp;"/"&amp;B28)</f>
-        <v>DesktopBasic2Transformation/2.04.SchemaMapping.md</v>
+        <f t="shared" si="2"/>
+        <v>DesktopBasic2Transformation/2.05.TransformationWithTransformers.md</v>
       </c>
       <c r="I28" s="2" t="str">
-        <f>F28&amp;"/"&amp;G28</f>
-        <v>CADGIS2LabDemonstration/2.17.SchemaMapping.md</v>
+        <f t="shared" si="1"/>
+        <v>CADGIS2LabDemonstration/2.18.TransformationWithTransformers.md</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
         <v>42</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G29" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.18.TransformationWithTransformers.md</v>
+        <f t="shared" si="3"/>
+        <v>2.19.ContentTransformation.md</v>
       </c>
       <c r="H29" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.05.TransformationWithTransformers.md</v>
+        <f t="shared" si="2"/>
+        <v>DesktopBasic2Transformation/2.06.ContentTransformation.md</v>
       </c>
       <c r="I29" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.18.TransformationWithTransformers.md</v>
+        <f t="shared" si="1"/>
+        <v>CADGIS2LabDemonstration/2.19.ContentTransformation.md</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G30" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.19.ContentTransformation.md</v>
+        <f t="shared" si="3"/>
+        <v>2.20.TransformersInSeries.md</v>
       </c>
       <c r="H30" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.06.ContentTransformation.md</v>
+        <f t="shared" si="2"/>
+        <v>DesktopBasic2Transformation/2.07.TransformersInSeries.md</v>
       </c>
       <c r="I30" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.19.ContentTransformation.md</v>
+        <f t="shared" si="1"/>
+        <v>CADGIS2LabDemonstration/2.20.TransformersInSeries.md</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G31" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.20.TransformersInSeries.md</v>
+        <f t="shared" si="3"/>
+        <v>2.21.FeatureCounts.md</v>
       </c>
       <c r="H31" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.07.TransformersInSeries.md</v>
+        <f t="shared" si="2"/>
+        <v>DesktopBasic2Transformation/2.08.FeatureCounts.md</v>
       </c>
       <c r="I31" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.20.TransformersInSeries.md</v>
+        <f t="shared" si="1"/>
+        <v>CADGIS2LabDemonstration/2.21.FeatureCounts.md</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G32" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.21.FeatureCounts.md</v>
+        <f t="shared" si="3"/>
+        <v>2.22.TransformersInParallel.md</v>
       </c>
       <c r="H32" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.08.FeatureCounts.md</v>
+        <f t="shared" si="2"/>
+        <v>DesktopBasic2Transformation/2.09.TransformersInParallel.md</v>
       </c>
       <c r="I32" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.21.FeatureCounts.md</v>
+        <f t="shared" si="1"/>
+        <v>CADGIS2LabDemonstration/2.22.TransformersInParallel.md</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
         <v>46</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G33" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.22.TransformersInParallel.md</v>
+        <f t="shared" si="3"/>
+        <v>2.23.GroupByProcessing.md</v>
       </c>
       <c r="H33" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.09.TransformersInParallel.md</v>
+        <f t="shared" si="2"/>
+        <v>DesktopBasic2Transformation/2.10.GroupByProcessing.md</v>
       </c>
       <c r="I33" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.22.TransformersInParallel.md</v>
+        <f t="shared" si="1"/>
+        <v>CADGIS2LabDemonstration/2.23.GroupByProcessing.md</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
         <v>47</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.23.GroupByProcessing.md</v>
+        <f t="shared" si="3"/>
+        <v>2.24.DataInspectionFromWorkbench.md</v>
       </c>
       <c r="H34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.10.GroupByProcessing.md</v>
+        <f t="shared" si="2"/>
+        <v>DesktopBasic2Transformation/2.11.DataInspectionFromWorkbench.md</v>
       </c>
       <c r="I34" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.23.GroupByProcessing.md</v>
+        <f t="shared" si="1"/>
+        <v>CADGIS2LabDemonstration/2.24.DataInspectionFromWorkbench.md</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
         <v>48</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G35" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.24.DataInspectionFromWorkbench.md</v>
+        <f t="shared" si="3"/>
+        <v>2.25.CoordinateSystemTransformation.md</v>
       </c>
       <c r="H35" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.11.DataInspectionFromWorkbench.md</v>
+        <f t="shared" si="2"/>
+        <v>DesktopBasic2Transformation/2.12.CoordinateSystemTransformation.md</v>
       </c>
       <c r="I35" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.24.DataInspectionFromWorkbench.md</v>
+        <f t="shared" si="1"/>
+        <v>CADGIS2LabDemonstration/2.25.CoordinateSystemTransformation.md</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>50</v>
-      </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="G36" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2.25.CoordinateSystemTransformation.md</v>
+        <f t="shared" si="3"/>
+        <v>3.00.LabExercises.md</v>
       </c>
       <c r="H36" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.12.CoordinateSystemTransformation.md</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="I36" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS2LabDemonstration/2.25.CoordinateSystemTransformation.md</v>
+        <f t="shared" si="1"/>
+        <v>CADGIS3LabExercises/3.00.LabExercises.md</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G37" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>3.00.LabExercises.md</v>
+        <f t="shared" ref="G37:G44" si="4">IF(ISBLANK(A37),C37&amp;"."&amp;E37&amp;"."&amp;B37&amp;".md",C37&amp;"."&amp;E37&amp;"."&amp;RIGHT(B37,LEN(B37)-2))</f>
+        <v>3.01.GettingStartedwithAutoCAD.md</v>
       </c>
       <c r="H37" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I37" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.00.LabExercises.md</v>
+        <f t="shared" si="1"/>
+        <v>CADGIS3LabExercises/3.01.GettingStartedwithAutoCAD.md</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>3.02.GroupingEntitiesInDWG.md</v>
+      </c>
+      <c r="H38" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I38" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CADGIS3LabExercises/3.02.GroupingEntitiesInDWG.md</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
         <v>68</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>3.01.GettingStartedWithFMEDesktop.md</v>
-      </c>
-      <c r="H38" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I38" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.01.GettingStartedWithFMEDesktop.md</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C39" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G39" s="2" t="str">
-        <f t="shared" ref="G39:G57" si="3">IF(ISBLANK(A39),C39&amp;"."&amp;E39&amp;"."&amp;B39&amp;".md",C39&amp;"."&amp;E39&amp;"."&amp;RIGHT(B39,LEN(B39)-2))</f>
-        <v>3.02.Exercise1.md</v>
+        <f t="shared" si="4"/>
+        <v>3.03.HandlingBlocksInDWG.md</v>
       </c>
       <c r="H39" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise1.md</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="I39" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.02.Exercise1.md</v>
+        <f t="shared" si="1"/>
+        <v>CADGIS3LabExercises/3.03.HandlingBlocksInDWG.md</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>58</v>
+      <c r="B40" t="s">
+        <v>75</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G40" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.03.Exercise2.md</v>
+        <f t="shared" si="4"/>
+        <v>3.04.DWGToDGN.md</v>
       </c>
       <c r="H40" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise2.md</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="I40" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.03.Exercise2.md</v>
+        <f t="shared" si="1"/>
+        <v>CADGIS3LabExercises/3.04.DWGToDGN.md</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>59</v>
+      <c r="B41" t="s">
+        <v>76</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G41" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.04.Exercise3.md</v>
+        <f t="shared" si="4"/>
+        <v>3.05.SHPToDWG.md</v>
       </c>
       <c r="H41" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise3.md</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="I41" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.04.Exercise3.md</v>
+        <f t="shared" si="1"/>
+        <v>CADGIS3LabExercises/3.05.SHPToDWG.md</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>60</v>
+      <c r="B42" t="s">
+        <v>70</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G42" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.05.Exercise4.md</v>
+        <f t="shared" si="4"/>
+        <v>3.06.ExplodingBlockEntitiesInDWG.md</v>
       </c>
       <c r="H42" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic1Basics/1.Exercise4.md</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="I42" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.05.Exercise4.md</v>
+        <f t="shared" si="1"/>
+        <v>CADGIS3LabExercises/3.06.ExplodingBlockEntitiesInDWG.md</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1" t="s">
-        <v>84</v>
+      <c r="B43" t="s">
+        <v>71</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G43" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.06.DataTransformation.md</v>
+        <f t="shared" si="4"/>
+        <v>3.07.PreservingBlockEntitiesInDWG.md</v>
+      </c>
+      <c r="H43" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="I43" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.06.DataTransformation.md</v>
+        <f t="shared" si="1"/>
+        <v>CADGIS3LabExercises/3.07.PreservingBlockEntitiesInDWG.md</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>50</v>
-      </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G44" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.07.Exercise1.md</v>
+        <f t="shared" si="4"/>
+        <v>3.08.CADGISScenario.md</v>
       </c>
       <c r="H44" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise1.md</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="I44" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.07.Exercise1.md</v>
+        <f t="shared" si="1"/>
+        <v>CADGIS3LabExercises/3.08.CADGISScenario.md</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>50</v>
-      </c>
       <c r="B45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D45" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G45" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.08.Exercise2.md</v>
+        <f>IF(ISBLANK(A44),C45&amp;"."&amp;E45&amp;"."&amp;B45&amp;".md",C45&amp;"."&amp;E45&amp;"."&amp;RIGHT(B45,LEN(B45)-2))</f>
+        <v>3.09.LabQuestions.md</v>
       </c>
       <c r="H45" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise2.md</v>
+        <f>IF(ISBLANK(A44),"",A44&amp;"/"&amp;B45)</f>
+        <v/>
       </c>
       <c r="I45" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.08.Exercise2.md</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.09.Exercise3.md</v>
-      </c>
-      <c r="H46" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise3.md</v>
-      </c>
-      <c r="I46" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.09.Exercise3.md</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.10.Exercise4.md</v>
-      </c>
-      <c r="H47" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise4.md</v>
-      </c>
-      <c r="I47" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.10.Exercise4.md</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.11.Exercise5.md</v>
-      </c>
-      <c r="H48" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise5.md</v>
-      </c>
-      <c r="I48" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.11.Exercise5.md</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.12.Exercise6.md</v>
-      </c>
-      <c r="H49" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DesktopBasic2Transformation/2.Exercise6.md</v>
-      </c>
-      <c r="I49" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.12.Exercise6.md</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B50" t="s">
-        <v>77</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.13.GettingStartedwithAutoCAD.md</v>
-      </c>
-      <c r="H50" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I50" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.13.GettingStartedwithAutoCAD.md</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B51" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.14.GroupingEntitiesInDWG.md</v>
-      </c>
-      <c r="H51" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I51" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.14.GroupingEntitiesInDWG.md</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B52" t="s">
-        <v>78</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.15.HandlingBlocksInDWG.md</v>
-      </c>
-      <c r="H52" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I52" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.15.HandlingBlocksInDWG.md</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B53" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.16.DWGToDGN.md</v>
-      </c>
-      <c r="H53" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I53" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.16.DWGToDGN.md</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B54" t="s">
-        <v>87</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.17.SHPToDWG.md</v>
-      </c>
-      <c r="H54" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I54" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.17.SHPToDWG.md</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B55" t="s">
-        <v>80</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.18.ExplodingBlockEntitiesInDWG.md</v>
-      </c>
-      <c r="H55" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I55" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.18.ExplodingBlockEntitiesInDWG.md</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B56" t="s">
-        <v>81</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.19.PreservingBlockEntitiesInDWG.md</v>
-      </c>
-      <c r="H56" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I56" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.19.PreservingBlockEntitiesInDWG.md</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B57" t="s">
-        <v>85</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.20.LabQuestions.md</v>
-      </c>
-      <c r="H57" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I57" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CADGIS3LabExercises/3.20.LabQuestions.md</v>
+        <f t="shared" si="1"/>
+        <v>CADGIS3LabExercises/3.09.LabQuestions.md</v>
       </c>
     </row>
   </sheetData>

--- a/chapters.xlsx
+++ b/chapters.xlsx
@@ -210,12 +210,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>CourseOverview</t>
-  </si>
-  <si>
-    <t>CourseResources</t>
-  </si>
-  <si>
     <t>Lecture</t>
   </si>
   <si>
@@ -286,6 +280,12 @@
   </si>
   <si>
     <t>CADGISScenario</t>
+  </si>
+  <si>
+    <t>ModuleOverview</t>
+  </si>
+  <si>
+    <t>ModuleResources</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1097,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1113,25 +1113,25 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>13</v>
@@ -1143,7 +1143,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="2" t="str">
-        <f t="shared" ref="G2:G7" si="0">IF(ISBLANK(A2),C2&amp;"."&amp;E2&amp;"."&amp;B2&amp;".md",C2&amp;"."&amp;E2&amp;"."&amp;RIGHT(B2,LEN(B2)-5))</f>
+        <f t="shared" ref="G2:G45" si="0">IF(ISBLANK(A2),C2&amp;"."&amp;E2&amp;"."&amp;B2&amp;".md",C2&amp;"."&amp;E2&amp;"."&amp;RIGHT(B2,LEN(B2)-5))</f>
         <v>0.00.AboutThisDocument.md</v>
       </c>
       <c r="H2" s="2" t="str">
@@ -1173,7 +1173,7 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="G3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.01.CourseOverview.md</v>
+        <v>0.01.ModuleOverview.md</v>
       </c>
       <c r="H3" s="2" t="str">
         <f>IF(ISBLANK(A3),"",A3&amp;"/"&amp;B3)</f>
@@ -1197,13 +1197,13 @@
       </c>
       <c r="I3" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>CADGIS0About/0.01.CourseOverview.md</v>
+        <v>CADGIS0About/0.01.ModuleOverview.md</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="G4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.02.CourseResources.md</v>
+        <v>0.02.ModuleResources.md</v>
       </c>
       <c r="H4" s="2" t="str">
         <f>IF(ISBLANK(A4),"",A4&amp;"/"&amp;B4)</f>
@@ -1227,13 +1227,13 @@
       </c>
       <c r="I4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>CADGIS0About/0.02.CourseResources.md</v>
+        <v>CADGIS0About/0.02.ModuleResources.md</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>58</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>58</v>
@@ -1337,8 +1337,8 @@
         <v>17</v>
       </c>
       <c r="G8" s="2" t="str">
-        <f>IF(ISBLANK(A8),C8&amp;"."&amp;E7&amp;"."&amp;B8&amp;".md",C8&amp;"."&amp;E7&amp;"."&amp;RIGHT(B8,LEN(B8)-5))</f>
-        <v>1.02.DataTransformation.md</v>
+        <f t="shared" si="0"/>
+        <v>1.03.DataTransformation.md</v>
       </c>
       <c r="H8" s="2" t="str">
         <f t="shared" si="2"/>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>CADGIS1Lecture/1.02.DataTransformation.md</v>
+        <v>CADGIS1Lecture/1.03.DataTransformation.md</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -1369,8 +1369,8 @@
         <v>17</v>
       </c>
       <c r="G9" s="2" t="str">
-        <f>IF(ISBLANK(A9),C9&amp;"."&amp;E8&amp;"."&amp;B9&amp;".md",C9&amp;"."&amp;E8&amp;"."&amp;RIGHT(B9,LEN(B9)-5))</f>
-        <v>1.03.WhatIsDataTransformation.md</v>
+        <f t="shared" si="0"/>
+        <v>1.04.WhatIsDataTransformation.md</v>
       </c>
       <c r="H9" s="2" t="str">
         <f t="shared" si="2"/>
@@ -1378,12 +1378,12 @@
       </c>
       <c r="I9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>CADGIS1Lecture/1.03.WhatIsDataTransformation.md</v>
+        <v>CADGIS1Lecture/1.04.WhatIsDataTransformation.md</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>59</v>
@@ -1395,10 +1395,10 @@
         <v>61</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G10" s="2" t="str">
-        <f t="shared" ref="G10:G36" si="3">IF(ISBLANK(A10),C10&amp;"."&amp;E10&amp;"."&amp;B10&amp;".md",C10&amp;"."&amp;E10&amp;"."&amp;RIGHT(B10,LEN(B10)-5))</f>
+        <f t="shared" si="0"/>
         <v>2.00.LabDemonstration.md</v>
       </c>
       <c r="H10" s="2" t="str">
@@ -1427,10 +1427,10 @@
         <v>21</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G11" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2.01.FMEDesktopComponents.md</v>
       </c>
       <c r="H11" s="2" t="str">
@@ -1459,10 +1459,10 @@
         <v>23</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G12" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2.02.IntroductionToWorkbench.md</v>
       </c>
       <c r="H12" s="2" t="str">
@@ -1491,10 +1491,10 @@
         <v>24</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G13" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2.03.WindowControl.md</v>
       </c>
       <c r="H13" s="2" t="str">
@@ -1523,10 +1523,10 @@
         <v>25</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G14" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2.04.CreatingATranslation.md</v>
       </c>
       <c r="H14" s="2" t="str">
@@ -1555,10 +1555,10 @@
         <v>26</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G15" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2.05.TheNewWorkspace.md</v>
       </c>
       <c r="H15" s="2" t="str">
@@ -1587,10 +1587,10 @@
         <v>27</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G16" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2.06.RunningTheWorkspace.md</v>
       </c>
       <c r="H16" s="2" t="str">
@@ -1619,10 +1619,10 @@
         <v>28</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G17" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2.07.WhatIsDataInspection.md</v>
       </c>
       <c r="H17" s="2" t="str">
@@ -1651,10 +1651,10 @@
         <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G18" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2.08.IntroductionToDataInspector.md</v>
       </c>
       <c r="H18" s="2" t="str">
@@ -1683,10 +1683,10 @@
         <v>30</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G19" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2.09.ViewingData.md</v>
       </c>
       <c r="H19" s="2" t="str">
@@ -1715,10 +1715,10 @@
         <v>31</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G20" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2.10.QueryingData.md</v>
       </c>
       <c r="H20" s="2" t="str">
@@ -1747,10 +1747,10 @@
         <v>22</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G21" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2.11.DataInspectorDisplayControl.md</v>
       </c>
       <c r="H21" s="2" t="str">
@@ -1779,10 +1779,10 @@
         <v>32</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G22" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2.12.BackgroundMaps.md</v>
       </c>
       <c r="H22" s="2" t="str">
@@ -1811,10 +1811,10 @@
         <v>33</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G23" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2.13.ReaderParameters.md</v>
       </c>
       <c r="H23" s="2" t="str">
@@ -1843,10 +1843,10 @@
         <v>34</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G24" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2.14.WriterParameters.md</v>
       </c>
       <c r="H24" s="2" t="str">
@@ -1875,10 +1875,10 @@
         <v>35</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G25" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2.15.StructuralTransformation.md</v>
       </c>
       <c r="H25" s="2" t="str">
@@ -1907,10 +1907,10 @@
         <v>50</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G26" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2.16.SchemaEditing.md</v>
       </c>
       <c r="H26" s="2" t="str">
@@ -1939,10 +1939,10 @@
         <v>51</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G27" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2.17.SchemaMapping.md</v>
       </c>
       <c r="H27" s="2" t="str">
@@ -1971,10 +1971,10 @@
         <v>52</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G28" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2.18.TransformationWithTransformers.md</v>
       </c>
       <c r="H28" s="2" t="str">
@@ -2003,10 +2003,10 @@
         <v>53</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G29" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2.19.ContentTransformation.md</v>
       </c>
       <c r="H29" s="2" t="str">
@@ -2035,10 +2035,10 @@
         <v>54</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G30" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2.20.TransformersInSeries.md</v>
       </c>
       <c r="H30" s="2" t="str">
@@ -2067,10 +2067,10 @@
         <v>55</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G31" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2.21.FeatureCounts.md</v>
       </c>
       <c r="H31" s="2" t="str">
@@ -2099,10 +2099,10 @@
         <v>56</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G32" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2.22.TransformersInParallel.md</v>
       </c>
       <c r="H32" s="2" t="str">
@@ -2128,13 +2128,13 @@
         <v>58</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G33" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2.23.GroupByProcessing.md</v>
       </c>
       <c r="H33" s="2" t="str">
@@ -2160,13 +2160,13 @@
         <v>58</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G34" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2.24.DataInspectionFromWorkbench.md</v>
       </c>
       <c r="H34" s="2" t="str">
@@ -2192,13 +2192,13 @@
         <v>58</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G35" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2.25.CoordinateSystemTransformation.md</v>
       </c>
       <c r="H35" s="2" t="str">
@@ -2212,7 +2212,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>62</v>
@@ -2227,7 +2227,7 @@
         <v>20</v>
       </c>
       <c r="G36" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3.00.LabExercises.md</v>
       </c>
       <c r="H36" s="2" t="str">
@@ -2241,7 +2241,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>62</v>
@@ -2256,7 +2256,7 @@
         <v>20</v>
       </c>
       <c r="G37" s="2" t="str">
-        <f t="shared" ref="G37:G44" si="4">IF(ISBLANK(A37),C37&amp;"."&amp;E37&amp;"."&amp;B37&amp;".md",C37&amp;"."&amp;E37&amp;"."&amp;RIGHT(B37,LEN(B37)-2))</f>
+        <f t="shared" si="0"/>
         <v>3.01.GettingStartedwithAutoCAD.md</v>
       </c>
       <c r="H37" s="2" t="str">
@@ -2270,7 +2270,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>62</v>
@@ -2285,7 +2285,7 @@
         <v>20</v>
       </c>
       <c r="G38" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.02.GroupingEntitiesInDWG.md</v>
       </c>
       <c r="H38" s="2" t="str">
@@ -2299,7 +2299,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>62</v>
@@ -2314,7 +2314,7 @@
         <v>20</v>
       </c>
       <c r="G39" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.03.HandlingBlocksInDWG.md</v>
       </c>
       <c r="H39" s="2" t="str">
@@ -2328,7 +2328,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>62</v>
@@ -2343,7 +2343,7 @@
         <v>20</v>
       </c>
       <c r="G40" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.04.DWGToDGN.md</v>
       </c>
       <c r="H40" s="2" t="str">
@@ -2357,7 +2357,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>62</v>
@@ -2372,7 +2372,7 @@
         <v>20</v>
       </c>
       <c r="G41" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.05.SHPToDWG.md</v>
       </c>
       <c r="H41" s="2" t="str">
@@ -2386,7 +2386,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>62</v>
@@ -2401,7 +2401,7 @@
         <v>20</v>
       </c>
       <c r="G42" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.06.ExplodingBlockEntitiesInDWG.md</v>
       </c>
       <c r="H42" s="2" t="str">
@@ -2415,7 +2415,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>62</v>
@@ -2430,7 +2430,7 @@
         <v>20</v>
       </c>
       <c r="G43" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.07.PreservingBlockEntitiesInDWG.md</v>
       </c>
       <c r="H43" s="2" t="str">
@@ -2444,7 +2444,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>62</v>
@@ -2459,7 +2459,7 @@
         <v>20</v>
       </c>
       <c r="G44" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.08.CADGISScenario.md</v>
       </c>
       <c r="H44" s="2" t="str">
@@ -2473,7 +2473,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>62</v>
@@ -2488,7 +2488,7 @@
         <v>20</v>
       </c>
       <c r="G45" s="2" t="str">
-        <f>IF(ISBLANK(A44),C45&amp;"."&amp;E45&amp;"."&amp;B45&amp;".md",C45&amp;"."&amp;E45&amp;"."&amp;RIGHT(B45,LEN(B45)-2))</f>
+        <f t="shared" si="0"/>
         <v>3.09.LabQuestions.md</v>
       </c>
       <c r="H45" s="2" t="str">

--- a/chapters.xlsx
+++ b/chapters.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="97">
   <si>
     <t>1.03.IntroductionToWorkbench.md</t>
   </si>
@@ -286,13 +286,37 @@
   </si>
   <si>
     <t>ModuleResources</t>
+  </si>
+  <si>
+    <t>https://knowledge.safe.com/content/kbentry/22435/getting-started-with-autocad-and-fme-reader-parame.html</t>
+  </si>
+  <si>
+    <t>https://knowledge.safe.com/articles/27244/viewing-and-inspecting-autocad-dwg-data-handling-b.html</t>
+  </si>
+  <si>
+    <t>https://knowledge.safe.com/articles/22968/getting-started-with-autocad.html</t>
+  </si>
+  <si>
+    <t>https://knowledge.safe.com/articles/1470/how-to-convert-dwg-to-dgn-autocad-to-microstation.html</t>
+  </si>
+  <si>
+    <t>https://knowledge.safe.com/articles/18703/how-to-convert-shp-to-dwg-esri-shapefile-to-autoca.html</t>
+  </si>
+  <si>
+    <t>https://knowledge.safe.com/articles/27245/basic-dwg-block-handling-example-exploding-block-e.html</t>
+  </si>
+  <si>
+    <t>https://knowledge.safe.com/articles/18737/tutorial-getting-started-with-autocad-and-fme.html</t>
+  </si>
+  <si>
+    <t>kc_link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,6 +451,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -725,7 +757,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -768,13 +800,15 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -808,6 +842,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1094,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1111,7 +1146,7 @@
     <col min="9" max="9" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -1139,8 +1174,11 @@
       <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>80</v>
@@ -1170,7 +1208,7 @@
         <v>CADGIS0About/0.00.AboutThisDocument.md</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>87</v>
@@ -1200,7 +1238,7 @@
         <v>CADGIS0About/0.01.ModuleOverview.md</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>88</v>
@@ -1230,7 +1268,7 @@
         <v>CADGIS0About/0.02.ModuleResources.md</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>63</v>
@@ -1256,7 +1294,7 @@
         <v>CADGIS1Lecture/1.00.Lecture.md</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>84</v>
       </c>
@@ -1277,7 +1315,7 @@
         <v>1.01.CADGISIntegration.md</v>
       </c>
       <c r="H6" s="2" t="str">
-        <f t="shared" ref="H6:H44" si="2">IF(ISBLANK(A6),"",A6&amp;"/"&amp;B6)</f>
+        <f t="shared" ref="H6:H45" si="2">IF(ISBLANK(A6),"",A6&amp;"/"&amp;B6)</f>
         <v/>
       </c>
       <c r="I6" s="2" t="str">
@@ -1285,7 +1323,7 @@
         <v>CADGIS1Lecture/1.01.CADGISIntegration.md</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1317,7 +1355,7 @@
         <v>CADGIS1Lecture/1.02.WhatIsFME.md</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -1349,7 +1387,7 @@
         <v>CADGIS1Lecture/1.03.DataTransformation.md</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -1381,7 +1419,7 @@
         <v>CADGIS1Lecture/1.04.WhatIsDataTransformation.md</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>71</v>
       </c>
@@ -1410,7 +1448,7 @@
         <v>CADGIS2LabDemonstration/2.00.LabDemonstration.md</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1442,7 +1480,7 @@
         <v>CADGIS2LabDemonstration/2.01.FMEDesktopComponents.md</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1474,7 +1512,7 @@
         <v>CADGIS2LabDemonstration/2.02.IntroductionToWorkbench.md</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1506,7 +1544,7 @@
         <v>CADGIS2LabDemonstration/2.03.WindowControl.md</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1538,7 +1576,7 @@
         <v>CADGIS2LabDemonstration/2.04.CreatingATranslation.md</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1570,7 +1608,7 @@
         <v>CADGIS2LabDemonstration/2.05.TheNewWorkspace.md</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2114,7 +2152,7 @@
         <v>CADGIS2LabDemonstration/2.22.TransformersInParallel.md</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -2146,7 +2184,7 @@
         <v>CADGIS2LabDemonstration/2.23.GroupByProcessing.md</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -2178,7 +2216,7 @@
         <v>CADGIS2LabDemonstration/2.24.DataInspectionFromWorkbench.md</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -2210,7 +2248,7 @@
         <v>CADGIS2LabDemonstration/2.25.CoordinateSystemTransformation.md</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>64</v>
       </c>
@@ -2239,7 +2277,7 @@
         <v>CADGIS3LabExercises/3.00.LabExercises.md</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>65</v>
       </c>
@@ -2267,8 +2305,11 @@
         <f t="shared" si="1"/>
         <v>CADGIS3LabExercises/3.01.GettingStartedwithAutoCAD.md</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J37" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>67</v>
       </c>
@@ -2296,8 +2337,11 @@
         <f t="shared" si="1"/>
         <v>CADGIS3LabExercises/3.02.GroupingEntitiesInDWG.md</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J38" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>66</v>
       </c>
@@ -2325,8 +2369,11 @@
         <f t="shared" si="1"/>
         <v>CADGIS3LabExercises/3.03.HandlingBlocksInDWG.md</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J39" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>73</v>
       </c>
@@ -2354,8 +2401,11 @@
         <f t="shared" si="1"/>
         <v>CADGIS3LabExercises/3.04.DWGToDGN.md</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J40" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>74</v>
       </c>
@@ -2383,8 +2433,11 @@
         <f t="shared" si="1"/>
         <v>CADGIS3LabExercises/3.05.SHPToDWG.md</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J41" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>68</v>
       </c>
@@ -2412,8 +2465,11 @@
         <f t="shared" si="1"/>
         <v>CADGIS3LabExercises/3.06.ExplodingBlockEntitiesInDWG.md</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J42" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>69</v>
       </c>
@@ -2441,8 +2497,11 @@
         <f t="shared" si="1"/>
         <v>CADGIS3LabExercises/3.07.PreservingBlockEntitiesInDWG.md</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J43" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>86</v>
       </c>
@@ -2471,7 +2530,7 @@
         <v>CADGIS3LabExercises/3.08.CADGISScenario.md</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>72</v>
       </c>
@@ -2492,7 +2551,7 @@
         <v>3.09.LabQuestions.md</v>
       </c>
       <c r="H45" s="2" t="str">
-        <f>IF(ISBLANK(A44),"",A44&amp;"/"&amp;B45)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I45" s="2" t="str">
@@ -2501,7 +2560,16 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J38" r:id="rId1"/>
+    <hyperlink ref="J39" r:id="rId2"/>
+    <hyperlink ref="J37" r:id="rId3"/>
+    <hyperlink ref="J40" r:id="rId4"/>
+    <hyperlink ref="J41" r:id="rId5"/>
+    <hyperlink ref="J42" r:id="rId6"/>
+    <hyperlink ref="J43" r:id="rId7"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/chapters.xlsx
+++ b/chapters.xlsx
@@ -216,9 +216,6 @@
     <t>LabExercises</t>
   </si>
   <si>
-    <t>GettingStartedwithAutoCAD</t>
-  </si>
-  <si>
     <t>HandlingBlocksInDWG</t>
   </si>
   <si>
@@ -273,15 +270,9 @@
     <t>25</t>
   </si>
   <si>
-    <t>CADGISIntegration</t>
-  </si>
-  <si>
     <t>section</t>
   </si>
   <si>
-    <t>CADGISScenario</t>
-  </si>
-  <si>
     <t>ModuleOverview</t>
   </si>
   <si>
@@ -310,6 +301,15 @@
   </si>
   <si>
     <t>kc_link</t>
+  </si>
+  <si>
+    <t>GettingStartedWithAutoCAD</t>
+  </si>
+  <si>
+    <t>CAD-GISIntegration</t>
+  </si>
+  <si>
+    <t>CAD-GISScenario</t>
   </si>
 </sst>
 </file>
@@ -1131,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1148,25 +1148,25 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
         <v>76</v>
       </c>
-      <c r="B1" t="s">
-        <v>77</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>13</v>
@@ -1175,13 +1175,13 @@
         <v>14</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1211,7 +1211,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -1241,7 +1241,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>58</v>
@@ -1312,7 +1312,7 @@
       </c>
       <c r="G6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.01.CADGISIntegration.md</v>
+        <v>1.01.CAD-GISIntegration.md</v>
       </c>
       <c r="H6" s="2" t="str">
         <f t="shared" ref="H6:H45" si="2">IF(ISBLANK(A6),"",A6&amp;"/"&amp;B6)</f>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="I6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>CADGIS1Lecture/1.01.CADGISIntegration.md</v>
+        <v>CADGIS1Lecture/1.01.CAD-GISIntegration.md</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -1421,7 +1421,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>59</v>
@@ -1433,7 +1433,7 @@
         <v>61</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1465,7 +1465,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1497,7 +1497,7 @@
         <v>23</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1529,7 +1529,7 @@
         <v>24</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G13" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1561,7 +1561,7 @@
         <v>25</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G14" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1593,7 +1593,7 @@
         <v>26</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1625,7 +1625,7 @@
         <v>27</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1657,7 +1657,7 @@
         <v>28</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G17" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1689,7 +1689,7 @@
         <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G18" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1721,7 +1721,7 @@
         <v>30</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G19" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1753,7 +1753,7 @@
         <v>31</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G20" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1785,7 +1785,7 @@
         <v>22</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G21" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1817,7 +1817,7 @@
         <v>32</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G22" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1849,7 +1849,7 @@
         <v>33</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G23" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1881,7 +1881,7 @@
         <v>34</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G24" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1913,7 +1913,7 @@
         <v>35</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G25" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1945,7 +1945,7 @@
         <v>50</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G26" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1977,7 +1977,7 @@
         <v>51</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G27" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2009,7 +2009,7 @@
         <v>52</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G28" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2041,7 +2041,7 @@
         <v>53</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G29" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2073,7 +2073,7 @@
         <v>54</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G30" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2105,7 +2105,7 @@
         <v>55</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G31" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2137,7 +2137,7 @@
         <v>56</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G32" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2166,10 +2166,10 @@
         <v>58</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G33" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2198,10 +2198,10 @@
         <v>58</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G34" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2230,10 +2230,10 @@
         <v>58</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G35" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2279,7 +2279,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>62</v>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="G37" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>3.01.GettingStartedwithAutoCAD.md</v>
+        <v>3.01.GettingStartedWithAutoCAD.md</v>
       </c>
       <c r="H37" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2303,15 +2303,15 @@
       </c>
       <c r="I37" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>CADGIS3LabExercises/3.01.GettingStartedwithAutoCAD.md</v>
+        <v>CADGIS3LabExercises/3.01.GettingStartedWithAutoCAD.md</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>62</v>
@@ -2338,12 +2338,12 @@
         <v>CADGIS3LabExercises/3.02.GroupingEntitiesInDWG.md</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>62</v>
@@ -2370,12 +2370,12 @@
         <v>CADGIS3LabExercises/3.03.HandlingBlocksInDWG.md</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>62</v>
@@ -2402,12 +2402,12 @@
         <v>CADGIS3LabExercises/3.04.DWGToDGN.md</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>62</v>
@@ -2434,12 +2434,12 @@
         <v>CADGIS3LabExercises/3.05.SHPToDWG.md</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>62</v>
@@ -2466,12 +2466,12 @@
         <v>CADGIS3LabExercises/3.06.ExplodingBlockEntitiesInDWG.md</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>62</v>
@@ -2498,12 +2498,12 @@
         <v>CADGIS3LabExercises/3.07.PreservingBlockEntitiesInDWG.md</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>62</v>
@@ -2519,7 +2519,7 @@
       </c>
       <c r="G44" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>3.08.CADGISScenario.md</v>
+        <v>3.08.CAD-GISScenario.md</v>
       </c>
       <c r="H44" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2527,12 +2527,12 @@
       </c>
       <c r="I44" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>CADGIS3LabExercises/3.08.CADGISScenario.md</v>
+        <v>CADGIS3LabExercises/3.08.CAD-GISScenario.md</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>62</v>
